--- a/nmt/experiments/exp1/valid_result.xlsx
+++ b/nmt/experiments/exp1/valid_result.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -425,7 +425,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>梅利亚德</t>
+          <t>马利亚德</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -459,7 +459,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>埃金顿</t>
+          <t>埃德顿</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>钱斯勒</t>
+          <t>钱塞勒</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -714,7 +714,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>布卢德沃思</t>
+          <t>布拉德沃思</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -850,7 +850,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>吉尔德胡斯</t>
+          <t>吉尔德赫斯</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -884,7 +884,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>埃利昂</t>
+          <t>埃莱昂</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>法尔布雷思</t>
+          <t>福尔布雷思</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>克雷伯</t>
+          <t>克里伯</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1156,7 +1156,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>基尔彻</t>
+          <t>基尔彻恩</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>默吉娅</t>
+          <t>默尔亚</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>韦恩</t>
+          <t>温</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>尼斯旺德</t>
+          <t>尼斯万德</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>贝尔沃尔</t>
+          <t>贝尔沃</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>阿莱恩</t>
+          <t>阿林</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1530,7 +1530,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>肖尔斯</t>
+          <t>肖雷斯</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>伊斯特伯恩</t>
+          <t>伊斯特本</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>范科弗</t>
+          <t>万库弗</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1649,7 +1649,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>弗赖伯格</t>
+          <t>弗雷伯格</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1734,7 +1734,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>格德里</t>
+          <t>古德里</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -1819,7 +1819,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>博克</t>
+          <t>博克尔</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>巴舍</t>
+          <t>巴希尔</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2040,7 +2040,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>霍维茨</t>
+          <t>霍威茨</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2193,7 +2193,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>杜钦</t>
+          <t>杜琴</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2295,7 +2295,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>赫弗尔鲍尔</t>
+          <t>赫夫尔鲍尔</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -2465,7 +2465,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>马吉斯特里蒂</t>
+          <t>马吉斯特雷蒂</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -2550,7 +2550,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>瓦利托特</t>
+          <t>瓦莱托特</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -2567,7 +2567,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>哈尔多尔</t>
+          <t>霍尔多尔</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>加利亚尔迪</t>
+          <t>加利亚迪</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -2788,7 +2788,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>坎博恩</t>
+          <t>坎本</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -2822,7 +2822,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>马彻</t>
+          <t>马克尔</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>特拉克萨尔</t>
+          <t>特鲁克萨尔</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -2992,7 +2992,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>雷文特洛</t>
+          <t>里文特洛</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -3094,7 +3094,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>盖彭</t>
+          <t>加彭</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -3111,7 +3111,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>莱恩</t>
+          <t>赖恩</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -3247,7 +3247,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>卡里迪亚</t>
+          <t>卡里迪娅</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -3298,7 +3298,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>克洛丽德</t>
+          <t>克洛里德</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -3349,7 +3349,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>斯拉比</t>
+          <t>斯拉皮</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -3434,7 +3434,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>希亚</t>
+          <t>谢娅</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -3672,7 +3672,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>萨萨姆斯</t>
+          <t>苏珊姆斯</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -3689,7 +3689,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>奥尔福德</t>
+          <t>阿尔福德</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -3706,7 +3706,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>麦查迪</t>
+          <t>麦查哈迪</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>斯卡齐</t>
+          <t>斯卡尔齐</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -4114,7 +4114,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>凯特</t>
+          <t>凯托</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -4165,7 +4165,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>曼基</t>
+          <t>曼丘</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -4301,7 +4301,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>布卢姆尔</t>
+          <t>布卢姆利</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -4335,7 +4335,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>麦克里斯蒂安</t>
+          <t>麦克里斯琴</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -4352,7 +4352,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>希纳</t>
+          <t>希娜</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -4403,7 +4403,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>塔姆吉斯特</t>
+          <t>图姆吉斯特</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -4624,7 +4624,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>基维特</t>
+          <t>基韦特</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -4658,7 +4658,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>勒克斯</t>
+          <t>卢克斯</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -4692,7 +4692,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>斯通豪</t>
+          <t>斯托尼休尔</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -4760,7 +4760,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>勒热勒</t>
+          <t>勒休</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -4794,7 +4794,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>索林顿</t>
+          <t>托林顿</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -4845,7 +4845,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>马洪</t>
+          <t>马恩</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -4930,7 +4930,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>诺伊戈尔德</t>
+          <t>诺戈戈德</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -4964,7 +4964,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>鲍斯曼</t>
+          <t>鲍兹曼</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>安茨</t>
+          <t>安策斯</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -5049,7 +5049,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>英弗克利德</t>
+          <t>英弗克莱莱德</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -5083,7 +5083,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>贝尔林杰</t>
+          <t>贝尔林格</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -5185,7 +5185,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>莱明</t>
+          <t>利明</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -5270,7 +5270,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>科焦拉</t>
+          <t>科乔拉</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -5355,7 +5355,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>莱卡尔</t>
+          <t>勒卡尔</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -5457,7 +5457,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>斯图瓦特</t>
+          <t>斯图尔特</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -5525,7 +5525,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>格朗贝克</t>
+          <t>格朗巴赫</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -5559,7 +5559,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>戈德德纳</t>
+          <t>戈德纳</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -5729,7 +5729,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>内洛夫</t>
+          <t>纳洛夫</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -5916,7 +5916,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>阿拉斯德尔</t>
+          <t>阿阿斯代尔</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -6120,7 +6120,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>哈伯特</t>
+          <t>哈巴特</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -6137,7 +6137,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>莱万</t>
+          <t>卢因</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -6171,7 +6171,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>斯托夫</t>
+          <t>斯托</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -6188,7 +6188,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>西科</t>
+          <t>塞科</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -6222,7 +6222,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>斯蒂德贝克</t>
+          <t>斯塔德贝克</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -6256,7 +6256,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>贝尔特伦</t>
+          <t>贝尔特兰</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>勒布朗</t>
+          <t>莱布朗</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>兰德伊特</t>
+          <t>兰杜伊特</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -6494,7 +6494,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>兰普洛</t>
+          <t>兰普拉</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -6613,7 +6613,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>伊斯蒂尔</t>
+          <t>伊斯特尔</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -6647,7 +6647,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>巴比</t>
+          <t>贝比</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -6715,7 +6715,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>拉萨特</t>
+          <t>拉塞特</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -6766,7 +6766,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>施温</t>
+          <t>施韦恩</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -7140,7 +7140,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>弗里戈利托</t>
+          <t>弗里戈莱托</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -7157,7 +7157,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>梅尔</t>
+          <t>迈尔</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -7191,7 +7191,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>埃克隆</t>
+          <t>埃克伦</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -7293,7 +7293,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>哈基吉安</t>
+          <t>哈奇吉安</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -7548,7 +7548,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>切恩</t>
+          <t>切</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -7582,7 +7582,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>乌利维奇</t>
+          <t>乌尔维奇</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -7599,7 +7599,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>迪贾莱纳尔多</t>
+          <t>迪贾亚约纳多</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -7735,7 +7735,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>谢默斯</t>
+          <t>沙默斯</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>弗雷什沃特</t>
+          <t>弗雷施沃特</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -8092,7 +8092,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>麦克纳耶</t>
+          <t>麦克努耶</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -8194,7 +8194,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>安东霍尔兹</t>
+          <t>安东霍尔茨</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>赖蒂纳</t>
+          <t>里蒂纳</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -8262,7 +8262,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>米里希</t>
+          <t>米里施</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -8347,7 +8347,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>奥尔</t>
+          <t>阿尔</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -8381,7 +8381,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>盖尼斯</t>
+          <t>吉尼斯</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -8534,7 +8534,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>阿扬林德</t>
+          <t>艾昂林德</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>马伦诺</t>
+          <t>马勒诺</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>蒂雷尔</t>
+          <t>泰雷尔</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -8874,7 +8874,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>洛弗</t>
+          <t>勒弗</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -9197,7 +9197,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>罗比</t>
+          <t>罗布</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
@@ -9231,7 +9231,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>莱特富特</t>
+          <t>莱特福特</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -9265,7 +9265,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>麦克代米德</t>
+          <t>麦克代尔米德</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
@@ -9384,7 +9384,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>梅里恩</t>
+          <t>梅里昂</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
@@ -9435,7 +9435,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>法尔布</t>
+          <t>福尔布</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -9571,7 +9571,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>安东尼奥</t>
+          <t>安东尼欧</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
@@ -9639,7 +9639,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>托格里姆森</t>
+          <t>索格里姆森</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -9656,7 +9656,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>索伯利克</t>
+          <t>索伯利奇</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
@@ -9911,7 +9911,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>凯普林格</t>
+          <t>开普林格</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
@@ -9962,7 +9962,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>亨顿</t>
+          <t>亨图恩</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
@@ -9996,7 +9996,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>哈斯尔伍德</t>
+          <t>黑斯尔伍德</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
@@ -10098,7 +10098,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>伊瓦斯</t>
+          <t>伊瓦尔斯</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
@@ -10132,7 +10132,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>胡安</t>
+          <t>朱汉</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
@@ -10183,7 +10183,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>芭伯丽</t>
+          <t>巴伯里</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
@@ -10217,7 +10217,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>斯坦杰</t>
+          <t>斯坦格</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
@@ -10302,7 +10302,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>伍尔夫</t>
+          <t>沃尔夫</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
@@ -10523,7 +10523,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>尼</t>
+          <t>尼伊</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
@@ -10812,7 +10812,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>斯蒂文</t>
+          <t>史蒂文</t>
         </is>
       </c>
       <c r="C615" t="inlineStr">
@@ -10829,7 +10829,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>巴西利</t>
+          <t>巴锡利</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
@@ -10897,7 +10897,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>巴法汉</t>
+          <t>巴夫汉</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
@@ -11203,7 +11203,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>迪利恩</t>
+          <t>迪利安</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
@@ -11220,7 +11220,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>莱斯托</t>
+          <t>莱斯特</t>
         </is>
       </c>
       <c r="C639" t="inlineStr">
@@ -11288,7 +11288,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>拉布尔</t>
+          <t>鲁布尔</t>
         </is>
       </c>
       <c r="C643" t="inlineStr">
@@ -11815,7 +11815,7 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>斯特森</t>
+          <t>斯泰森</t>
         </is>
       </c>
       <c r="C674" t="inlineStr">
@@ -11832,7 +11832,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>格伦</t>
+          <t>热伦</t>
         </is>
       </c>
       <c r="C675" t="inlineStr">
@@ -11900,7 +11900,7 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>克利耶特</t>
+          <t>克利特</t>
         </is>
       </c>
       <c r="C679" t="inlineStr">
@@ -12053,7 +12053,7 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>马辛格尔</t>
+          <t>马辛奥尔</t>
         </is>
       </c>
       <c r="C688" t="inlineStr">
@@ -12104,7 +12104,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>恩杰</t>
+          <t>恩格</t>
         </is>
       </c>
       <c r="C691" t="inlineStr">
@@ -12172,7 +12172,7 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>吉博尔迪</t>
+          <t>吉巴尔迪</t>
         </is>
       </c>
       <c r="C695" t="inlineStr">
@@ -12223,7 +12223,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>林赛克姆</t>
+          <t>林西克姆</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
@@ -12240,7 +12240,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>彻尼乔</t>
+          <t>切尔尼肖</t>
         </is>
       </c>
       <c r="C699" t="inlineStr">
@@ -12257,7 +12257,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>阿普思克</t>
+          <t>阿普塞克</t>
         </is>
       </c>
       <c r="C700" t="inlineStr">
@@ -12325,7 +12325,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>尤尔科维茨</t>
+          <t>尤尔维威茨</t>
         </is>
       </c>
       <c r="C704" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>加维纳</t>
+          <t>加维娜</t>
         </is>
       </c>
       <c r="C707" t="inlineStr">
@@ -12410,7 +12410,7 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>戈德雷斯</t>
+          <t>戈德里斯</t>
         </is>
       </c>
       <c r="C709" t="inlineStr">
@@ -12444,7 +12444,7 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>庞斯伯里</t>
+          <t>波恩斯伯里</t>
         </is>
       </c>
       <c r="C711" t="inlineStr">
@@ -12461,7 +12461,7 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>波菲利奥</t>
+          <t>波尔菲利奥</t>
         </is>
       </c>
       <c r="C712" t="inlineStr">
@@ -12580,7 +12580,7 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>伊多妮亚</t>
+          <t>伊多妮娅</t>
         </is>
       </c>
       <c r="C719" t="inlineStr">
@@ -12648,7 +12648,7 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>科塔达</t>
+          <t>科塔塔</t>
         </is>
       </c>
       <c r="C723" t="inlineStr">
@@ -12665,7 +12665,7 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>麦贡</t>
+          <t>麦古恩</t>
         </is>
       </c>
       <c r="C724" t="inlineStr">
@@ -12733,7 +12733,7 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>米特朗</t>
+          <t>米特甘</t>
         </is>
       </c>
       <c r="C728" t="inlineStr">
@@ -12971,7 +12971,7 @@
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>布鲁德古德</t>
+          <t>布拉德古德</t>
         </is>
       </c>
       <c r="C742" t="inlineStr">
@@ -13124,7 +13124,7 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>戴克尼</t>
+          <t>达凯恩</t>
         </is>
       </c>
       <c r="C751" t="inlineStr">
@@ -13175,7 +13175,7 @@
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>奥加拉</t>
+          <t>奥加勒</t>
         </is>
       </c>
       <c r="C754" t="inlineStr">
@@ -13260,7 +13260,7 @@
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>布尔蒂蒂德</t>
+          <t>布尔蒂迪德</t>
         </is>
       </c>
       <c r="C759" t="inlineStr">
@@ -13311,7 +13311,7 @@
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>沃普尔</t>
+          <t>韦普尔</t>
         </is>
       </c>
       <c r="C762" t="inlineStr">
@@ -13600,7 +13600,7 @@
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>奥达霍斯基</t>
+          <t>奥达霍夫斯基</t>
         </is>
       </c>
       <c r="C779" t="inlineStr">
@@ -13651,7 +13651,7 @@
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>霍尔迈亚德</t>
+          <t>霍姆亚德</t>
         </is>
       </c>
       <c r="C782" t="inlineStr">
@@ -13702,7 +13702,7 @@
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>格里兹沃尔德</t>
+          <t>格里斯沃尔德</t>
         </is>
       </c>
       <c r="C785" t="inlineStr">
@@ -13804,7 +13804,7 @@
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>贾尔森</t>
+          <t>朱尔森</t>
         </is>
       </c>
       <c r="C791" t="inlineStr">
@@ -13821,7 +13821,7 @@
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>玛丽安娜</t>
+          <t>玛丽亚姆</t>
         </is>
       </c>
       <c r="C792" t="inlineStr">
@@ -13855,7 +13855,7 @@
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t>丁格尔代因</t>
+          <t>丁格尔丹</t>
         </is>
       </c>
       <c r="C794" t="inlineStr">
@@ -14110,7 +14110,7 @@
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t>库尔茨</t>
+          <t>库茨</t>
         </is>
       </c>
       <c r="C809" t="inlineStr">
@@ -14246,7 +14246,7 @@
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>索拉茨</t>
+          <t>索拉尔斯</t>
         </is>
       </c>
       <c r="C817" t="inlineStr">
@@ -14297,7 +14297,7 @@
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>布里德波特</t>
+          <t>布里波特</t>
         </is>
       </c>
       <c r="C820" t="inlineStr">
@@ -14365,7 +14365,7 @@
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>斯凯勒</t>
+          <t>斯凯拉</t>
         </is>
       </c>
       <c r="C824" t="inlineStr">
@@ -14399,7 +14399,7 @@
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>凯姆</t>
+          <t>卡姆</t>
         </is>
       </c>
       <c r="C826" t="inlineStr">
@@ -14552,7 +14552,7 @@
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t>尼伦</t>
+          <t>尼隆</t>
         </is>
       </c>
       <c r="C835" t="inlineStr">
@@ -14620,7 +14620,7 @@
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>利特尔</t>
+          <t>莱特尔</t>
         </is>
       </c>
       <c r="C839" t="inlineStr">
@@ -14790,7 +14790,7 @@
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>布伦纳塞特</t>
+          <t>布伦纳哈西特</t>
         </is>
       </c>
       <c r="C849" t="inlineStr">
@@ -14926,7 +14926,7 @@
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>基德多</t>
+          <t>基杜</t>
         </is>
       </c>
       <c r="C857" t="inlineStr">
@@ -15079,7 +15079,7 @@
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t>阿罗妮卡</t>
+          <t>阿罗尼卡</t>
         </is>
       </c>
       <c r="C866" t="inlineStr">
@@ -15147,7 +15147,7 @@
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>内蒂</t>
+          <t>妮蒂</t>
         </is>
       </c>
       <c r="C870" t="inlineStr">
@@ -15232,7 +15232,7 @@
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>梅亚特</t>
+          <t>迈亚特</t>
         </is>
       </c>
       <c r="C875" t="inlineStr">
@@ -15266,7 +15266,7 @@
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>厄巴克</t>
+          <t>厄巴赫</t>
         </is>
       </c>
       <c r="C877" t="inlineStr">
@@ -15555,7 +15555,7 @@
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>克莱曼</t>
+          <t>克莱曼曼</t>
         </is>
       </c>
       <c r="C894" t="inlineStr">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t>埃森</t>
+          <t>艾森</t>
         </is>
       </c>
       <c r="C899" t="inlineStr">
@@ -15708,7 +15708,7 @@
       </c>
       <c r="B903" t="inlineStr">
         <is>
-          <t>利德福德</t>
+          <t>利德福</t>
         </is>
       </c>
       <c r="C903" t="inlineStr">
@@ -15878,7 +15878,7 @@
       </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t>多森</t>
+          <t>多特森</t>
         </is>
       </c>
       <c r="C913" t="inlineStr">
@@ -15895,7 +15895,7 @@
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t>奥菲特</t>
+          <t>奥普特</t>
         </is>
       </c>
       <c r="C914" t="inlineStr">
@@ -15963,7 +15963,7 @@
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>梅特亚德</t>
+          <t>米特亚德</t>
         </is>
       </c>
       <c r="C918" t="inlineStr">
@@ -15980,7 +15980,7 @@
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t>冈萨雷兹</t>
+          <t>冈萨雷斯</t>
         </is>
       </c>
       <c r="C919" t="inlineStr">
@@ -16116,7 +16116,7 @@
       </c>
       <c r="B927" t="inlineStr">
         <is>
-          <t>盖恩斯布拉</t>
+          <t>盖恩斯布勒</t>
         </is>
       </c>
       <c r="C927" t="inlineStr">
@@ -16184,7 +16184,7 @@
       </c>
       <c r="B931" t="inlineStr">
         <is>
-          <t>伯奈</t>
+          <t>伯内</t>
         </is>
       </c>
       <c r="C931" t="inlineStr">
@@ -16201,7 +16201,7 @@
       </c>
       <c r="B932" t="inlineStr">
         <is>
-          <t>佩普</t>
+          <t>皮普</t>
         </is>
       </c>
       <c r="C932" t="inlineStr">
@@ -16235,7 +16235,7 @@
       </c>
       <c r="B934" t="inlineStr">
         <is>
-          <t>格兰西尔</t>
+          <t>格兰蒂尔</t>
         </is>
       </c>
       <c r="C934" t="inlineStr">
@@ -16303,7 +16303,7 @@
       </c>
       <c r="B938" t="inlineStr">
         <is>
-          <t>利西奥斯</t>
+          <t>利齐奥斯</t>
         </is>
       </c>
       <c r="C938" t="inlineStr">
@@ -16337,7 +16337,7 @@
       </c>
       <c r="B940" t="inlineStr">
         <is>
-          <t>雷迪</t>
+          <t>里迪</t>
         </is>
       </c>
       <c r="C940" t="inlineStr">
@@ -16371,7 +16371,7 @@
       </c>
       <c r="B942" t="inlineStr">
         <is>
-          <t>加布勒</t>
+          <t>盖布勒</t>
         </is>
       </c>
       <c r="C942" t="inlineStr">
@@ -16405,7 +16405,7 @@
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>维特姆</t>
+          <t>维图姆</t>
         </is>
       </c>
       <c r="C944" t="inlineStr">
@@ -16422,7 +16422,7 @@
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>索拉茨</t>
+          <t>索拉尔兹</t>
         </is>
       </c>
       <c r="C945" t="inlineStr">
@@ -16524,7 +16524,7 @@
       </c>
       <c r="B951" t="inlineStr">
         <is>
-          <t>埃利桑德</t>
+          <t>伊利桑德</t>
         </is>
       </c>
       <c r="C951" t="inlineStr">
@@ -16660,7 +16660,7 @@
       </c>
       <c r="B959" t="inlineStr">
         <is>
-          <t>莱瑟姆</t>
+          <t>利瑟姆</t>
         </is>
       </c>
       <c r="C959" t="inlineStr">
@@ -16728,7 +16728,7 @@
       </c>
       <c r="B963" t="inlineStr">
         <is>
-          <t>扬</t>
+          <t>艾恩</t>
         </is>
       </c>
       <c r="C963" t="inlineStr">
@@ -16898,7 +16898,7 @@
       </c>
       <c r="B973" t="inlineStr">
         <is>
-          <t>戈兹沃西</t>
+          <t>戈兹兹沃西</t>
         </is>
       </c>
       <c r="C973" t="inlineStr">
@@ -17187,7 +17187,7 @@
       </c>
       <c r="B990" t="inlineStr">
         <is>
-          <t>哈奇</t>
+          <t>哈格</t>
         </is>
       </c>
       <c r="C990" t="inlineStr">
@@ -17527,7 +17527,7 @@
       </c>
       <c r="B1010" t="inlineStr">
         <is>
-          <t>博恩海默</t>
+          <t>本海默</t>
         </is>
       </c>
       <c r="C1010" t="inlineStr">
@@ -17544,7 +17544,7 @@
       </c>
       <c r="B1011" t="inlineStr">
         <is>
-          <t>布拉金里德</t>
+          <t>布拉肯里德</t>
         </is>
       </c>
       <c r="C1011" t="inlineStr">
@@ -17918,7 +17918,7 @@
       </c>
       <c r="B1033" t="inlineStr">
         <is>
-          <t>安克廷</t>
+          <t>安凯廷</t>
         </is>
       </c>
       <c r="C1033" t="inlineStr">
@@ -18241,7 +18241,7 @@
       </c>
       <c r="B1052" t="inlineStr">
         <is>
-          <t>费尔</t>
+          <t>费埃尔</t>
         </is>
       </c>
       <c r="C1052" t="inlineStr">
@@ -18360,7 +18360,7 @@
       </c>
       <c r="B1059" t="inlineStr">
         <is>
-          <t>斯莫尼斯</t>
+          <t>西蒙斯</t>
         </is>
       </c>
       <c r="C1059" t="inlineStr">
@@ -18615,7 +18615,7 @@
       </c>
       <c r="B1074" t="inlineStr">
         <is>
-          <t>图莎</t>
+          <t>图萨</t>
         </is>
       </c>
       <c r="C1074" t="inlineStr">
@@ -18666,7 +18666,7 @@
       </c>
       <c r="B1077" t="inlineStr">
         <is>
-          <t>阿朱厄斯</t>
+          <t>阿吉厄斯</t>
         </is>
       </c>
       <c r="C1077" t="inlineStr">
@@ -18802,7 +18802,7 @@
       </c>
       <c r="B1085" t="inlineStr">
         <is>
-          <t>克莱因</t>
+          <t>克兰</t>
         </is>
       </c>
       <c r="C1085" t="inlineStr">
@@ -18819,7 +18819,7 @@
       </c>
       <c r="B1086" t="inlineStr">
         <is>
-          <t>拉维纳</t>
+          <t>拉维娜</t>
         </is>
       </c>
       <c r="C1086" t="inlineStr">
@@ -18955,7 +18955,7 @@
       </c>
       <c r="B1094" t="inlineStr">
         <is>
-          <t>斯坎德鲁普</t>
+          <t>斯坎德勒普</t>
         </is>
       </c>
       <c r="C1094" t="inlineStr">
@@ -18972,7 +18972,7 @@
       </c>
       <c r="B1095" t="inlineStr">
         <is>
-          <t>巴西里厄斯</t>
+          <t>巴西利厄斯</t>
         </is>
       </c>
       <c r="C1095" t="inlineStr">
@@ -19023,7 +19023,7 @@
       </c>
       <c r="B1098" t="inlineStr">
         <is>
-          <t>格尔森</t>
+          <t>戈尔森</t>
         </is>
       </c>
       <c r="C1098" t="inlineStr">
@@ -19040,7 +19040,7 @@
       </c>
       <c r="B1099" t="inlineStr">
         <is>
-          <t>尤哈里斯塔</t>
+          <t>尤查里斯塔</t>
         </is>
       </c>
       <c r="C1099" t="inlineStr">
@@ -19057,7 +19057,7 @@
       </c>
       <c r="B1100" t="inlineStr">
         <is>
-          <t>杜托伊特</t>
+          <t>杜托伊持</t>
         </is>
       </c>
       <c r="C1100" t="inlineStr">
@@ -19091,7 +19091,7 @@
       </c>
       <c r="B1102" t="inlineStr">
         <is>
-          <t>埃弗拉特</t>
+          <t>埃弗雷特</t>
         </is>
       </c>
       <c r="C1102" t="inlineStr">
@@ -19125,7 +19125,7 @@
       </c>
       <c r="B1104" t="inlineStr">
         <is>
-          <t>坦斯纳利</t>
+          <t>坦斯尔</t>
         </is>
       </c>
       <c r="C1104" t="inlineStr">
@@ -19142,7 +19142,7 @@
       </c>
       <c r="B1105" t="inlineStr">
         <is>
-          <t>沃伊奥特</t>
+          <t>沃约特</t>
         </is>
       </c>
       <c r="C1105" t="inlineStr">
@@ -19159,7 +19159,7 @@
       </c>
       <c r="B1106" t="inlineStr">
         <is>
-          <t>怀尔达什</t>
+          <t>薇尔达什</t>
         </is>
       </c>
       <c r="C1106" t="inlineStr">
@@ -19329,7 +19329,7 @@
       </c>
       <c r="B1116" t="inlineStr">
         <is>
-          <t>米廷格</t>
+          <t>迈廷格</t>
         </is>
       </c>
       <c r="C1116" t="inlineStr">
@@ -19550,7 +19550,7 @@
       </c>
       <c r="B1129" t="inlineStr">
         <is>
-          <t>汤福德</t>
+          <t>汤姆德德</t>
         </is>
       </c>
       <c r="C1129" t="inlineStr">
@@ -19567,7 +19567,7 @@
       </c>
       <c r="B1130" t="inlineStr">
         <is>
-          <t>撒帕尔</t>
+          <t>萨帕尔</t>
         </is>
       </c>
       <c r="C1130" t="inlineStr">
@@ -19584,7 +19584,7 @@
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>夏安娜</t>
+          <t>希安娜</t>
         </is>
       </c>
       <c r="C1131" t="inlineStr">
@@ -19635,7 +19635,7 @@
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>卡安</t>
+          <t>卡恩</t>
         </is>
       </c>
       <c r="C1134" t="inlineStr">
@@ -19720,7 +19720,7 @@
       </c>
       <c r="B1139" t="inlineStr">
         <is>
-          <t>梅西</t>
+          <t>梅茜</t>
         </is>
       </c>
       <c r="C1139" t="inlineStr">
@@ -19839,7 +19839,7 @@
       </c>
       <c r="B1146" t="inlineStr">
         <is>
-          <t>伯克诺尔</t>
+          <t>伯克纳尔</t>
         </is>
       </c>
       <c r="C1146" t="inlineStr">
@@ -20009,7 +20009,7 @@
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>科贝特</t>
+          <t>科比特</t>
         </is>
       </c>
       <c r="C1156" t="inlineStr">
@@ -20128,7 +20128,7 @@
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>达嫩贝格</t>
+          <t>达嫩伯格</t>
         </is>
       </c>
       <c r="C1163" t="inlineStr">
@@ -20145,7 +20145,7 @@
       </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>登内里</t>
+          <t>登纳里</t>
         </is>
       </c>
       <c r="C1164" t="inlineStr">
@@ -20332,7 +20332,7 @@
       </c>
       <c r="B1175" t="inlineStr">
         <is>
-          <t>巴尔格林</t>
+          <t>巴尔杰林</t>
         </is>
       </c>
       <c r="C1175" t="inlineStr">
@@ -20349,7 +20349,7 @@
       </c>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>埃恩韦尔德</t>
+          <t>厄恩威尔德</t>
         </is>
       </c>
       <c r="C1176" t="inlineStr">
@@ -20366,7 +20366,7 @@
       </c>
       <c r="B1177" t="inlineStr">
         <is>
-          <t>泽文</t>
+          <t>泽温</t>
         </is>
       </c>
       <c r="C1177" t="inlineStr">
@@ -20417,7 +20417,7 @@
       </c>
       <c r="B1180" t="inlineStr">
         <is>
-          <t>洛尼斯</t>
+          <t>洛恩斯</t>
         </is>
       </c>
       <c r="C1180" t="inlineStr">
@@ -20519,7 +20519,7 @@
       </c>
       <c r="B1186" t="inlineStr">
         <is>
-          <t>法利斯</t>
+          <t>法利兹</t>
         </is>
       </c>
       <c r="C1186" t="inlineStr">
@@ -20689,7 +20689,7 @@
       </c>
       <c r="B1196" t="inlineStr">
         <is>
-          <t>索塞尔</t>
+          <t>楚泽尔</t>
         </is>
       </c>
       <c r="C1196" t="inlineStr">
@@ -20893,7 +20893,7 @@
       </c>
       <c r="B1208" t="inlineStr">
         <is>
-          <t>尤恩森</t>
+          <t>昂森</t>
         </is>
       </c>
       <c r="C1208" t="inlineStr">
@@ -20944,7 +20944,7 @@
       </c>
       <c r="B1211" t="inlineStr">
         <is>
-          <t>马连索尔</t>
+          <t>马林森塔尔</t>
         </is>
       </c>
       <c r="C1211" t="inlineStr">
@@ -21148,7 +21148,7 @@
       </c>
       <c r="B1223" t="inlineStr">
         <is>
-          <t>格娜</t>
+          <t>杰纳</t>
         </is>
       </c>
       <c r="C1223" t="inlineStr">
@@ -21369,7 +21369,7 @@
       </c>
       <c r="B1236" t="inlineStr">
         <is>
-          <t>阿斯</t>
+          <t>埃斯</t>
         </is>
       </c>
       <c r="C1236" t="inlineStr">
@@ -21437,7 +21437,7 @@
       </c>
       <c r="B1240" t="inlineStr">
         <is>
-          <t>德文</t>
+          <t>德万</t>
         </is>
       </c>
       <c r="C1240" t="inlineStr">
@@ -21471,7 +21471,7 @@
       </c>
       <c r="B1242" t="inlineStr">
         <is>
-          <t>古默</t>
+          <t>高默</t>
         </is>
       </c>
       <c r="C1242" t="inlineStr">
@@ -21488,7 +21488,7 @@
       </c>
       <c r="B1243" t="inlineStr">
         <is>
-          <t>赫尼亚</t>
+          <t>赫格纳</t>
         </is>
       </c>
       <c r="C1243" t="inlineStr">
@@ -21573,7 +21573,7 @@
       </c>
       <c r="B1248" t="inlineStr">
         <is>
-          <t>埃德琳</t>
+          <t>埃德林</t>
         </is>
       </c>
       <c r="C1248" t="inlineStr">
@@ -21590,7 +21590,7 @@
       </c>
       <c r="B1249" t="inlineStr">
         <is>
-          <t>沃尔德德</t>
+          <t>沃龙</t>
         </is>
       </c>
       <c r="C1249" t="inlineStr">
@@ -21624,7 +21624,7 @@
       </c>
       <c r="B1251" t="inlineStr">
         <is>
-          <t>哈斯蒂</t>
+          <t>黑斯蒂</t>
         </is>
       </c>
       <c r="C1251" t="inlineStr">
@@ -21692,7 +21692,7 @@
       </c>
       <c r="B1255" t="inlineStr">
         <is>
-          <t>里丁</t>
+          <t>赖丁</t>
         </is>
       </c>
       <c r="C1255" t="inlineStr">
@@ -21709,7 +21709,7 @@
       </c>
       <c r="B1256" t="inlineStr">
         <is>
-          <t>米格尔</t>
+          <t>米格</t>
         </is>
       </c>
       <c r="C1256" t="inlineStr">
@@ -21862,7 +21862,7 @@
       </c>
       <c r="B1265" t="inlineStr">
         <is>
-          <t>勒汉姆</t>
+          <t>利厄姆</t>
         </is>
       </c>
       <c r="C1265" t="inlineStr">
@@ -21947,7 +21947,7 @@
       </c>
       <c r="B1270" t="inlineStr">
         <is>
-          <t>佩特拉奇</t>
+          <t>彼特拉奇</t>
         </is>
       </c>
       <c r="C1270" t="inlineStr">
@@ -22134,7 +22134,7 @@
       </c>
       <c r="B1281" t="inlineStr">
         <is>
-          <t>瑟维斯</t>
+          <t>瑟韦斯</t>
         </is>
       </c>
       <c r="C1281" t="inlineStr">
@@ -22168,7 +22168,7 @@
       </c>
       <c r="B1283" t="inlineStr">
         <is>
-          <t>托姆索维奇</t>
+          <t>汤姆索维奇</t>
         </is>
       </c>
       <c r="C1283" t="inlineStr">
@@ -22185,7 +22185,7 @@
       </c>
       <c r="B1284" t="inlineStr">
         <is>
-          <t>夏米</t>
+          <t>沙米</t>
         </is>
       </c>
       <c r="C1284" t="inlineStr">
@@ -22304,7 +22304,7 @@
       </c>
       <c r="B1291" t="inlineStr">
         <is>
-          <t>耶特尔</t>
+          <t>耶特</t>
         </is>
       </c>
       <c r="C1291" t="inlineStr">
@@ -22406,7 +22406,7 @@
       </c>
       <c r="B1297" t="inlineStr">
         <is>
-          <t>拉兹罗</t>
+          <t>莱泽罗</t>
         </is>
       </c>
       <c r="C1297" t="inlineStr">
@@ -22423,7 +22423,7 @@
       </c>
       <c r="B1298" t="inlineStr">
         <is>
-          <t>德明</t>
+          <t>戴明</t>
         </is>
       </c>
       <c r="C1298" t="inlineStr">
@@ -22491,7 +22491,7 @@
       </c>
       <c r="B1302" t="inlineStr">
         <is>
-          <t>索斯特</t>
+          <t>苏斯特</t>
         </is>
       </c>
       <c r="C1302" t="inlineStr">
@@ -22525,7 +22525,7 @@
       </c>
       <c r="B1304" t="inlineStr">
         <is>
-          <t>洛克伯勒</t>
+          <t>洛伯勒</t>
         </is>
       </c>
       <c r="C1304" t="inlineStr">
@@ -22559,7 +22559,7 @@
       </c>
       <c r="B1306" t="inlineStr">
         <is>
-          <t>利贡</t>
+          <t>利根</t>
         </is>
       </c>
       <c r="C1306" t="inlineStr">
@@ -22627,7 +22627,7 @@
       </c>
       <c r="B1310" t="inlineStr">
         <is>
-          <t>维尔格</t>
+          <t>弗莱格</t>
         </is>
       </c>
       <c r="C1310" t="inlineStr">
@@ -22678,7 +22678,7 @@
       </c>
       <c r="B1313" t="inlineStr">
         <is>
-          <t>克罗斯蒙</t>
+          <t>克罗斯门</t>
         </is>
       </c>
       <c r="C1313" t="inlineStr">
@@ -22865,7 +22865,7 @@
       </c>
       <c r="B1324" t="inlineStr">
         <is>
-          <t>蒂夫纳德</t>
+          <t>塞夫纳德</t>
         </is>
       </c>
       <c r="C1324" t="inlineStr">
@@ -22933,7 +22933,7 @@
       </c>
       <c r="B1328" t="inlineStr">
         <is>
-          <t>格格纳</t>
+          <t>盖格纳</t>
         </is>
       </c>
       <c r="C1328" t="inlineStr">
@@ -22967,7 +22967,7 @@
       </c>
       <c r="B1330" t="inlineStr">
         <is>
-          <t>菲恩</t>
+          <t>法安</t>
         </is>
       </c>
       <c r="C1330" t="inlineStr">
@@ -22984,7 +22984,7 @@
       </c>
       <c r="B1331" t="inlineStr">
         <is>
-          <t>麦肯奇尼</t>
+          <t>麦肯赫尼</t>
         </is>
       </c>
       <c r="C1331" t="inlineStr">
@@ -23069,7 +23069,7 @@
       </c>
       <c r="B1336" t="inlineStr">
         <is>
-          <t>费尔米纳</t>
+          <t>费尔迈纳</t>
         </is>
       </c>
       <c r="C1336" t="inlineStr">
@@ -23137,7 +23137,7 @@
       </c>
       <c r="B1340" t="inlineStr">
         <is>
-          <t>查瓦里</t>
+          <t>夏瓦里</t>
         </is>
       </c>
       <c r="C1340" t="inlineStr">
@@ -23154,7 +23154,7 @@
       </c>
       <c r="B1341" t="inlineStr">
         <is>
-          <t>纳伯斯</t>
+          <t>内伯斯</t>
         </is>
       </c>
       <c r="C1341" t="inlineStr">
@@ -23239,7 +23239,7 @@
       </c>
       <c r="B1346" t="inlineStr">
         <is>
-          <t>奥贝耶塞克</t>
+          <t>奥贝塞塞克</t>
         </is>
       </c>
       <c r="C1346" t="inlineStr">
@@ -23358,7 +23358,7 @@
       </c>
       <c r="B1353" t="inlineStr">
         <is>
-          <t>内尔</t>
+          <t>尼尔</t>
         </is>
       </c>
       <c r="C1353" t="inlineStr">
@@ -23477,7 +23477,7 @@
       </c>
       <c r="B1360" t="inlineStr">
         <is>
-          <t>科奇马</t>
+          <t>科奇施马尔</t>
         </is>
       </c>
       <c r="C1360" t="inlineStr">
@@ -23494,7 +23494,7 @@
       </c>
       <c r="B1361" t="inlineStr">
         <is>
-          <t>厄弗尔曼</t>
+          <t>厄费尔曼</t>
         </is>
       </c>
       <c r="C1361" t="inlineStr">
@@ -23545,7 +23545,7 @@
       </c>
       <c r="B1364" t="inlineStr">
         <is>
-          <t>钱德拉塞克</t>
+          <t>钱德拉塞克尔</t>
         </is>
       </c>
       <c r="C1364" t="inlineStr">
@@ -23630,7 +23630,7 @@
       </c>
       <c r="B1369" t="inlineStr">
         <is>
-          <t>莫伊斯</t>
+          <t>莫伊万</t>
         </is>
       </c>
       <c r="C1369" t="inlineStr">
@@ -23664,7 +23664,7 @@
       </c>
       <c r="B1371" t="inlineStr">
         <is>
-          <t>戈伊</t>
+          <t>高伊</t>
         </is>
       </c>
       <c r="C1371" t="inlineStr">
@@ -23936,7 +23936,7 @@
       </c>
       <c r="B1387" t="inlineStr">
         <is>
-          <t>德洛林</t>
+          <t>德洛伦</t>
         </is>
       </c>
       <c r="C1387" t="inlineStr">
@@ -23987,7 +23987,7 @@
       </c>
       <c r="B1390" t="inlineStr">
         <is>
-          <t>谢珀森</t>
+          <t>谢泼森</t>
         </is>
       </c>
       <c r="C1390" t="inlineStr">
@@ -24038,7 +24038,7 @@
       </c>
       <c r="B1393" t="inlineStr">
         <is>
-          <t>切斯顿顿</t>
+          <t>切斯特顿</t>
         </is>
       </c>
       <c r="C1393" t="inlineStr">
@@ -24174,7 +24174,7 @@
       </c>
       <c r="B1401" t="inlineStr">
         <is>
-          <t>切德尔</t>
+          <t>谢德尔</t>
         </is>
       </c>
       <c r="C1401" t="inlineStr">
@@ -24531,7 +24531,7 @@
       </c>
       <c r="B1422" t="inlineStr">
         <is>
-          <t>威尔德伍德</t>
+          <t>怀尔德伍德</t>
         </is>
       </c>
       <c r="C1422" t="inlineStr">
@@ -24565,7 +24565,7 @@
       </c>
       <c r="B1424" t="inlineStr">
         <is>
-          <t>温纳斯特伦</t>
+          <t>温纳斯特鲁姆</t>
         </is>
       </c>
       <c r="C1424" t="inlineStr">
@@ -24718,7 +24718,7 @@
       </c>
       <c r="B1433" t="inlineStr">
         <is>
-          <t>雷希</t>
+          <t>里希</t>
         </is>
       </c>
       <c r="C1433" t="inlineStr">
@@ -24769,7 +24769,7 @@
       </c>
       <c r="B1436" t="inlineStr">
         <is>
-          <t>古尔蒂</t>
+          <t>古蒂</t>
         </is>
       </c>
       <c r="C1436" t="inlineStr">
@@ -24837,7 +24837,7 @@
       </c>
       <c r="B1440" t="inlineStr">
         <is>
-          <t>斯特曾穆勒</t>
+          <t>斯特尔曾马勒</t>
         </is>
       </c>
       <c r="C1440" t="inlineStr">
@@ -24871,7 +24871,7 @@
       </c>
       <c r="B1442" t="inlineStr">
         <is>
-          <t>冈纳曼</t>
+          <t>贡纳曼</t>
         </is>
       </c>
       <c r="C1442" t="inlineStr">
@@ -25041,7 +25041,7 @@
       </c>
       <c r="B1452" t="inlineStr">
         <is>
-          <t>内格卡</t>
+          <t>纳格尔卡</t>
         </is>
       </c>
       <c r="C1452" t="inlineStr">
@@ -25347,7 +25347,7 @@
       </c>
       <c r="B1470" t="inlineStr">
         <is>
-          <t>帕利维奇</t>
+          <t>帕列维奇</t>
         </is>
       </c>
       <c r="C1470" t="inlineStr">
@@ -25364,7 +25364,7 @@
       </c>
       <c r="B1471" t="inlineStr">
         <is>
-          <t>德雷恩</t>
+          <t>德兰</t>
         </is>
       </c>
       <c r="C1471" t="inlineStr">
@@ -25415,7 +25415,7 @@
       </c>
       <c r="B1474" t="inlineStr">
         <is>
-          <t>蔡恩</t>
+          <t>钱恩</t>
         </is>
       </c>
       <c r="C1474" t="inlineStr">
@@ -25449,7 +25449,7 @@
       </c>
       <c r="B1476" t="inlineStr">
         <is>
-          <t>斯波尔霍夫</t>
+          <t>斯普尔霍夫</t>
         </is>
       </c>
       <c r="C1476" t="inlineStr">
@@ -25551,7 +25551,7 @@
       </c>
       <c r="B1482" t="inlineStr">
         <is>
-          <t>蒙罗</t>
+          <t>门罗</t>
         </is>
       </c>
       <c r="C1482" t="inlineStr">
@@ -25568,7 +25568,7 @@
       </c>
       <c r="B1483" t="inlineStr">
         <is>
-          <t>古宾斯</t>
+          <t>格宾斯</t>
         </is>
       </c>
       <c r="C1483" t="inlineStr">
@@ -25823,7 +25823,7 @@
       </c>
       <c r="B1498" t="inlineStr">
         <is>
-          <t>巴拉姆</t>
+          <t>巴勒姆</t>
         </is>
       </c>
       <c r="C1498" t="inlineStr">
@@ -25891,7 +25891,7 @@
       </c>
       <c r="B1502" t="inlineStr">
         <is>
-          <t>哈勒</t>
+          <t>黑勒</t>
         </is>
       </c>
       <c r="C1502" t="inlineStr">
@@ -25959,7 +25959,7 @@
       </c>
       <c r="B1506" t="inlineStr">
         <is>
-          <t>特鲁兰</t>
+          <t>特鲁伦</t>
         </is>
       </c>
       <c r="C1506" t="inlineStr">
@@ -26010,7 +26010,7 @@
       </c>
       <c r="B1509" t="inlineStr">
         <is>
-          <t>塞纳鲁萨</t>
+          <t>切纳鲁萨</t>
         </is>
       </c>
       <c r="C1509" t="inlineStr">
@@ -26044,7 +26044,7 @@
       </c>
       <c r="B1511" t="inlineStr">
         <is>
-          <t>范恩</t>
+          <t>范</t>
         </is>
       </c>
       <c r="C1511" t="inlineStr">
@@ -26248,7 +26248,7 @@
       </c>
       <c r="B1523" t="inlineStr">
         <is>
-          <t>利西特</t>
+          <t>莱西特</t>
         </is>
       </c>
       <c r="C1523" t="inlineStr">
@@ -26299,7 +26299,7 @@
       </c>
       <c r="B1526" t="inlineStr">
         <is>
-          <t>西弗尔斯基</t>
+          <t>塞弗尔斯基</t>
         </is>
       </c>
       <c r="C1526" t="inlineStr">
@@ -26350,7 +26350,7 @@
       </c>
       <c r="B1529" t="inlineStr">
         <is>
-          <t>埃夫纳</t>
+          <t>阿夫纳</t>
         </is>
       </c>
       <c r="C1529" t="inlineStr">
@@ -26520,7 +26520,7 @@
       </c>
       <c r="B1539" t="inlineStr">
         <is>
-          <t>丹尼</t>
+          <t>达尼奥</t>
         </is>
       </c>
       <c r="C1539" t="inlineStr">
@@ -26537,7 +26537,7 @@
       </c>
       <c r="B1540" t="inlineStr">
         <is>
-          <t>鲍德温</t>
+          <t>博德瓦恩</t>
         </is>
       </c>
       <c r="C1540" t="inlineStr">
@@ -26554,7 +26554,7 @@
       </c>
       <c r="B1541" t="inlineStr">
         <is>
-          <t>基尔</t>
+          <t>凯尔</t>
         </is>
       </c>
       <c r="C1541" t="inlineStr">
@@ -26571,7 +26571,7 @@
       </c>
       <c r="B1542" t="inlineStr">
         <is>
-          <t>贝尼恩斯</t>
+          <t>贝尼安斯</t>
         </is>
       </c>
       <c r="C1542" t="inlineStr">
@@ -26605,7 +26605,7 @@
       </c>
       <c r="B1544" t="inlineStr">
         <is>
-          <t>博迪</t>
+          <t>博阿</t>
         </is>
       </c>
       <c r="C1544" t="inlineStr">
@@ -26639,7 +26639,7 @@
       </c>
       <c r="B1546" t="inlineStr">
         <is>
-          <t>英戈尔比</t>
+          <t>英戈德比</t>
         </is>
       </c>
       <c r="C1546" t="inlineStr">
@@ -26673,7 +26673,7 @@
       </c>
       <c r="B1548" t="inlineStr">
         <is>
-          <t>弗加</t>
+          <t>弗加加</t>
         </is>
       </c>
       <c r="C1548" t="inlineStr">
@@ -26707,7 +26707,7 @@
       </c>
       <c r="B1550" t="inlineStr">
         <is>
-          <t>莱斯莉</t>
+          <t>莱斯利</t>
         </is>
       </c>
       <c r="C1550" t="inlineStr">
@@ -26792,7 +26792,7 @@
       </c>
       <c r="B1555" t="inlineStr">
         <is>
-          <t>比特门特</t>
+          <t>布特门特</t>
         </is>
       </c>
       <c r="C1555" t="inlineStr">
@@ -26843,7 +26843,7 @@
       </c>
       <c r="B1558" t="inlineStr">
         <is>
-          <t>多布尼</t>
+          <t>多伯尼</t>
         </is>
       </c>
       <c r="C1558" t="inlineStr">
@@ -26877,7 +26877,7 @@
       </c>
       <c r="B1560" t="inlineStr">
         <is>
-          <t>拉莉</t>
+          <t>拉利</t>
         </is>
       </c>
       <c r="C1560" t="inlineStr">
@@ -26894,7 +26894,7 @@
       </c>
       <c r="B1561" t="inlineStr">
         <is>
-          <t>达诺德</t>
+          <t>达诺尔德</t>
         </is>
       </c>
       <c r="C1561" t="inlineStr">
@@ -26979,7 +26979,7 @@
       </c>
       <c r="B1566" t="inlineStr">
         <is>
-          <t>奥杰曼</t>
+          <t>奥耶曼</t>
         </is>
       </c>
       <c r="C1566" t="inlineStr">
@@ -27200,7 +27200,7 @@
       </c>
       <c r="B1579" t="inlineStr">
         <is>
-          <t>卡曾巴赫</t>
+          <t>卡曾巴克</t>
         </is>
       </c>
       <c r="C1579" t="inlineStr">
@@ -27234,7 +27234,7 @@
       </c>
       <c r="B1581" t="inlineStr">
         <is>
-          <t>戴尔斯曼</t>
+          <t>达尔斯曼</t>
         </is>
       </c>
       <c r="C1581" t="inlineStr">
@@ -27251,7 +27251,7 @@
       </c>
       <c r="B1582" t="inlineStr">
         <is>
-          <t>凯特琳娜</t>
+          <t>卡特琳娜</t>
         </is>
       </c>
       <c r="C1582" t="inlineStr">
@@ -27336,7 +27336,7 @@
       </c>
       <c r="B1587" t="inlineStr">
         <is>
-          <t>麦卡哈蒂</t>
+          <t>麦卡赫蒂</t>
         </is>
       </c>
       <c r="C1587" t="inlineStr">
@@ -27353,7 +27353,7 @@
       </c>
       <c r="B1588" t="inlineStr">
         <is>
-          <t>托尔肯</t>
+          <t>撒尔肯</t>
         </is>
       </c>
       <c r="C1588" t="inlineStr">
@@ -27387,7 +27387,7 @@
       </c>
       <c r="B1590" t="inlineStr">
         <is>
-          <t>布蒂利尔</t>
+          <t>布蒂耶耶</t>
         </is>
       </c>
       <c r="C1590" t="inlineStr">
@@ -27455,7 +27455,7 @@
       </c>
       <c r="B1594" t="inlineStr">
         <is>
-          <t>维根斯坦</t>
+          <t>威根斯坦</t>
         </is>
       </c>
       <c r="C1594" t="inlineStr">
@@ -27472,7 +27472,7 @@
       </c>
       <c r="B1595" t="inlineStr">
         <is>
-          <t>惠特克尔</t>
+          <t>惠塔克</t>
         </is>
       </c>
       <c r="C1595" t="inlineStr">
@@ -27574,7 +27574,7 @@
       </c>
       <c r="B1601" t="inlineStr">
         <is>
-          <t>斯库德</t>
+          <t>斯卡德</t>
         </is>
       </c>
       <c r="C1601" t="inlineStr">
@@ -27625,7 +27625,7 @@
       </c>
       <c r="B1604" t="inlineStr">
         <is>
-          <t>卡曾</t>
+          <t>卡辛</t>
         </is>
       </c>
       <c r="C1604" t="inlineStr">
@@ -27642,7 +27642,7 @@
       </c>
       <c r="B1605" t="inlineStr">
         <is>
-          <t>伍德斯思</t>
+          <t>伍兹沃思</t>
         </is>
       </c>
       <c r="C1605" t="inlineStr">
@@ -27863,7 +27863,7 @@
       </c>
       <c r="B1618" t="inlineStr">
         <is>
-          <t>斯皮格尔布特</t>
+          <t>施皮格尔拉特</t>
         </is>
       </c>
       <c r="C1618" t="inlineStr">
@@ -27914,7 +27914,7 @@
       </c>
       <c r="B1621" t="inlineStr">
         <is>
-          <t>布赖宁</t>
+          <t>布里宁</t>
         </is>
       </c>
       <c r="C1621" t="inlineStr">
@@ -28016,7 +28016,7 @@
       </c>
       <c r="B1627" t="inlineStr">
         <is>
-          <t>霍尔米德</t>
+          <t>霍尔德德</t>
         </is>
       </c>
       <c r="C1627" t="inlineStr">
@@ -28169,7 +28169,7 @@
       </c>
       <c r="B1636" t="inlineStr">
         <is>
-          <t>西拉</t>
+          <t>谢拉</t>
         </is>
       </c>
       <c r="C1636" t="inlineStr">
@@ -28220,7 +28220,7 @@
       </c>
       <c r="B1639" t="inlineStr">
         <is>
-          <t>詹恩温</t>
+          <t>詹纳温</t>
         </is>
       </c>
       <c r="C1639" t="inlineStr">
@@ -28373,7 +28373,7 @@
       </c>
       <c r="B1648" t="inlineStr">
         <is>
-          <t>特里梅因</t>
+          <t>特里梅恩</t>
         </is>
       </c>
       <c r="C1648" t="inlineStr">
@@ -28407,7 +28407,7 @@
       </c>
       <c r="B1650" t="inlineStr">
         <is>
-          <t>拉根</t>
+          <t>拉恩</t>
         </is>
       </c>
       <c r="C1650" t="inlineStr">
@@ -28424,7 +28424,7 @@
       </c>
       <c r="B1651" t="inlineStr">
         <is>
-          <t>伊赛</t>
+          <t>艾赛</t>
         </is>
       </c>
       <c r="C1651" t="inlineStr">
@@ -28509,7 +28509,7 @@
       </c>
       <c r="B1656" t="inlineStr">
         <is>
-          <t>希亚</t>
+          <t>谢</t>
         </is>
       </c>
       <c r="C1656" t="inlineStr">
@@ -28560,7 +28560,7 @@
       </c>
       <c r="B1659" t="inlineStr">
         <is>
-          <t>切尔斯特龙</t>
+          <t>基尔斯特龙</t>
         </is>
       </c>
       <c r="C1659" t="inlineStr">
@@ -28679,7 +28679,7 @@
       </c>
       <c r="B1666" t="inlineStr">
         <is>
-          <t>戈洛贝克</t>
+          <t>戈伦贝克</t>
         </is>
       </c>
       <c r="C1666" t="inlineStr">
@@ -28866,7 +28866,7 @@
       </c>
       <c r="B1677" t="inlineStr">
         <is>
-          <t>林恩</t>
+          <t>林</t>
         </is>
       </c>
       <c r="C1677" t="inlineStr">
@@ -28917,7 +28917,7 @@
       </c>
       <c r="B1680" t="inlineStr">
         <is>
-          <t>莫瓦德</t>
+          <t>莫韦德</t>
         </is>
       </c>
       <c r="C1680" t="inlineStr">
@@ -29121,7 +29121,7 @@
       </c>
       <c r="B1692" t="inlineStr">
         <is>
-          <t>格滕塔格</t>
+          <t>古滕塔格</t>
         </is>
       </c>
       <c r="C1692" t="inlineStr">
@@ -29189,7 +29189,7 @@
       </c>
       <c r="B1696" t="inlineStr">
         <is>
-          <t>巴布</t>
+          <t>布勃</t>
         </is>
       </c>
       <c r="C1696" t="inlineStr">
@@ -29206,7 +29206,7 @@
       </c>
       <c r="B1697" t="inlineStr">
         <is>
-          <t>奇梅利克</t>
+          <t>克梅利克</t>
         </is>
       </c>
       <c r="C1697" t="inlineStr">
@@ -29427,7 +29427,7 @@
       </c>
       <c r="B1710" t="inlineStr">
         <is>
-          <t>纳齐奥斯</t>
+          <t>纳乔斯</t>
         </is>
       </c>
       <c r="C1710" t="inlineStr">
@@ -29716,7 +29716,7 @@
       </c>
       <c r="B1727" t="inlineStr">
         <is>
-          <t>海德利</t>
+          <t>欣德利</t>
         </is>
       </c>
       <c r="C1727" t="inlineStr">
@@ -29801,7 +29801,7 @@
       </c>
       <c r="B1732" t="inlineStr">
         <is>
-          <t>哈特鲁姆</t>
+          <t>哈特勒姆</t>
         </is>
       </c>
       <c r="C1732" t="inlineStr">
@@ -29903,7 +29903,7 @@
       </c>
       <c r="B1738" t="inlineStr">
         <is>
-          <t>鲁伊</t>
+          <t>鲁维</t>
         </is>
       </c>
       <c r="C1738" t="inlineStr">
@@ -29954,7 +29954,7 @@
       </c>
       <c r="B1741" t="inlineStr">
         <is>
-          <t>斯莱斯</t>
+          <t>斯莱恩斯</t>
         </is>
       </c>
       <c r="C1741" t="inlineStr">
@@ -29988,7 +29988,7 @@
       </c>
       <c r="B1743" t="inlineStr">
         <is>
-          <t>罗达克</t>
+          <t>罗达</t>
         </is>
       </c>
       <c r="C1743" t="inlineStr">
@@ -30005,7 +30005,7 @@
       </c>
       <c r="B1744" t="inlineStr">
         <is>
-          <t>奥克特</t>
+          <t>奥卡特</t>
         </is>
       </c>
       <c r="C1744" t="inlineStr">
@@ -30073,7 +30073,7 @@
       </c>
       <c r="B1748" t="inlineStr">
         <is>
-          <t>豪尔</t>
+          <t>豪厄尔</t>
         </is>
       </c>
       <c r="C1748" t="inlineStr">
@@ -30107,7 +30107,7 @@
       </c>
       <c r="B1750" t="inlineStr">
         <is>
-          <t>勒让德</t>
+          <t>莱根德</t>
         </is>
       </c>
       <c r="C1750" t="inlineStr">
@@ -30124,7 +30124,7 @@
       </c>
       <c r="B1751" t="inlineStr">
         <is>
-          <t>赫费尔鲍</t>
+          <t>赫费尔鲍尔</t>
         </is>
       </c>
       <c r="C1751" t="inlineStr">
@@ -30175,7 +30175,7 @@
       </c>
       <c r="B1754" t="inlineStr">
         <is>
-          <t>纳佐</t>
+          <t>内佐</t>
         </is>
       </c>
       <c r="C1754" t="inlineStr">
@@ -30447,7 +30447,7 @@
       </c>
       <c r="B1770" t="inlineStr">
         <is>
-          <t>瓦兰丁格姆</t>
+          <t>瓦兰迪厄姆</t>
         </is>
       </c>
       <c r="C1770" t="inlineStr">
@@ -30498,7 +30498,7 @@
       </c>
       <c r="B1773" t="inlineStr">
         <is>
-          <t>麦基尔思</t>
+          <t>麦基尔里思</t>
         </is>
       </c>
       <c r="C1773" t="inlineStr">
@@ -30651,7 +30651,7 @@
       </c>
       <c r="B1782" t="inlineStr">
         <is>
-          <t>威基洛</t>
+          <t>威切洛</t>
         </is>
       </c>
       <c r="C1782" t="inlineStr">
@@ -30685,7 +30685,7 @@
       </c>
       <c r="B1784" t="inlineStr">
         <is>
-          <t>福克</t>
+          <t>福奎</t>
         </is>
       </c>
       <c r="C1784" t="inlineStr">
@@ -30787,7 +30787,7 @@
       </c>
       <c r="B1790" t="inlineStr">
         <is>
-          <t>博恩斯</t>
+          <t>伯恩斯</t>
         </is>
       </c>
       <c r="C1790" t="inlineStr">
@@ -30872,7 +30872,7 @@
       </c>
       <c r="B1795" t="inlineStr">
         <is>
-          <t>诺德比</t>
+          <t>诺德拜</t>
         </is>
       </c>
       <c r="C1795" t="inlineStr">
@@ -30889,7 +30889,7 @@
       </c>
       <c r="B1796" t="inlineStr">
         <is>
-          <t>威甘特</t>
+          <t>怀詹特</t>
         </is>
       </c>
       <c r="C1796" t="inlineStr">
@@ -30974,7 +30974,7 @@
       </c>
       <c r="B1801" t="inlineStr">
         <is>
-          <t>安加罗拉</t>
+          <t>安加萝拉</t>
         </is>
       </c>
       <c r="C1801" t="inlineStr">
@@ -30991,7 +30991,7 @@
       </c>
       <c r="B1802" t="inlineStr">
         <is>
-          <t>莱德博尔</t>
+          <t>莱德伯</t>
         </is>
       </c>
       <c r="C1802" t="inlineStr">
@@ -31042,7 +31042,7 @@
       </c>
       <c r="B1805" t="inlineStr">
         <is>
-          <t>米德利</t>
+          <t>米奇利</t>
         </is>
       </c>
       <c r="C1805" t="inlineStr">
@@ -31144,7 +31144,7 @@
       </c>
       <c r="B1811" t="inlineStr">
         <is>
-          <t>米切莱托</t>
+          <t>米谢莱托</t>
         </is>
       </c>
       <c r="C1811" t="inlineStr">
@@ -31365,7 +31365,7 @@
       </c>
       <c r="B1824" t="inlineStr">
         <is>
-          <t>奥布赖恩</t>
+          <t>奥布里安</t>
         </is>
       </c>
       <c r="C1824" t="inlineStr">
@@ -31552,7 +31552,7 @@
       </c>
       <c r="B1835" t="inlineStr">
         <is>
-          <t>露西尔</t>
+          <t>卢西尔</t>
         </is>
       </c>
       <c r="C1835" t="inlineStr">
@@ -31586,7 +31586,7 @@
       </c>
       <c r="B1837" t="inlineStr">
         <is>
-          <t>戈尼特</t>
+          <t>戈内特</t>
         </is>
       </c>
       <c r="C1837" t="inlineStr">
@@ -31603,7 +31603,7 @@
       </c>
       <c r="B1838" t="inlineStr">
         <is>
-          <t>塞尔尔西</t>
+          <t>塞切尔西</t>
         </is>
       </c>
       <c r="C1838" t="inlineStr">
@@ -31722,7 +31722,7 @@
       </c>
       <c r="B1845" t="inlineStr">
         <is>
-          <t>哈沙</t>
+          <t>哈莎</t>
         </is>
       </c>
       <c r="C1845" t="inlineStr">
@@ -31773,7 +31773,7 @@
       </c>
       <c r="B1848" t="inlineStr">
         <is>
-          <t>普法茨格拉夫</t>
+          <t>法法茨格拉夫</t>
         </is>
       </c>
       <c r="C1848" t="inlineStr">
@@ -31807,7 +31807,7 @@
       </c>
       <c r="B1850" t="inlineStr">
         <is>
-          <t>埃夫里特</t>
+          <t>埃弗里特</t>
         </is>
       </c>
       <c r="C1850" t="inlineStr">
@@ -32011,7 +32011,7 @@
       </c>
       <c r="B1862" t="inlineStr">
         <is>
-          <t>特里吉维</t>
+          <t>特里格维</t>
         </is>
       </c>
       <c r="C1862" t="inlineStr">
@@ -32028,7 +32028,7 @@
       </c>
       <c r="B1863" t="inlineStr">
         <is>
-          <t>阿德琳</t>
+          <t>阿德林</t>
         </is>
       </c>
       <c r="C1863" t="inlineStr">
@@ -32045,7 +32045,7 @@
       </c>
       <c r="B1864" t="inlineStr">
         <is>
-          <t>麦克汉特</t>
+          <t>麦钱汉特</t>
         </is>
       </c>
       <c r="C1864" t="inlineStr">
@@ -32198,7 +32198,7 @@
       </c>
       <c r="B1873" t="inlineStr">
         <is>
-          <t>英斯特鲁普</t>
+          <t>英斯特拉普</t>
         </is>
       </c>
       <c r="C1873" t="inlineStr">
@@ -32317,7 +32317,7 @@
       </c>
       <c r="B1880" t="inlineStr">
         <is>
-          <t>布廷</t>
+          <t>鲍廷</t>
         </is>
       </c>
       <c r="C1880" t="inlineStr">
@@ -32402,7 +32402,7 @@
       </c>
       <c r="B1885" t="inlineStr">
         <is>
-          <t>科泰</t>
+          <t>科西</t>
         </is>
       </c>
       <c r="C1885" t="inlineStr">
@@ -32419,7 +32419,7 @@
       </c>
       <c r="B1886" t="inlineStr">
         <is>
-          <t>谢尔夫</t>
+          <t>舍夫</t>
         </is>
       </c>
       <c r="C1886" t="inlineStr">
@@ -32470,7 +32470,7 @@
       </c>
       <c r="B1889" t="inlineStr">
         <is>
-          <t>蒙库尔</t>
+          <t>蒙克</t>
         </is>
       </c>
       <c r="C1889" t="inlineStr">
@@ -32640,7 +32640,7 @@
       </c>
       <c r="B1899" t="inlineStr">
         <is>
-          <t>布拉德特里特</t>
+          <t>布拉斯特里特</t>
         </is>
       </c>
       <c r="C1899" t="inlineStr">
@@ -32691,7 +32691,7 @@
       </c>
       <c r="B1902" t="inlineStr">
         <is>
-          <t>索尔比</t>
+          <t>苏尔比</t>
         </is>
       </c>
       <c r="C1902" t="inlineStr">
@@ -32827,7 +32827,7 @@
       </c>
       <c r="B1910" t="inlineStr">
         <is>
-          <t>阿斯克维思</t>
+          <t>阿斯克威思</t>
         </is>
       </c>
       <c r="C1910" t="inlineStr">
@@ -32895,7 +32895,7 @@
       </c>
       <c r="B1914" t="inlineStr">
         <is>
-          <t>拉里纳加</t>
+          <t>拉里内加</t>
         </is>
       </c>
       <c r="C1914" t="inlineStr">
@@ -32912,7 +32912,7 @@
       </c>
       <c r="B1915" t="inlineStr">
         <is>
-          <t>帕廷斯</t>
+          <t>帕蒂斯</t>
         </is>
       </c>
       <c r="C1915" t="inlineStr">
@@ -32980,7 +32980,7 @@
       </c>
       <c r="B1919" t="inlineStr">
         <is>
-          <t>菲茨哈伯特</t>
+          <t>菲茨伯伯特</t>
         </is>
       </c>
       <c r="C1919" t="inlineStr">
@@ -33065,7 +33065,7 @@
       </c>
       <c r="B1924" t="inlineStr">
         <is>
-          <t>沃伊特尔</t>
+          <t>沃伊图尔</t>
         </is>
       </c>
       <c r="C1924" t="inlineStr">
@@ -33099,7 +33099,7 @@
       </c>
       <c r="B1926" t="inlineStr">
         <is>
-          <t>乔卡斯</t>
+          <t>乔奥卡斯</t>
         </is>
       </c>
       <c r="C1926" t="inlineStr">
@@ -33235,7 +33235,7 @@
       </c>
       <c r="B1934" t="inlineStr">
         <is>
-          <t>泽亨拉夫</t>
+          <t>泽恩拉夫</t>
         </is>
       </c>
       <c r="C1934" t="inlineStr">
@@ -33269,7 +33269,7 @@
       </c>
       <c r="B1936" t="inlineStr">
         <is>
-          <t>麦克尼斯</t>
+          <t>麦克尼兹</t>
         </is>
       </c>
       <c r="C1936" t="inlineStr">
@@ -33337,7 +33337,7 @@
       </c>
       <c r="B1940" t="inlineStr">
         <is>
-          <t>博尔德</t>
+          <t>博尔德丽</t>
         </is>
       </c>
       <c r="C1940" t="inlineStr">
@@ -33422,7 +33422,7 @@
       </c>
       <c r="B1945" t="inlineStr">
         <is>
-          <t>斯蒂奇</t>
+          <t>斯泰奇</t>
         </is>
       </c>
       <c r="C1945" t="inlineStr">
@@ -33490,7 +33490,7 @@
       </c>
       <c r="B1949" t="inlineStr">
         <is>
-          <t>斯梅杰</t>
+          <t>斯梅耶</t>
         </is>
       </c>
       <c r="C1949" t="inlineStr">
@@ -33728,7 +33728,7 @@
       </c>
       <c r="B1963" t="inlineStr">
         <is>
-          <t>奥钦利克</t>
+          <t>奥钦莱克</t>
         </is>
       </c>
       <c r="C1963" t="inlineStr">
@@ -33745,7 +33745,7 @@
       </c>
       <c r="B1964" t="inlineStr">
         <is>
-          <t>马维斯</t>
+          <t>梅维斯</t>
         </is>
       </c>
       <c r="C1964" t="inlineStr">
@@ -33796,7 +33796,7 @@
       </c>
       <c r="B1967" t="inlineStr">
         <is>
-          <t>格里本克</t>
+          <t>格里本茨</t>
         </is>
       </c>
       <c r="C1967" t="inlineStr">
@@ -33949,7 +33949,7 @@
       </c>
       <c r="B1976" t="inlineStr">
         <is>
-          <t>麦克利莫尔</t>
+          <t>麦克莱莫尔</t>
         </is>
       </c>
       <c r="C1976" t="inlineStr">
@@ -33966,7 +33966,7 @@
       </c>
       <c r="B1977" t="inlineStr">
         <is>
-          <t>比奇</t>
+          <t>比特</t>
         </is>
       </c>
       <c r="C1977" t="inlineStr">
@@ -33983,7 +33983,7 @@
       </c>
       <c r="B1978" t="inlineStr">
         <is>
-          <t>索尔佩特</t>
+          <t>索尔彼得</t>
         </is>
       </c>
       <c r="C1978" t="inlineStr">
@@ -34187,7 +34187,7 @@
       </c>
       <c r="B1990" t="inlineStr">
         <is>
-          <t>爱普顿</t>
+          <t>埃普顿</t>
         </is>
       </c>
       <c r="C1990" t="inlineStr">
@@ -34204,7 +34204,7 @@
       </c>
       <c r="B1991" t="inlineStr">
         <is>
-          <t>泽纳</t>
+          <t>齐纳</t>
         </is>
       </c>
       <c r="C1991" t="inlineStr">
@@ -34408,7 +34408,7 @@
       </c>
       <c r="B2003" t="inlineStr">
         <is>
-          <t>黑姆斯</t>
+          <t>哈姆斯</t>
         </is>
       </c>
       <c r="C2003" t="inlineStr">
@@ -34748,7 +34748,7 @@
       </c>
       <c r="B2023" t="inlineStr">
         <is>
-          <t>科肯德尔</t>
+          <t>科伊肯德尔</t>
         </is>
       </c>
       <c r="C2023" t="inlineStr">
@@ -34816,7 +34816,7 @@
       </c>
       <c r="B2027" t="inlineStr">
         <is>
-          <t>诺奇</t>
+          <t>诺克</t>
         </is>
       </c>
       <c r="C2027" t="inlineStr">
@@ -34918,7 +34918,7 @@
       </c>
       <c r="B2033" t="inlineStr">
         <is>
-          <t>波伦</t>
+          <t>波兰</t>
         </is>
       </c>
       <c r="C2033" t="inlineStr">
@@ -35020,7 +35020,7 @@
       </c>
       <c r="B2039" t="inlineStr">
         <is>
-          <t>塔弗</t>
+          <t>塔夫</t>
         </is>
       </c>
       <c r="C2039" t="inlineStr">
@@ -35037,7 +35037,7 @@
       </c>
       <c r="B2040" t="inlineStr">
         <is>
-          <t>高恩利</t>
+          <t>高利</t>
         </is>
       </c>
       <c r="C2040" t="inlineStr">
@@ -35122,7 +35122,7 @@
       </c>
       <c r="B2045" t="inlineStr">
         <is>
-          <t>阿廷扎</t>
+          <t>阿提安扎</t>
         </is>
       </c>
       <c r="C2045" t="inlineStr">
@@ -35156,7 +35156,7 @@
       </c>
       <c r="B2047" t="inlineStr">
         <is>
-          <t>吉比希</t>
+          <t>吉比施</t>
         </is>
       </c>
       <c r="C2047" t="inlineStr">
@@ -35224,7 +35224,7 @@
       </c>
       <c r="B2051" t="inlineStr">
         <is>
-          <t>莱因斯伯格</t>
+          <t>莱恩斯伯格</t>
         </is>
       </c>
       <c r="C2051" t="inlineStr">
@@ -35326,7 +35326,7 @@
       </c>
       <c r="B2057" t="inlineStr">
         <is>
-          <t>格尔斯索普</t>
+          <t>格尔索普</t>
         </is>
       </c>
       <c r="C2057" t="inlineStr">
@@ -35343,7 +35343,7 @@
       </c>
       <c r="B2058" t="inlineStr">
         <is>
-          <t>皮特里</t>
+          <t>佩特里</t>
         </is>
       </c>
       <c r="C2058" t="inlineStr">
@@ -35513,7 +35513,7 @@
       </c>
       <c r="B2068" t="inlineStr">
         <is>
-          <t>苏雷纳</t>
+          <t>苏雷娜</t>
         </is>
       </c>
       <c r="C2068" t="inlineStr">
@@ -35581,7 +35581,7 @@
       </c>
       <c r="B2072" t="inlineStr">
         <is>
-          <t>查瓦特</t>
+          <t>查沃特</t>
         </is>
       </c>
       <c r="C2072" t="inlineStr">
@@ -35632,7 +35632,7 @@
       </c>
       <c r="B2075" t="inlineStr">
         <is>
-          <t>拉思</t>
+          <t>鲁思</t>
         </is>
       </c>
       <c r="C2075" t="inlineStr">
@@ -35683,7 +35683,7 @@
       </c>
       <c r="B2078" t="inlineStr">
         <is>
-          <t>埃斯林</t>
+          <t>阿斯林</t>
         </is>
       </c>
       <c r="C2078" t="inlineStr">
@@ -35717,7 +35717,7 @@
       </c>
       <c r="B2080" t="inlineStr">
         <is>
-          <t>麦克拉基</t>
+          <t>麦克勒基</t>
         </is>
       </c>
       <c r="C2080" t="inlineStr">
@@ -35802,7 +35802,7 @@
       </c>
       <c r="B2085" t="inlineStr">
         <is>
-          <t>卡尔</t>
+          <t>卡伦</t>
         </is>
       </c>
       <c r="C2085" t="inlineStr">
@@ -35853,7 +35853,7 @@
       </c>
       <c r="B2088" t="inlineStr">
         <is>
-          <t>沃特里克</t>
+          <t>沃特里奇</t>
         </is>
       </c>
       <c r="C2088" t="inlineStr">
@@ -35887,7 +35887,7 @@
       </c>
       <c r="B2090" t="inlineStr">
         <is>
-          <t>麦加维</t>
+          <t>麦克维</t>
         </is>
       </c>
       <c r="C2090" t="inlineStr">
@@ -36023,7 +36023,7 @@
       </c>
       <c r="B2098" t="inlineStr">
         <is>
-          <t>麦克费特里斯</t>
+          <t>麦克费特雷斯</t>
         </is>
       </c>
       <c r="C2098" t="inlineStr">
@@ -36108,7 +36108,7 @@
       </c>
       <c r="B2103" t="inlineStr">
         <is>
-          <t>安费西特罗夫</t>
+          <t>阿菲西特罗夫</t>
         </is>
       </c>
       <c r="C2103" t="inlineStr">
@@ -36176,7 +36176,7 @@
       </c>
       <c r="B2107" t="inlineStr">
         <is>
-          <t>德西蕾</t>
+          <t>德西雷</t>
         </is>
       </c>
       <c r="C2107" t="inlineStr">
@@ -36193,7 +36193,7 @@
       </c>
       <c r="B2108" t="inlineStr">
         <is>
-          <t>劳赫林</t>
+          <t>劳克林</t>
         </is>
       </c>
       <c r="C2108" t="inlineStr">
@@ -36278,7 +36278,7 @@
       </c>
       <c r="B2113" t="inlineStr">
         <is>
-          <t>朱尼</t>
+          <t>苏尼</t>
         </is>
       </c>
       <c r="C2113" t="inlineStr">
@@ -36312,7 +36312,7 @@
       </c>
       <c r="B2115" t="inlineStr">
         <is>
-          <t>伦</t>
+          <t>雷恩</t>
         </is>
       </c>
       <c r="C2115" t="inlineStr">
@@ -36550,7 +36550,7 @@
       </c>
       <c r="B2129" t="inlineStr">
         <is>
-          <t>舒韦勒</t>
+          <t>斯韦勒</t>
         </is>
       </c>
       <c r="C2129" t="inlineStr">
@@ -36584,7 +36584,7 @@
       </c>
       <c r="B2131" t="inlineStr">
         <is>
-          <t>布兰德斯</t>
+          <t>布兰代斯</t>
         </is>
       </c>
       <c r="C2131" t="inlineStr">
@@ -36618,7 +36618,7 @@
       </c>
       <c r="B2133" t="inlineStr">
         <is>
-          <t>沃勒伦</t>
+          <t>韦勒伦</t>
         </is>
       </c>
       <c r="C2133" t="inlineStr">
@@ -36669,7 +36669,7 @@
       </c>
       <c r="B2136" t="inlineStr">
         <is>
-          <t>亨恩塞尔</t>
+          <t>亨斯塞尔</t>
         </is>
       </c>
       <c r="C2136" t="inlineStr">
@@ -36703,7 +36703,7 @@
       </c>
       <c r="B2138" t="inlineStr">
         <is>
-          <t>麦克劳克林</t>
+          <t>麦克洛克林</t>
         </is>
       </c>
       <c r="C2138" t="inlineStr">
@@ -36839,7 +36839,7 @@
       </c>
       <c r="B2146" t="inlineStr">
         <is>
-          <t>沃茨</t>
+          <t>沃尔茨</t>
         </is>
       </c>
       <c r="C2146" t="inlineStr">
@@ -36924,7 +36924,7 @@
       </c>
       <c r="B2151" t="inlineStr">
         <is>
-          <t>切伦塔诺</t>
+          <t>塞伦塔诺</t>
         </is>
       </c>
       <c r="C2151" t="inlineStr">
@@ -37111,7 +37111,7 @@
       </c>
       <c r="B2162" t="inlineStr">
         <is>
-          <t>埃伯恩</t>
+          <t>伊博恩</t>
         </is>
       </c>
       <c r="C2162" t="inlineStr">
@@ -37128,7 +37128,7 @@
       </c>
       <c r="B2163" t="inlineStr">
         <is>
-          <t>菲贝格</t>
+          <t>菲比格</t>
         </is>
       </c>
       <c r="C2163" t="inlineStr">
@@ -37179,7 +37179,7 @@
       </c>
       <c r="B2166" t="inlineStr">
         <is>
-          <t>佩拉蒂亚</t>
+          <t>佩莱蒂亚</t>
         </is>
       </c>
       <c r="C2166" t="inlineStr">
@@ -37196,7 +37196,7 @@
       </c>
       <c r="B2167" t="inlineStr">
         <is>
-          <t>希尔</t>
+          <t>谢尔</t>
         </is>
       </c>
       <c r="C2167" t="inlineStr">
@@ -37213,7 +37213,7 @@
       </c>
       <c r="B2168" t="inlineStr">
         <is>
-          <t>沃登伯格</t>
+          <t>沃登堡</t>
         </is>
       </c>
       <c r="C2168" t="inlineStr">
@@ -37264,7 +37264,7 @@
       </c>
       <c r="B2171" t="inlineStr">
         <is>
-          <t>格兰斯科</t>
+          <t>格兰斯库</t>
         </is>
       </c>
       <c r="C2171" t="inlineStr">
@@ -37298,7 +37298,7 @@
       </c>
       <c r="B2173" t="inlineStr">
         <is>
-          <t>普兰杰</t>
+          <t>普朗杰</t>
         </is>
       </c>
       <c r="C2173" t="inlineStr">
@@ -37434,7 +37434,7 @@
       </c>
       <c r="B2181" t="inlineStr">
         <is>
-          <t>切费茨</t>
+          <t>切菲茨</t>
         </is>
       </c>
       <c r="C2181" t="inlineStr">
@@ -37604,7 +37604,7 @@
       </c>
       <c r="B2191" t="inlineStr">
         <is>
-          <t>庞弗雷特</t>
+          <t>波姆弗雷特</t>
         </is>
       </c>
       <c r="C2191" t="inlineStr">
@@ -37672,7 +37672,7 @@
       </c>
       <c r="B2195" t="inlineStr">
         <is>
-          <t>戈兹伯勒</t>
+          <t>戈兹兹伯勒</t>
         </is>
       </c>
       <c r="C2195" t="inlineStr">
@@ -37689,7 +37689,7 @@
       </c>
       <c r="B2196" t="inlineStr">
         <is>
-          <t>索里斯代尔</t>
+          <t>托尔斯代尔</t>
         </is>
       </c>
       <c r="C2196" t="inlineStr">
@@ -37757,7 +37757,7 @@
       </c>
       <c r="B2200" t="inlineStr">
         <is>
-          <t>巴戈</t>
+          <t>巴戈特</t>
         </is>
       </c>
       <c r="C2200" t="inlineStr">
@@ -37961,7 +37961,7 @@
       </c>
       <c r="B2212" t="inlineStr">
         <is>
-          <t>拉克沙尔</t>
+          <t>拉克谢尔</t>
         </is>
       </c>
       <c r="C2212" t="inlineStr">
@@ -38335,7 +38335,7 @@
       </c>
       <c r="B2234" t="inlineStr">
         <is>
-          <t>德温斯</t>
+          <t>杜因斯</t>
         </is>
       </c>
       <c r="C2234" t="inlineStr">
@@ -38488,7 +38488,7 @@
       </c>
       <c r="B2243" t="inlineStr">
         <is>
-          <t>萨德斯克</t>
+          <t>萨达斯克</t>
         </is>
       </c>
       <c r="C2243" t="inlineStr">
@@ -38828,7 +38828,7 @@
       </c>
       <c r="B2263" t="inlineStr">
         <is>
-          <t>弗朗西亚</t>
+          <t>弗朗西娅</t>
         </is>
       </c>
       <c r="C2263" t="inlineStr">
@@ -38981,7 +38981,7 @@
       </c>
       <c r="B2272" t="inlineStr">
         <is>
-          <t>埃茨韦勒</t>
+          <t>埃茨维勒</t>
         </is>
       </c>
       <c r="C2272" t="inlineStr">
@@ -39015,7 +39015,7 @@
       </c>
       <c r="B2274" t="inlineStr">
         <is>
-          <t>迪尤巴</t>
+          <t>朱朱巴</t>
         </is>
       </c>
       <c r="C2274" t="inlineStr">
@@ -39049,7 +39049,7 @@
       </c>
       <c r="B2276" t="inlineStr">
         <is>
-          <t>巴比亚尔茨</t>
+          <t>巴比亚尔兹</t>
         </is>
       </c>
       <c r="C2276" t="inlineStr">
@@ -39066,7 +39066,7 @@
       </c>
       <c r="B2277" t="inlineStr">
         <is>
-          <t>布利彻</t>
+          <t>布利克</t>
         </is>
       </c>
       <c r="C2277" t="inlineStr">
@@ -39253,7 +39253,7 @@
       </c>
       <c r="B2288" t="inlineStr">
         <is>
-          <t>伊帕克奇安</t>
+          <t>艾帕奇奇安</t>
         </is>
       </c>
       <c r="C2288" t="inlineStr">
@@ -39372,7 +39372,7 @@
       </c>
       <c r="B2295" t="inlineStr">
         <is>
-          <t>蔡泽尔</t>
+          <t>蔡斯尔</t>
         </is>
       </c>
       <c r="C2295" t="inlineStr">
@@ -39423,7 +39423,7 @@
       </c>
       <c r="B2298" t="inlineStr">
         <is>
-          <t>施莱格尔米尔</t>
+          <t>施莱格尔希</t>
         </is>
       </c>
       <c r="C2298" t="inlineStr">
@@ -39610,7 +39610,7 @@
       </c>
       <c r="B2309" t="inlineStr">
         <is>
-          <t>滕尼</t>
+          <t>通尼</t>
         </is>
       </c>
       <c r="C2309" t="inlineStr">
@@ -39644,7 +39644,7 @@
       </c>
       <c r="B2311" t="inlineStr">
         <is>
-          <t>赫林格</t>
+          <t>赫林杰</t>
         </is>
       </c>
       <c r="C2311" t="inlineStr">
@@ -39780,7 +39780,7 @@
       </c>
       <c r="B2319" t="inlineStr">
         <is>
-          <t>劳霍恩</t>
+          <t>劳恩</t>
         </is>
       </c>
       <c r="C2319" t="inlineStr">
@@ -39797,7 +39797,7 @@
       </c>
       <c r="B2320" t="inlineStr">
         <is>
-          <t>丹尼</t>
+          <t>丹</t>
         </is>
       </c>
       <c r="C2320" t="inlineStr">
@@ -39814,7 +39814,7 @@
       </c>
       <c r="B2321" t="inlineStr">
         <is>
-          <t>平杰</t>
+          <t>平格</t>
         </is>
       </c>
       <c r="C2321" t="inlineStr">
@@ -39950,7 +39950,7 @@
       </c>
       <c r="B2329" t="inlineStr">
         <is>
-          <t>奥伊利特</t>
+          <t>奥耶莱特</t>
         </is>
       </c>
       <c r="C2329" t="inlineStr">
@@ -40137,7 +40137,7 @@
       </c>
       <c r="B2340" t="inlineStr">
         <is>
-          <t>格兰隆</t>
+          <t>格兰伦</t>
         </is>
       </c>
       <c r="C2340" t="inlineStr">
@@ -40341,7 +40341,7 @@
       </c>
       <c r="B2352" t="inlineStr">
         <is>
-          <t>海明豪斯</t>
+          <t>赫明豪斯</t>
         </is>
       </c>
       <c r="C2352" t="inlineStr">
@@ -40511,7 +40511,7 @@
       </c>
       <c r="B2362" t="inlineStr">
         <is>
-          <t>斯莱</t>
+          <t>斯利</t>
         </is>
       </c>
       <c r="C2362" t="inlineStr">
@@ -40613,7 +40613,7 @@
       </c>
       <c r="B2368" t="inlineStr">
         <is>
-          <t>弗伦</t>
+          <t>费伦</t>
         </is>
       </c>
       <c r="C2368" t="inlineStr">
@@ -40681,7 +40681,7 @@
       </c>
       <c r="B2372" t="inlineStr">
         <is>
-          <t>菲茨乔恩</t>
+          <t>菲茨约翰</t>
         </is>
       </c>
       <c r="C2372" t="inlineStr">
@@ -40800,7 +40800,7 @@
       </c>
       <c r="B2379" t="inlineStr">
         <is>
-          <t>麦卡西克</t>
+          <t>麦库西克</t>
         </is>
       </c>
       <c r="C2379" t="inlineStr">
@@ -40834,7 +40834,7 @@
       </c>
       <c r="B2381" t="inlineStr">
         <is>
-          <t>沃尔夫加</t>
+          <t>沃尔夫冈</t>
         </is>
       </c>
       <c r="C2381" t="inlineStr">
@@ -40987,7 +40987,7 @@
       </c>
       <c r="B2390" t="inlineStr">
         <is>
-          <t>克罗森</t>
+          <t>克勒森</t>
         </is>
       </c>
       <c r="C2390" t="inlineStr">
@@ -41055,7 +41055,7 @@
       </c>
       <c r="B2394" t="inlineStr">
         <is>
-          <t>麦金金</t>
+          <t>麦克琼金</t>
         </is>
       </c>
       <c r="C2394" t="inlineStr">
@@ -41089,7 +41089,7 @@
       </c>
       <c r="B2396" t="inlineStr">
         <is>
-          <t>德文</t>
+          <t>德尔文</t>
         </is>
       </c>
       <c r="C2396" t="inlineStr">
@@ -41123,7 +41123,7 @@
       </c>
       <c r="B2398" t="inlineStr">
         <is>
-          <t>纳索尔</t>
+          <t>纽撒尔</t>
         </is>
       </c>
       <c r="C2398" t="inlineStr">
@@ -41191,7 +41191,7 @@
       </c>
       <c r="B2402" t="inlineStr">
         <is>
-          <t>斯特茨</t>
+          <t>施泰茨</t>
         </is>
       </c>
       <c r="C2402" t="inlineStr">
@@ -41242,7 +41242,7 @@
       </c>
       <c r="B2405" t="inlineStr">
         <is>
-          <t>格罗伊利克</t>
+          <t>格罗伊利希</t>
         </is>
       </c>
       <c r="C2405" t="inlineStr">
@@ -41463,7 +41463,7 @@
       </c>
       <c r="B2418" t="inlineStr">
         <is>
-          <t>德斯</t>
+          <t>德福</t>
         </is>
       </c>
       <c r="C2418" t="inlineStr">
@@ -41480,7 +41480,7 @@
       </c>
       <c r="B2419" t="inlineStr">
         <is>
-          <t>沙佩拉</t>
+          <t>夏佩拉</t>
         </is>
       </c>
       <c r="C2419" t="inlineStr">
@@ -41497,7 +41497,7 @@
       </c>
       <c r="B2420" t="inlineStr">
         <is>
-          <t>斯塔比尔</t>
+          <t>斯塔拜尔</t>
         </is>
       </c>
       <c r="C2420" t="inlineStr">
@@ -41565,7 +41565,7 @@
       </c>
       <c r="B2424" t="inlineStr">
         <is>
-          <t>弗里施泰特</t>
+          <t>弗里斯泰特</t>
         </is>
       </c>
       <c r="C2424" t="inlineStr">
@@ -41684,7 +41684,7 @@
       </c>
       <c r="B2431" t="inlineStr">
         <is>
-          <t>奥里里</t>
+          <t>奥雷里</t>
         </is>
       </c>
       <c r="C2431" t="inlineStr">
@@ -41990,7 +41990,7 @@
       </c>
       <c r="B2449" t="inlineStr">
         <is>
-          <t>特列塞茨基</t>
+          <t>特莱塞茨基</t>
         </is>
       </c>
       <c r="C2449" t="inlineStr">
@@ -42245,7 +42245,7 @@
       </c>
       <c r="B2464" t="inlineStr">
         <is>
-          <t>西克里斯特</t>
+          <t>塞克里斯特</t>
         </is>
       </c>
       <c r="C2464" t="inlineStr">
@@ -42279,7 +42279,7 @@
       </c>
       <c r="B2466" t="inlineStr">
         <is>
-          <t>克里斯特科斯</t>
+          <t>克里斯塔科斯</t>
         </is>
       </c>
       <c r="C2466" t="inlineStr">
@@ -42313,7 +42313,7 @@
       </c>
       <c r="B2468" t="inlineStr">
         <is>
-          <t>克兰威克</t>
+          <t>克兰斯威克</t>
         </is>
       </c>
       <c r="C2468" t="inlineStr">
@@ -42381,7 +42381,7 @@
       </c>
       <c r="B2472" t="inlineStr">
         <is>
-          <t>埃夫里尔</t>
+          <t>埃夫丽尔</t>
         </is>
       </c>
       <c r="C2472" t="inlineStr">
@@ -42432,7 +42432,7 @@
       </c>
       <c r="B2475" t="inlineStr">
         <is>
-          <t>肯尼翁</t>
+          <t>凯尼恩</t>
         </is>
       </c>
       <c r="C2475" t="inlineStr">
@@ -42500,7 +42500,7 @@
       </c>
       <c r="B2479" t="inlineStr">
         <is>
-          <t>卢伊滕</t>
+          <t>卢滕滕</t>
         </is>
       </c>
       <c r="C2479" t="inlineStr">
@@ -42619,7 +42619,7 @@
       </c>
       <c r="B2486" t="inlineStr">
         <is>
-          <t>迪历山德罗</t>
+          <t>迪尔桑德罗</t>
         </is>
       </c>
       <c r="C2486" t="inlineStr">
@@ -42687,7 +42687,7 @@
       </c>
       <c r="B2490" t="inlineStr">
         <is>
-          <t>多迪</t>
+          <t>道迪</t>
         </is>
       </c>
       <c r="C2490" t="inlineStr">
@@ -42738,7 +42738,7 @@
       </c>
       <c r="B2493" t="inlineStr">
         <is>
-          <t>奇彭多尔</t>
+          <t>奇彭德尔</t>
         </is>
       </c>
       <c r="C2493" t="inlineStr">
@@ -42789,7 +42789,7 @@
       </c>
       <c r="B2496" t="inlineStr">
         <is>
-          <t>弗里恩德</t>
+          <t>弗兰德</t>
         </is>
       </c>
       <c r="C2496" t="inlineStr">
@@ -42993,7 +42993,7 @@
       </c>
       <c r="B2508" t="inlineStr">
         <is>
-          <t>卡茜</t>
+          <t>卡奇</t>
         </is>
       </c>
       <c r="C2508" t="inlineStr">
@@ -43078,7 +43078,7 @@
       </c>
       <c r="B2513" t="inlineStr">
         <is>
-          <t>惠隆</t>
+          <t>惠伦</t>
         </is>
       </c>
       <c r="C2513" t="inlineStr">
@@ -43112,7 +43112,7 @@
       </c>
       <c r="B2515" t="inlineStr">
         <is>
-          <t>蒂歇雷尔</t>
+          <t>图雷尔</t>
         </is>
       </c>
       <c r="C2515" t="inlineStr">
@@ -43129,7 +43129,7 @@
       </c>
       <c r="B2516" t="inlineStr">
         <is>
-          <t>奥尔萨姆</t>
+          <t>奥尔瑟姆</t>
         </is>
       </c>
       <c r="C2516" t="inlineStr">
@@ -43265,7 +43265,7 @@
       </c>
       <c r="B2524" t="inlineStr">
         <is>
-          <t>斯坦萨尔</t>
+          <t>斯坦索尔</t>
         </is>
       </c>
       <c r="C2524" t="inlineStr">
@@ -43316,7 +43316,7 @@
       </c>
       <c r="B2527" t="inlineStr">
         <is>
-          <t>法纽尔</t>
+          <t>法纽埃尔</t>
         </is>
       </c>
       <c r="C2527" t="inlineStr">
@@ -43435,7 +43435,7 @@
       </c>
       <c r="B2534" t="inlineStr">
         <is>
-          <t>马里恩</t>
+          <t>玛丽恩</t>
         </is>
       </c>
       <c r="C2534" t="inlineStr">
@@ -43520,7 +43520,7 @@
       </c>
       <c r="B2539" t="inlineStr">
         <is>
-          <t>米采</t>
+          <t>米策</t>
         </is>
       </c>
       <c r="C2539" t="inlineStr">
@@ -43639,7 +43639,7 @@
       </c>
       <c r="B2546" t="inlineStr">
         <is>
-          <t>格尔茨</t>
+          <t>格尔兹</t>
         </is>
       </c>
       <c r="C2546" t="inlineStr">
@@ -43656,7 +43656,7 @@
       </c>
       <c r="B2547" t="inlineStr">
         <is>
-          <t>比肖夫</t>
+          <t>比晓夫</t>
         </is>
       </c>
       <c r="C2547" t="inlineStr">
@@ -43792,7 +43792,7 @@
       </c>
       <c r="B2555" t="inlineStr">
         <is>
-          <t>内梅塞克</t>
+          <t>内姆塞克</t>
         </is>
       </c>
       <c r="C2555" t="inlineStr">
@@ -43877,7 +43877,7 @@
       </c>
       <c r="B2560" t="inlineStr">
         <is>
-          <t>利桑德</t>
+          <t>莱桑德</t>
         </is>
       </c>
       <c r="C2560" t="inlineStr">
@@ -44013,7 +44013,7 @@
       </c>
       <c r="B2568" t="inlineStr">
         <is>
-          <t>吉恩</t>
+          <t>珍恩</t>
         </is>
       </c>
       <c r="C2568" t="inlineStr">
@@ -44217,7 +44217,7 @@
       </c>
       <c r="B2580" t="inlineStr">
         <is>
-          <t>维尔诺韦思</t>
+          <t>维莱诺韦思</t>
         </is>
       </c>
       <c r="C2580" t="inlineStr">
@@ -44370,7 +44370,7 @@
       </c>
       <c r="B2589" t="inlineStr">
         <is>
-          <t>温特海默</t>
+          <t>温滕海默</t>
         </is>
       </c>
       <c r="C2589" t="inlineStr">
@@ -44846,7 +44846,7 @@
       </c>
       <c r="B2617" t="inlineStr">
         <is>
-          <t>施密特</t>
+          <t>斯米特</t>
         </is>
       </c>
       <c r="C2617" t="inlineStr">
@@ -44931,7 +44931,7 @@
       </c>
       <c r="B2622" t="inlineStr">
         <is>
-          <t>里丁斯</t>
+          <t>赖丁斯</t>
         </is>
       </c>
       <c r="C2622" t="inlineStr">
@@ -44965,7 +44965,7 @@
       </c>
       <c r="B2624" t="inlineStr">
         <is>
-          <t>杜沃德</t>
+          <t>迪沃德</t>
         </is>
       </c>
       <c r="C2624" t="inlineStr">
@@ -44982,7 +44982,7 @@
       </c>
       <c r="B2625" t="inlineStr">
         <is>
-          <t>法夫罗</t>
+          <t>法弗罗</t>
         </is>
       </c>
       <c r="C2625" t="inlineStr">
@@ -45067,7 +45067,7 @@
       </c>
       <c r="B2630" t="inlineStr">
         <is>
-          <t>法尔宗</t>
+          <t>福尔佐恩</t>
         </is>
       </c>
       <c r="C2630" t="inlineStr">
@@ -45135,7 +45135,7 @@
       </c>
       <c r="B2634" t="inlineStr">
         <is>
-          <t>赛夫里特</t>
+          <t>赛夫雷特</t>
         </is>
       </c>
       <c r="C2634" t="inlineStr">
@@ -45220,7 +45220,7 @@
       </c>
       <c r="B2639" t="inlineStr">
         <is>
-          <t>福里斯特</t>
+          <t>福雷斯特</t>
         </is>
       </c>
       <c r="C2639" t="inlineStr">
@@ -45288,7 +45288,7 @@
       </c>
       <c r="B2643" t="inlineStr">
         <is>
-          <t>巴博卡</t>
+          <t>芭博尔卡</t>
         </is>
       </c>
       <c r="C2643" t="inlineStr">
@@ -45475,7 +45475,7 @@
       </c>
       <c r="B2654" t="inlineStr">
         <is>
-          <t>昂加尔</t>
+          <t>昂加</t>
         </is>
       </c>
       <c r="C2654" t="inlineStr">
@@ -45526,7 +45526,7 @@
       </c>
       <c r="B2657" t="inlineStr">
         <is>
-          <t>彻维纳克</t>
+          <t>彻夫纳克</t>
         </is>
       </c>
       <c r="C2657" t="inlineStr">
@@ -45628,7 +45628,7 @@
       </c>
       <c r="B2663" t="inlineStr">
         <is>
-          <t>赫尔格森</t>
+          <t>赫尔奇森</t>
         </is>
       </c>
       <c r="C2663" t="inlineStr">
@@ -45645,7 +45645,7 @@
       </c>
       <c r="B2664" t="inlineStr">
         <is>
-          <t>麦格里尔</t>
+          <t>麦格雷尔</t>
         </is>
       </c>
       <c r="C2664" t="inlineStr">
@@ -45730,7 +45730,7 @@
       </c>
       <c r="B2669" t="inlineStr">
         <is>
-          <t>麦克雷文</t>
+          <t>麦克里文</t>
         </is>
       </c>
       <c r="C2669" t="inlineStr">
@@ -45747,7 +45747,7 @@
       </c>
       <c r="B2670" t="inlineStr">
         <is>
-          <t>凯嫩</t>
+          <t>凯宁</t>
         </is>
       </c>
       <c r="C2670" t="inlineStr">
@@ -45832,7 +45832,7 @@
       </c>
       <c r="B2675" t="inlineStr">
         <is>
-          <t>林兹利</t>
+          <t>莱因利</t>
         </is>
       </c>
       <c r="C2675" t="inlineStr">
@@ -45849,7 +45849,7 @@
       </c>
       <c r="B2676" t="inlineStr">
         <is>
-          <t>多奇森</t>
+          <t>道奇森</t>
         </is>
       </c>
       <c r="C2676" t="inlineStr">
@@ -45900,7 +45900,7 @@
       </c>
       <c r="B2679" t="inlineStr">
         <is>
-          <t>菲昂达</t>
+          <t>菲翁达</t>
         </is>
       </c>
       <c r="C2679" t="inlineStr">
@@ -45934,7 +45934,7 @@
       </c>
       <c r="B2681" t="inlineStr">
         <is>
-          <t>克罗米勒</t>
+          <t>克龙内勒</t>
         </is>
       </c>
       <c r="C2681" t="inlineStr">
@@ -46036,7 +46036,7 @@
       </c>
       <c r="B2687" t="inlineStr">
         <is>
-          <t>施莱尔</t>
+          <t>施莱耶</t>
         </is>
       </c>
       <c r="C2687" t="inlineStr">
@@ -46138,7 +46138,7 @@
       </c>
       <c r="B2693" t="inlineStr">
         <is>
-          <t>泰奇森</t>
+          <t>泰克森</t>
         </is>
       </c>
       <c r="C2693" t="inlineStr">
@@ -46291,7 +46291,7 @@
       </c>
       <c r="B2702" t="inlineStr">
         <is>
-          <t>泰尔马什</t>
+          <t>泰勒马赫</t>
         </is>
       </c>
       <c r="C2702" t="inlineStr">
@@ -46376,7 +46376,7 @@
       </c>
       <c r="B2707" t="inlineStr">
         <is>
-          <t>霍尔</t>
+          <t>霍利</t>
         </is>
       </c>
       <c r="C2707" t="inlineStr">
@@ -46648,7 +46648,7 @@
       </c>
       <c r="B2723" t="inlineStr">
         <is>
-          <t>德格拉赫特</t>
+          <t>德格拉克特</t>
         </is>
       </c>
       <c r="C2723" t="inlineStr">
@@ -46665,7 +46665,7 @@
       </c>
       <c r="B2724" t="inlineStr">
         <is>
-          <t>西奇皮奥</t>
+          <t>西皮奥</t>
         </is>
       </c>
       <c r="C2724" t="inlineStr">
@@ -46699,7 +46699,7 @@
       </c>
       <c r="B2726" t="inlineStr">
         <is>
-          <t>拉尔兹</t>
+          <t>拉兹</t>
         </is>
       </c>
       <c r="C2726" t="inlineStr">
@@ -46903,7 +46903,7 @@
       </c>
       <c r="B2738" t="inlineStr">
         <is>
-          <t>舒伊林</t>
+          <t>斯威林</t>
         </is>
       </c>
       <c r="C2738" t="inlineStr">
@@ -46971,7 +46971,7 @@
       </c>
       <c r="B2742" t="inlineStr">
         <is>
-          <t>多尔泽尔</t>
+          <t>达尔泽尔</t>
         </is>
       </c>
       <c r="C2742" t="inlineStr">
@@ -46988,7 +46988,7 @@
       </c>
       <c r="B2743" t="inlineStr">
         <is>
-          <t>布尔彻</t>
+          <t>布尔希</t>
         </is>
       </c>
       <c r="C2743" t="inlineStr">
@@ -47056,7 +47056,7 @@
       </c>
       <c r="B2747" t="inlineStr">
         <is>
-          <t>巴拉特</t>
+          <t>巴勒特</t>
         </is>
       </c>
       <c r="C2747" t="inlineStr">
@@ -47090,7 +47090,7 @@
       </c>
       <c r="B2749" t="inlineStr">
         <is>
-          <t>格莱特</t>
+          <t>格莱尔特</t>
         </is>
       </c>
       <c r="C2749" t="inlineStr">
@@ -47192,7 +47192,7 @@
       </c>
       <c r="B2755" t="inlineStr">
         <is>
-          <t>施里耶</t>
+          <t>施雷耶</t>
         </is>
       </c>
       <c r="C2755" t="inlineStr">
@@ -47328,7 +47328,7 @@
       </c>
       <c r="B2763" t="inlineStr">
         <is>
-          <t>阿米西亚</t>
+          <t>阿米西娅</t>
         </is>
       </c>
       <c r="C2763" t="inlineStr">
@@ -47396,7 +47396,7 @@
       </c>
       <c r="B2767" t="inlineStr">
         <is>
-          <t>布兰根</t>
+          <t>布雷尼根</t>
         </is>
       </c>
       <c r="C2767" t="inlineStr">
@@ -47583,7 +47583,7 @@
       </c>
       <c r="B2778" t="inlineStr">
         <is>
-          <t>韦拉尼厄斯</t>
+          <t>沃拉尼厄斯</t>
         </is>
       </c>
       <c r="C2778" t="inlineStr">
@@ -47736,7 +47736,7 @@
       </c>
       <c r="B2787" t="inlineStr">
         <is>
-          <t>埃杰曼</t>
+          <t>伊格曼</t>
         </is>
       </c>
       <c r="C2787" t="inlineStr">
@@ -47821,7 +47821,7 @@
       </c>
       <c r="B2792" t="inlineStr">
         <is>
-          <t>布拉伯恩</t>
+          <t>布雷伯恩</t>
         </is>
       </c>
       <c r="C2792" t="inlineStr">
@@ -47855,7 +47855,7 @@
       </c>
       <c r="B2794" t="inlineStr">
         <is>
-          <t>萨菲尔</t>
+          <t>萨法尔</t>
         </is>
       </c>
       <c r="C2794" t="inlineStr">
@@ -48025,7 +48025,7 @@
       </c>
       <c r="B2804" t="inlineStr">
         <is>
-          <t>奥尔丁</t>
+          <t>阿尔代恩</t>
         </is>
       </c>
       <c r="C2804" t="inlineStr">
@@ -48042,7 +48042,7 @@
       </c>
       <c r="B2805" t="inlineStr">
         <is>
-          <t>达尼弗</t>
+          <t>杜尼弗</t>
         </is>
       </c>
       <c r="C2805" t="inlineStr">
@@ -48059,7 +48059,7 @@
       </c>
       <c r="B2806" t="inlineStr">
         <is>
-          <t>赫普布龙</t>
+          <t>赫布龙</t>
         </is>
       </c>
       <c r="C2806" t="inlineStr">
@@ -48127,7 +48127,7 @@
       </c>
       <c r="B2810" t="inlineStr">
         <is>
-          <t>卡普里西亚</t>
+          <t>卡普里西娅</t>
         </is>
       </c>
       <c r="C2810" t="inlineStr">
@@ -48212,7 +48212,7 @@
       </c>
       <c r="B2815" t="inlineStr">
         <is>
-          <t>阿尔迪亚</t>
+          <t>奥尔迪亚</t>
         </is>
       </c>
       <c r="C2815" t="inlineStr">
@@ -48297,7 +48297,7 @@
       </c>
       <c r="B2820" t="inlineStr">
         <is>
-          <t>曼希</t>
+          <t>曼奇</t>
         </is>
       </c>
       <c r="C2820" t="inlineStr">
@@ -48348,7 +48348,7 @@
       </c>
       <c r="B2823" t="inlineStr">
         <is>
-          <t>赫雷</t>
+          <t>赫尔</t>
         </is>
       </c>
       <c r="C2823" t="inlineStr">
@@ -48450,7 +48450,7 @@
       </c>
       <c r="B2829" t="inlineStr">
         <is>
-          <t>雷姆</t>
+          <t>罗姆</t>
         </is>
       </c>
       <c r="C2829" t="inlineStr">
@@ -48467,7 +48467,7 @@
       </c>
       <c r="B2830" t="inlineStr">
         <is>
-          <t>布尔黛特</t>
+          <t>布尔特</t>
         </is>
       </c>
       <c r="C2830" t="inlineStr">
@@ -48603,7 +48603,7 @@
       </c>
       <c r="B2838" t="inlineStr">
         <is>
-          <t>格尔巴</t>
+          <t>盖尔巴</t>
         </is>
       </c>
       <c r="C2838" t="inlineStr">
@@ -48705,7 +48705,7 @@
       </c>
       <c r="B2844" t="inlineStr">
         <is>
-          <t>埃根伯格</t>
+          <t>埃金伯格</t>
         </is>
       </c>
       <c r="C2844" t="inlineStr">
@@ -48739,7 +48739,7 @@
       </c>
       <c r="B2846" t="inlineStr">
         <is>
-          <t>斯特曼曼</t>
+          <t>斯蒂尔曼</t>
         </is>
       </c>
       <c r="C2846" t="inlineStr">
@@ -48807,7 +48807,7 @@
       </c>
       <c r="B2850" t="inlineStr">
         <is>
-          <t>爱泼斯坦</t>
+          <t>埃普斯坦</t>
         </is>
       </c>
       <c r="C2850" t="inlineStr">
@@ -48824,7 +48824,7 @@
       </c>
       <c r="B2851" t="inlineStr">
         <is>
-          <t>贝尤克</t>
+          <t>巴尤克</t>
         </is>
       </c>
       <c r="C2851" t="inlineStr">
@@ -48875,7 +48875,7 @@
       </c>
       <c r="B2854" t="inlineStr">
         <is>
-          <t>格拉斯戈尔</t>
+          <t>格拉斯哥尔</t>
         </is>
       </c>
       <c r="C2854" t="inlineStr">
@@ -48960,7 +48960,7 @@
       </c>
       <c r="B2859" t="inlineStr">
         <is>
-          <t>格雷杰</t>
+          <t>格兰杰</t>
         </is>
       </c>
       <c r="C2859" t="inlineStr">
@@ -49164,7 +49164,7 @@
       </c>
       <c r="B2871" t="inlineStr">
         <is>
-          <t>基尔沃比</t>
+          <t>基尔沃德比</t>
         </is>
       </c>
       <c r="C2871" t="inlineStr">
@@ -49198,7 +49198,7 @@
       </c>
       <c r="B2873" t="inlineStr">
         <is>
-          <t>斯蒂伯</t>
+          <t>斯特伯</t>
         </is>
       </c>
       <c r="C2873" t="inlineStr">
@@ -49470,7 +49470,7 @@
       </c>
       <c r="B2889" t="inlineStr">
         <is>
-          <t>兰德尔</t>
+          <t>兰达尔</t>
         </is>
       </c>
       <c r="C2889" t="inlineStr">
@@ -49674,7 +49674,7 @@
       </c>
       <c r="B2901" t="inlineStr">
         <is>
-          <t>威妮科姆</t>
+          <t>威西科姆</t>
         </is>
       </c>
       <c r="C2901" t="inlineStr">
@@ -49742,7 +49742,7 @@
       </c>
       <c r="B2905" t="inlineStr">
         <is>
-          <t>穆莫</t>
+          <t>米莫</t>
         </is>
       </c>
       <c r="C2905" t="inlineStr">
@@ -49810,7 +49810,7 @@
       </c>
       <c r="B2909" t="inlineStr">
         <is>
-          <t>阿雷塔斯</t>
+          <t>阿里塔斯</t>
         </is>
       </c>
       <c r="C2909" t="inlineStr">
@@ -50065,7 +50065,7 @@
       </c>
       <c r="B2924" t="inlineStr">
         <is>
-          <t>诺森</t>
+          <t>诺特森</t>
         </is>
       </c>
       <c r="C2924" t="inlineStr">
@@ -50082,7 +50082,7 @@
       </c>
       <c r="B2925" t="inlineStr">
         <is>
-          <t>思雷特</t>
+          <t>思里特</t>
         </is>
       </c>
       <c r="C2925" t="inlineStr">
@@ -50218,7 +50218,7 @@
       </c>
       <c r="B2933" t="inlineStr">
         <is>
-          <t>西格</t>
+          <t>赛格</t>
         </is>
       </c>
       <c r="C2933" t="inlineStr">
@@ -50269,7 +50269,7 @@
       </c>
       <c r="B2936" t="inlineStr">
         <is>
-          <t>韦特</t>
+          <t>怀特</t>
         </is>
       </c>
       <c r="C2936" t="inlineStr">
@@ -50303,7 +50303,7 @@
       </c>
       <c r="B2938" t="inlineStr">
         <is>
-          <t>布林斯马德</t>
+          <t>布林斯梅德</t>
         </is>
       </c>
       <c r="C2938" t="inlineStr">
@@ -50337,7 +50337,7 @@
       </c>
       <c r="B2940" t="inlineStr">
         <is>
-          <t>德费利斯</t>
+          <t>德费莉丝</t>
         </is>
       </c>
       <c r="C2940" t="inlineStr">
@@ -50354,7 +50354,7 @@
       </c>
       <c r="B2941" t="inlineStr">
         <is>
-          <t>莫福德</t>
+          <t>莫弗德</t>
         </is>
       </c>
       <c r="C2941" t="inlineStr">
@@ -50456,7 +50456,7 @@
       </c>
       <c r="B2947" t="inlineStr">
         <is>
-          <t>萨苏</t>
+          <t>萨森</t>
         </is>
       </c>
       <c r="C2947" t="inlineStr">
@@ -50745,7 +50745,7 @@
       </c>
       <c r="B2964" t="inlineStr">
         <is>
-          <t>弗兰克福德</t>
+          <t>法兰克福德</t>
         </is>
       </c>
       <c r="C2964" t="inlineStr">
@@ -50762,7 +50762,7 @@
       </c>
       <c r="B2965" t="inlineStr">
         <is>
-          <t>迪克奥斯</t>
+          <t>迪基奥斯</t>
         </is>
       </c>
       <c r="C2965" t="inlineStr">
@@ -50779,7 +50779,7 @@
       </c>
       <c r="B2966" t="inlineStr">
         <is>
-          <t>巴格尼</t>
+          <t>巴杰尼</t>
         </is>
       </c>
       <c r="C2966" t="inlineStr">
@@ -50813,7 +50813,7 @@
       </c>
       <c r="B2968" t="inlineStr">
         <is>
-          <t>奥西雷</t>
+          <t>奥恰尔</t>
         </is>
       </c>
       <c r="C2968" t="inlineStr">
@@ -50881,7 +50881,7 @@
       </c>
       <c r="B2972" t="inlineStr">
         <is>
-          <t>马太厄斯</t>
+          <t>马恰厄斯</t>
         </is>
       </c>
       <c r="C2972" t="inlineStr">
@@ -51034,7 +51034,7 @@
       </c>
       <c r="B2981" t="inlineStr">
         <is>
-          <t>达基</t>
+          <t>达西</t>
         </is>
       </c>
       <c r="C2981" t="inlineStr">
@@ -51153,7 +51153,7 @@
       </c>
       <c r="B2988" t="inlineStr">
         <is>
-          <t>费拉诺</t>
+          <t>费莱诺</t>
         </is>
       </c>
       <c r="C2988" t="inlineStr">
@@ -51204,7 +51204,7 @@
       </c>
       <c r="B2991" t="inlineStr">
         <is>
-          <t>兰洛瓦</t>
+          <t>兰格洛瓦</t>
         </is>
       </c>
       <c r="C2991" t="inlineStr">
@@ -51221,7 +51221,7 @@
       </c>
       <c r="B2992" t="inlineStr">
         <is>
-          <t>登帕赛</t>
+          <t>登帕西</t>
         </is>
       </c>
       <c r="C2992" t="inlineStr">
@@ -51238,7 +51238,7 @@
       </c>
       <c r="B2993" t="inlineStr">
         <is>
-          <t>达文特</t>
+          <t>达万特</t>
         </is>
       </c>
       <c r="C2993" t="inlineStr">
@@ -51340,7 +51340,7 @@
       </c>
       <c r="B2999" t="inlineStr">
         <is>
-          <t>阿斯博尔德斯</t>
+          <t>阿西博尔德斯</t>
         </is>
       </c>
       <c r="C2999" t="inlineStr">
@@ -51374,7 +51374,7 @@
       </c>
       <c r="B3001" t="inlineStr">
         <is>
-          <t>瑟里</t>
+          <t>萨里</t>
         </is>
       </c>
       <c r="C3001" t="inlineStr">
@@ -51391,7 +51391,7 @@
       </c>
       <c r="B3002" t="inlineStr">
         <is>
-          <t>戈梅兹</t>
+          <t>戈梅斯</t>
         </is>
       </c>
       <c r="C3002" t="inlineStr">
@@ -51510,7 +51510,7 @@
       </c>
       <c r="B3009" t="inlineStr">
         <is>
-          <t>胡夫纳格尔</t>
+          <t>胡夫内格尔</t>
         </is>
       </c>
       <c r="C3009" t="inlineStr">
@@ -51527,7 +51527,7 @@
       </c>
       <c r="B3010" t="inlineStr">
         <is>
-          <t>沃西斯特</t>
+          <t>沃塞斯特</t>
         </is>
       </c>
       <c r="C3010" t="inlineStr">
@@ -51544,7 +51544,7 @@
       </c>
       <c r="B3011" t="inlineStr">
         <is>
-          <t>罗因</t>
+          <t>雷温</t>
         </is>
       </c>
       <c r="C3011" t="inlineStr">
@@ -51595,7 +51595,7 @@
       </c>
       <c r="B3014" t="inlineStr">
         <is>
-          <t>考夫兰</t>
+          <t>考弗兰</t>
         </is>
       </c>
       <c r="C3014" t="inlineStr">
@@ -51612,7 +51612,7 @@
       </c>
       <c r="B3015" t="inlineStr">
         <is>
-          <t>里维亚娜</t>
+          <t>里维安娜</t>
         </is>
       </c>
       <c r="C3015" t="inlineStr">
@@ -51884,7 +51884,7 @@
       </c>
       <c r="B3031" t="inlineStr">
         <is>
-          <t>斯利加尔</t>
+          <t>斯莱格</t>
         </is>
       </c>
       <c r="C3031" t="inlineStr">
@@ -51969,7 +51969,7 @@
       </c>
       <c r="B3036" t="inlineStr">
         <is>
-          <t>拉索</t>
+          <t>拉泽</t>
         </is>
       </c>
       <c r="C3036" t="inlineStr">
@@ -52054,7 +52054,7 @@
       </c>
       <c r="B3041" t="inlineStr">
         <is>
-          <t>伯克尔巴克</t>
+          <t>伯克尔巴赫</t>
         </is>
       </c>
       <c r="C3041" t="inlineStr">
@@ -52156,7 +52156,7 @@
       </c>
       <c r="B3047" t="inlineStr">
         <is>
-          <t>贝耶特</t>
+          <t>拜耶特</t>
         </is>
       </c>
       <c r="C3047" t="inlineStr">
@@ -52190,7 +52190,7 @@
       </c>
       <c r="B3049" t="inlineStr">
         <is>
-          <t>巴特</t>
+          <t>贝特</t>
         </is>
       </c>
       <c r="C3049" t="inlineStr">
@@ -52377,7 +52377,7 @@
       </c>
       <c r="B3060" t="inlineStr">
         <is>
-          <t>特伦普勒</t>
+          <t>特朗普勒</t>
         </is>
       </c>
       <c r="C3060" t="inlineStr">
@@ -52411,7 +52411,7 @@
       </c>
       <c r="B3062" t="inlineStr">
         <is>
-          <t>奥菲斯</t>
+          <t>奥菲瑟</t>
         </is>
       </c>
       <c r="C3062" t="inlineStr">
@@ -52428,7 +52428,7 @@
       </c>
       <c r="B3063" t="inlineStr">
         <is>
-          <t>厄尔斯沃特</t>
+          <t>乌尔斯沃特</t>
         </is>
       </c>
       <c r="C3063" t="inlineStr">
@@ -52462,7 +52462,7 @@
       </c>
       <c r="B3065" t="inlineStr">
         <is>
-          <t>米斯尔贝克</t>
+          <t>米斯尔克</t>
         </is>
       </c>
       <c r="C3065" t="inlineStr">
@@ -52564,7 +52564,7 @@
       </c>
       <c r="B3071" t="inlineStr">
         <is>
-          <t>珀尔默特</t>
+          <t>珀尔马特</t>
         </is>
       </c>
       <c r="C3071" t="inlineStr">
@@ -52615,7 +52615,7 @@
       </c>
       <c r="B3074" t="inlineStr">
         <is>
-          <t>盖尔曼</t>
+          <t>格尔曼</t>
         </is>
       </c>
       <c r="C3074" t="inlineStr">
@@ -52632,7 +52632,7 @@
       </c>
       <c r="B3075" t="inlineStr">
         <is>
-          <t>克卢撒</t>
+          <t>克卢萨</t>
         </is>
       </c>
       <c r="C3075" t="inlineStr">
@@ -52819,7 +52819,7 @@
       </c>
       <c r="B3086" t="inlineStr">
         <is>
-          <t>阿什姆</t>
+          <t>阿谢姆</t>
         </is>
       </c>
       <c r="C3086" t="inlineStr">
@@ -53023,7 +53023,7 @@
       </c>
       <c r="B3098" t="inlineStr">
         <is>
-          <t>普勒克尼特</t>
+          <t>普拉克尼特</t>
         </is>
       </c>
       <c r="C3098" t="inlineStr">
@@ -53057,7 +53057,7 @@
       </c>
       <c r="B3100" t="inlineStr">
         <is>
-          <t>范热</t>
+          <t>范吉特</t>
         </is>
       </c>
       <c r="C3100" t="inlineStr">
@@ -53108,7 +53108,7 @@
       </c>
       <c r="B3103" t="inlineStr">
         <is>
-          <t>埃莉诺</t>
+          <t>埃莉诺尔</t>
         </is>
       </c>
       <c r="C3103" t="inlineStr">
@@ -53176,7 +53176,7 @@
       </c>
       <c r="B3107" t="inlineStr">
         <is>
-          <t>麦凯拉</t>
+          <t>麦凯莱</t>
         </is>
       </c>
       <c r="C3107" t="inlineStr">
@@ -53295,7 +53295,7 @@
       </c>
       <c r="B3114" t="inlineStr">
         <is>
-          <t>莱蒂西娅</t>
+          <t>利蒂西娅</t>
         </is>
       </c>
       <c r="C3114" t="inlineStr">
@@ -53380,7 +53380,7 @@
       </c>
       <c r="B3119" t="inlineStr">
         <is>
-          <t>皮尔森</t>
+          <t>皮尔塞</t>
         </is>
       </c>
       <c r="C3119" t="inlineStr">
@@ -53414,7 +53414,7 @@
       </c>
       <c r="B3121" t="inlineStr">
         <is>
-          <t>扎德利克斯</t>
+          <t>扎伊德利茨</t>
         </is>
       </c>
       <c r="C3121" t="inlineStr">
@@ -53465,7 +53465,7 @@
       </c>
       <c r="B3124" t="inlineStr">
         <is>
-          <t>瓦尔皮耶德</t>
+          <t>瓦尔皮德</t>
         </is>
       </c>
       <c r="C3124" t="inlineStr">
@@ -53703,7 +53703,7 @@
       </c>
       <c r="B3138" t="inlineStr">
         <is>
-          <t>格芬</t>
+          <t>杰芬</t>
         </is>
       </c>
       <c r="C3138" t="inlineStr">
@@ -53822,7 +53822,7 @@
       </c>
       <c r="B3145" t="inlineStr">
         <is>
-          <t>舒尔坎德</t>
+          <t>舒尔金德</t>
         </is>
       </c>
       <c r="C3145" t="inlineStr">
@@ -53924,7 +53924,7 @@
       </c>
       <c r="B3151" t="inlineStr">
         <is>
-          <t>埃韦茨</t>
+          <t>埃维茨</t>
         </is>
       </c>
       <c r="C3151" t="inlineStr">
@@ -54162,7 +54162,7 @@
       </c>
       <c r="B3165" t="inlineStr">
         <is>
-          <t>巴拉赫利克</t>
+          <t>巴拉丘利奇</t>
         </is>
       </c>
       <c r="C3165" t="inlineStr">
@@ -54179,7 +54179,7 @@
       </c>
       <c r="B3166" t="inlineStr">
         <is>
-          <t>希切尔</t>
+          <t>希契尔</t>
         </is>
       </c>
       <c r="C3166" t="inlineStr">
@@ -54315,7 +54315,7 @@
       </c>
       <c r="B3174" t="inlineStr">
         <is>
-          <t>妮妮特</t>
+          <t>尼内特</t>
         </is>
       </c>
       <c r="C3174" t="inlineStr">
@@ -54536,7 +54536,7 @@
       </c>
       <c r="B3187" t="inlineStr">
         <is>
-          <t>绍滕</t>
+          <t>肖滕</t>
         </is>
       </c>
       <c r="C3187" t="inlineStr">
@@ -54604,7 +54604,7 @@
       </c>
       <c r="B3191" t="inlineStr">
         <is>
-          <t>蒂奇纳</t>
+          <t>蒂切纳</t>
         </is>
       </c>
       <c r="C3191" t="inlineStr">
@@ -54791,7 +54791,7 @@
       </c>
       <c r="B3202" t="inlineStr">
         <is>
-          <t>西里特</t>
+          <t>赛雷特</t>
         </is>
       </c>
       <c r="C3202" t="inlineStr">
@@ -54825,7 +54825,7 @@
       </c>
       <c r="B3204" t="inlineStr">
         <is>
-          <t>贝文</t>
+          <t>贝万</t>
         </is>
       </c>
       <c r="C3204" t="inlineStr">
@@ -54893,7 +54893,7 @@
       </c>
       <c r="B3208" t="inlineStr">
         <is>
-          <t>利索萨</t>
+          <t>利索塞</t>
         </is>
       </c>
       <c r="C3208" t="inlineStr">
@@ -54910,7 +54910,7 @@
       </c>
       <c r="B3209" t="inlineStr">
         <is>
-          <t>比伦</t>
+          <t>拜伦</t>
         </is>
       </c>
       <c r="C3209" t="inlineStr">
@@ -54961,7 +54961,7 @@
       </c>
       <c r="B3212" t="inlineStr">
         <is>
-          <t>德霍伊维尔</t>
+          <t>德霍维维尔</t>
         </is>
       </c>
       <c r="C3212" t="inlineStr">
@@ -55029,7 +55029,7 @@
       </c>
       <c r="B3216" t="inlineStr">
         <is>
-          <t>比斯克</t>
+          <t>比塞克</t>
         </is>
       </c>
       <c r="C3216" t="inlineStr">
@@ -55046,7 +55046,7 @@
       </c>
       <c r="B3217" t="inlineStr">
         <is>
-          <t>波尔</t>
+          <t>波勒</t>
         </is>
       </c>
       <c r="C3217" t="inlineStr">
@@ -55199,7 +55199,7 @@
       </c>
       <c r="B3226" t="inlineStr">
         <is>
-          <t>法尔斯塔德</t>
+          <t>福尔斯塔德</t>
         </is>
       </c>
       <c r="C3226" t="inlineStr">
@@ -55233,7 +55233,7 @@
       </c>
       <c r="B3228" t="inlineStr">
         <is>
-          <t>尼布特</t>
+          <t>内布赫特</t>
         </is>
       </c>
       <c r="C3228" t="inlineStr">
@@ -55250,7 +55250,7 @@
       </c>
       <c r="B3229" t="inlineStr">
         <is>
-          <t>德沃波特</t>
+          <t>德文波特</t>
         </is>
       </c>
       <c r="C3229" t="inlineStr">
@@ -55420,7 +55420,7 @@
       </c>
       <c r="B3239" t="inlineStr">
         <is>
-          <t>特文加德姆</t>
+          <t>特文格德姆</t>
         </is>
       </c>
       <c r="C3239" t="inlineStr">
@@ -55437,7 +55437,7 @@
       </c>
       <c r="B3240" t="inlineStr">
         <is>
-          <t>伯德尔</t>
+          <t>伯德</t>
         </is>
       </c>
       <c r="C3240" t="inlineStr">
@@ -55454,7 +55454,7 @@
       </c>
       <c r="B3241" t="inlineStr">
         <is>
-          <t>格里西申</t>
+          <t>格里西吉翁</t>
         </is>
       </c>
       <c r="C3241" t="inlineStr">
@@ -55658,7 +55658,7 @@
       </c>
       <c r="B3253" t="inlineStr">
         <is>
-          <t>加米</t>
+          <t>盖米</t>
         </is>
       </c>
       <c r="C3253" t="inlineStr">
@@ -55760,7 +55760,7 @@
       </c>
       <c r="B3259" t="inlineStr">
         <is>
-          <t>卡肖蒂</t>
+          <t>卡西蒂</t>
         </is>
       </c>
       <c r="C3259" t="inlineStr">
@@ -55777,7 +55777,7 @@
       </c>
       <c r="B3260" t="inlineStr">
         <is>
-          <t>波特哈斯特</t>
+          <t>波撒哈斯特</t>
         </is>
       </c>
       <c r="C3260" t="inlineStr">
@@ -55828,7 +55828,7 @@
       </c>
       <c r="B3263" t="inlineStr">
         <is>
-          <t>施里伯</t>
+          <t>施赖伯</t>
         </is>
       </c>
       <c r="C3263" t="inlineStr">
@@ -55930,7 +55930,7 @@
       </c>
       <c r="B3269" t="inlineStr">
         <is>
-          <t>贝茨</t>
+          <t>拜茨</t>
         </is>
       </c>
       <c r="C3269" t="inlineStr">
@@ -56032,7 +56032,7 @@
       </c>
       <c r="B3275" t="inlineStr">
         <is>
-          <t>阿韦亚德</t>
+          <t>阿夫亚德</t>
         </is>
       </c>
       <c r="C3275" t="inlineStr">
@@ -56185,7 +56185,7 @@
       </c>
       <c r="B3284" t="inlineStr">
         <is>
-          <t>艾克施泰特</t>
+          <t>艾克斯泰特</t>
         </is>
       </c>
       <c r="C3284" t="inlineStr">
@@ -56338,7 +56338,7 @@
       </c>
       <c r="B3293" t="inlineStr">
         <is>
-          <t>比西</t>
+          <t>比锡</t>
         </is>
       </c>
       <c r="C3293" t="inlineStr">
@@ -56457,7 +56457,7 @@
       </c>
       <c r="B3300" t="inlineStr">
         <is>
-          <t>查特兰德</t>
+          <t>查特兰</t>
         </is>
       </c>
       <c r="C3300" t="inlineStr">
@@ -56525,7 +56525,7 @@
       </c>
       <c r="B3304" t="inlineStr">
         <is>
-          <t>朱丽安娜</t>
+          <t>朱利安娜</t>
         </is>
       </c>
       <c r="C3304" t="inlineStr">
@@ -56593,7 +56593,7 @@
       </c>
       <c r="B3308" t="inlineStr">
         <is>
-          <t>万内克</t>
+          <t>范内克</t>
         </is>
       </c>
       <c r="C3308" t="inlineStr">
@@ -56644,7 +56644,7 @@
       </c>
       <c r="B3311" t="inlineStr">
         <is>
-          <t>马奎斯</t>
+          <t>马凯斯</t>
         </is>
       </c>
       <c r="C3311" t="inlineStr">
@@ -56661,7 +56661,7 @@
       </c>
       <c r="B3312" t="inlineStr">
         <is>
-          <t>米尔科马尼</t>
+          <t>米尔科曼</t>
         </is>
       </c>
       <c r="C3312" t="inlineStr">
@@ -56729,7 +56729,7 @@
       </c>
       <c r="B3316" t="inlineStr">
         <is>
-          <t>伊维特</t>
+          <t>艾维特</t>
         </is>
       </c>
       <c r="C3316" t="inlineStr">
@@ -56882,7 +56882,7 @@
       </c>
       <c r="B3325" t="inlineStr">
         <is>
-          <t>托滕贝格</t>
+          <t>托滕伯格</t>
         </is>
       </c>
       <c r="C3325" t="inlineStr">
@@ -56950,7 +56950,7 @@
       </c>
       <c r="B3329" t="inlineStr">
         <is>
-          <t>赖克特</t>
+          <t>赖歇特</t>
         </is>
       </c>
       <c r="C3329" t="inlineStr">
@@ -56967,7 +56967,7 @@
       </c>
       <c r="B3330" t="inlineStr">
         <is>
-          <t>班菲尔德</t>
+          <t>巴姆菲尔德</t>
         </is>
       </c>
       <c r="C3330" t="inlineStr">
@@ -57324,7 +57324,7 @@
       </c>
       <c r="B3351" t="inlineStr">
         <is>
-          <t>波奇斯</t>
+          <t>普奇斯</t>
         </is>
       </c>
       <c r="C3351" t="inlineStr">
@@ -57460,7 +57460,7 @@
       </c>
       <c r="B3359" t="inlineStr">
         <is>
-          <t>卡里金尼斯</t>
+          <t>卡雷金尼斯</t>
         </is>
       </c>
       <c r="C3359" t="inlineStr">
@@ -57562,7 +57562,7 @@
       </c>
       <c r="B3365" t="inlineStr">
         <is>
-          <t>利西</t>
+          <t>莉西</t>
         </is>
       </c>
       <c r="C3365" t="inlineStr">
@@ -57579,7 +57579,7 @@
       </c>
       <c r="B3366" t="inlineStr">
         <is>
-          <t>勒基</t>
+          <t>卢基</t>
         </is>
       </c>
       <c r="C3366" t="inlineStr">
@@ -57613,7 +57613,7 @@
       </c>
       <c r="B3368" t="inlineStr">
         <is>
-          <t>怀斯坦</t>
+          <t>威斯坦</t>
         </is>
       </c>
       <c r="C3368" t="inlineStr">
@@ -57664,7 +57664,7 @@
       </c>
       <c r="B3371" t="inlineStr">
         <is>
-          <t>西塞尔</t>
+          <t>西斯尔</t>
         </is>
       </c>
       <c r="C3371" t="inlineStr">
@@ -57868,7 +57868,7 @@
       </c>
       <c r="B3383" t="inlineStr">
         <is>
-          <t>萨尔齐多</t>
+          <t>萨尔泽多</t>
         </is>
       </c>
       <c r="C3383" t="inlineStr">
@@ -57885,7 +57885,7 @@
       </c>
       <c r="B3384" t="inlineStr">
         <is>
-          <t>多姆吉</t>
+          <t>多姆詹</t>
         </is>
       </c>
       <c r="C3384" t="inlineStr">
@@ -57936,7 +57936,7 @@
       </c>
       <c r="B3387" t="inlineStr">
         <is>
-          <t>奥利韦鲁斯</t>
+          <t>奥利夫勒斯</t>
         </is>
       </c>
       <c r="C3387" t="inlineStr">
@@ -57953,7 +57953,7 @@
       </c>
       <c r="B3388" t="inlineStr">
         <is>
-          <t>德佩恩</t>
+          <t>德斯潘</t>
         </is>
       </c>
       <c r="C3388" t="inlineStr">
@@ -58123,7 +58123,7 @@
       </c>
       <c r="B3398" t="inlineStr">
         <is>
-          <t>纳塔利西西奥</t>
+          <t>纳塔利西奥</t>
         </is>
       </c>
       <c r="C3398" t="inlineStr">
@@ -58378,7 +58378,7 @@
       </c>
       <c r="B3413" t="inlineStr">
         <is>
-          <t>萨基娜</t>
+          <t>萨基纳</t>
         </is>
       </c>
       <c r="C3413" t="inlineStr">
@@ -58531,7 +58531,7 @@
       </c>
       <c r="B3422" t="inlineStr">
         <is>
-          <t>布鲁克海默</t>
+          <t>布吕克海默</t>
         </is>
       </c>
       <c r="C3422" t="inlineStr">
@@ -58582,7 +58582,7 @@
       </c>
       <c r="B3425" t="inlineStr">
         <is>
-          <t>阿瓦齐安</t>
+          <t>艾瓦齐安</t>
         </is>
       </c>
       <c r="C3425" t="inlineStr">
@@ -58633,7 +58633,7 @@
       </c>
       <c r="B3428" t="inlineStr">
         <is>
-          <t>马贝尔</t>
+          <t>梅贝尔</t>
         </is>
       </c>
       <c r="C3428" t="inlineStr">
@@ -58786,7 +58786,7 @@
       </c>
       <c r="B3437" t="inlineStr">
         <is>
-          <t>贝利莎</t>
+          <t>贝莉莎</t>
         </is>
       </c>
       <c r="C3437" t="inlineStr">
@@ -58871,7 +58871,7 @@
       </c>
       <c r="B3442" t="inlineStr">
         <is>
-          <t>楚特拉斯</t>
+          <t>楚特拉拉斯</t>
         </is>
       </c>
       <c r="C3442" t="inlineStr">
@@ -58922,7 +58922,7 @@
       </c>
       <c r="B3445" t="inlineStr">
         <is>
-          <t>哈布伦</t>
+          <t>哈布龙</t>
         </is>
       </c>
       <c r="C3445" t="inlineStr">
@@ -58973,7 +58973,7 @@
       </c>
       <c r="B3448" t="inlineStr">
         <is>
-          <t>古尔丁</t>
+          <t>古丁</t>
         </is>
       </c>
       <c r="C3448" t="inlineStr">
@@ -59245,7 +59245,7 @@
       </c>
       <c r="B3464" t="inlineStr">
         <is>
-          <t>帕姆梅多</t>
+          <t>帕尔梅多</t>
         </is>
       </c>
       <c r="C3464" t="inlineStr">
@@ -59262,7 +59262,7 @@
       </c>
       <c r="B3465" t="inlineStr">
         <is>
-          <t>格蒂</t>
+          <t>盖蒂</t>
         </is>
       </c>
       <c r="C3465" t="inlineStr">
@@ -59296,7 +59296,7 @@
       </c>
       <c r="B3467" t="inlineStr">
         <is>
-          <t>霍根</t>
+          <t>霍金</t>
         </is>
       </c>
       <c r="C3467" t="inlineStr">
@@ -59483,7 +59483,7 @@
       </c>
       <c r="B3478" t="inlineStr">
         <is>
-          <t>弗雷利克</t>
+          <t>弗雷利奇</t>
         </is>
       </c>
       <c r="C3478" t="inlineStr">
@@ -59602,7 +59602,7 @@
       </c>
       <c r="B3485" t="inlineStr">
         <is>
-          <t>盖伊</t>
+          <t>吉伊</t>
         </is>
       </c>
       <c r="C3485" t="inlineStr">
@@ -59738,7 +59738,7 @@
       </c>
       <c r="B3493" t="inlineStr">
         <is>
-          <t>布克里</t>
+          <t>巴克里</t>
         </is>
       </c>
       <c r="C3493" t="inlineStr">
@@ -60078,7 +60078,7 @@
       </c>
       <c r="B3513" t="inlineStr">
         <is>
-          <t>埃梅林</t>
+          <t>埃米琳</t>
         </is>
       </c>
       <c r="C3513" t="inlineStr">
@@ -60197,7 +60197,7 @@
       </c>
       <c r="B3520" t="inlineStr">
         <is>
-          <t>奥西西尼</t>
+          <t>奥尔西尼</t>
         </is>
       </c>
       <c r="C3520" t="inlineStr">
@@ -60214,7 +60214,7 @@
       </c>
       <c r="B3521" t="inlineStr">
         <is>
-          <t>德卢伊特</t>
+          <t>德洛伊特</t>
         </is>
       </c>
       <c r="C3521" t="inlineStr">
@@ -60299,7 +60299,7 @@
       </c>
       <c r="B3526" t="inlineStr">
         <is>
-          <t>纳奇曼</t>
+          <t>纳什曼</t>
         </is>
       </c>
       <c r="C3526" t="inlineStr">
@@ -60316,7 +60316,7 @@
       </c>
       <c r="B3527" t="inlineStr">
         <is>
-          <t>金茨科</t>
+          <t>根茨科</t>
         </is>
       </c>
       <c r="C3527" t="inlineStr">
@@ -60350,7 +60350,7 @@
       </c>
       <c r="B3529" t="inlineStr">
         <is>
-          <t>柯纳</t>
+          <t>凯纳</t>
         </is>
       </c>
       <c r="C3529" t="inlineStr">
@@ -60384,7 +60384,7 @@
       </c>
       <c r="B3531" t="inlineStr">
         <is>
-          <t>海尔</t>
+          <t>黑尔</t>
         </is>
       </c>
       <c r="C3531" t="inlineStr">
@@ -60622,7 +60622,7 @@
       </c>
       <c r="B3545" t="inlineStr">
         <is>
-          <t>博莱斯</t>
+          <t>博莱士</t>
         </is>
       </c>
       <c r="C3545" t="inlineStr">
@@ -60843,7 +60843,7 @@
       </c>
       <c r="B3558" t="inlineStr">
         <is>
-          <t>韦克利</t>
+          <t>沃克利</t>
         </is>
       </c>
       <c r="C3558" t="inlineStr">
@@ -60860,7 +60860,7 @@
       </c>
       <c r="B3559" t="inlineStr">
         <is>
-          <t>罗斯尔维奇</t>
+          <t>罗斯莱维奇</t>
         </is>
       </c>
       <c r="C3559" t="inlineStr">
@@ -60894,7 +60894,7 @@
       </c>
       <c r="B3561" t="inlineStr">
         <is>
-          <t>戈塞奇</t>
+          <t>戈萨奇</t>
         </is>
       </c>
       <c r="C3561" t="inlineStr">
@@ -60979,7 +60979,7 @@
       </c>
       <c r="B3566" t="inlineStr">
         <is>
-          <t>布莱伊特</t>
+          <t>布卢伊特</t>
         </is>
       </c>
       <c r="C3566" t="inlineStr">
@@ -61013,7 +61013,7 @@
       </c>
       <c r="B3568" t="inlineStr">
         <is>
-          <t>博维</t>
+          <t>伯维</t>
         </is>
       </c>
       <c r="C3568" t="inlineStr">
@@ -61047,7 +61047,7 @@
       </c>
       <c r="B3570" t="inlineStr">
         <is>
-          <t>吉尼特</t>
+          <t>杰尼特</t>
         </is>
       </c>
       <c r="C3570" t="inlineStr">
@@ -61149,7 +61149,7 @@
       </c>
       <c r="B3576" t="inlineStr">
         <is>
-          <t>特里翁</t>
+          <t>特赖奥娜</t>
         </is>
       </c>
       <c r="C3576" t="inlineStr">
@@ -61234,7 +61234,7 @@
       </c>
       <c r="B3581" t="inlineStr">
         <is>
-          <t>范迪克</t>
+          <t>范戴克</t>
         </is>
       </c>
       <c r="C3581" t="inlineStr">
@@ -61285,7 +61285,7 @@
       </c>
       <c r="B3584" t="inlineStr">
         <is>
-          <t>索尔伯里</t>
+          <t>苏尔伯里</t>
         </is>
       </c>
       <c r="C3584" t="inlineStr">
@@ -61302,7 +61302,7 @@
       </c>
       <c r="B3585" t="inlineStr">
         <is>
-          <t>马汉撒帕</t>
+          <t>马汉萨帕</t>
         </is>
       </c>
       <c r="C3585" t="inlineStr">
@@ -61455,7 +61455,7 @@
       </c>
       <c r="B3594" t="inlineStr">
         <is>
-          <t>乌贝洛德</t>
+          <t>乌布洛德</t>
         </is>
       </c>
       <c r="C3594" t="inlineStr">
@@ -61489,7 +61489,7 @@
       </c>
       <c r="B3596" t="inlineStr">
         <is>
-          <t>伦塞拉</t>
+          <t>伦斯勒</t>
         </is>
       </c>
       <c r="C3596" t="inlineStr">
@@ -61591,7 +61591,7 @@
       </c>
       <c r="B3602" t="inlineStr">
         <is>
-          <t>巴克劳克</t>
+          <t>巴克勒伊</t>
         </is>
       </c>
       <c r="C3602" t="inlineStr">
@@ -61693,7 +61693,7 @@
       </c>
       <c r="B3608" t="inlineStr">
         <is>
-          <t>托夏纳</t>
+          <t>托奇安娜</t>
         </is>
       </c>
       <c r="C3608" t="inlineStr">
@@ -61829,7 +61829,7 @@
       </c>
       <c r="B3616" t="inlineStr">
         <is>
-          <t>海因伦</t>
+          <t>海伦伦</t>
         </is>
       </c>
       <c r="C3616" t="inlineStr">
@@ -61897,7 +61897,7 @@
       </c>
       <c r="B3620" t="inlineStr">
         <is>
-          <t>沙拉德海奥</t>
+          <t>沙拉姆德奥</t>
         </is>
       </c>
       <c r="C3620" t="inlineStr">
@@ -61914,7 +61914,7 @@
       </c>
       <c r="B3621" t="inlineStr">
         <is>
-          <t>马吉斯特里茨</t>
+          <t>马吉斯特雷茨</t>
         </is>
       </c>
       <c r="C3621" t="inlineStr">
@@ -61931,7 +61931,7 @@
       </c>
       <c r="B3622" t="inlineStr">
         <is>
-          <t>克莱恩</t>
+          <t>克兰</t>
         </is>
       </c>
       <c r="C3622" t="inlineStr">
@@ -61965,7 +61965,7 @@
       </c>
       <c r="B3624" t="inlineStr">
         <is>
-          <t>邦西尼奥尔</t>
+          <t>邦西尼奥</t>
         </is>
       </c>
       <c r="C3624" t="inlineStr">
@@ -61982,7 +61982,7 @@
       </c>
       <c r="B3625" t="inlineStr">
         <is>
-          <t>冈希利</t>
+          <t>贡希利</t>
         </is>
       </c>
       <c r="C3625" t="inlineStr">
@@ -62118,7 +62118,7 @@
       </c>
       <c r="B3633" t="inlineStr">
         <is>
-          <t>布里德伯格</t>
+          <t>布里德堡</t>
         </is>
       </c>
       <c r="C3633" t="inlineStr">
@@ -62152,7 +62152,7 @@
       </c>
       <c r="B3635" t="inlineStr">
         <is>
-          <t>盖泽</t>
+          <t>盖瑟</t>
         </is>
       </c>
       <c r="C3635" t="inlineStr">
@@ -62254,7 +62254,7 @@
       </c>
       <c r="B3641" t="inlineStr">
         <is>
-          <t>肖罗莫科斯</t>
+          <t>乔罗莫科斯</t>
         </is>
       </c>
       <c r="C3641" t="inlineStr">
@@ -62271,7 +62271,7 @@
       </c>
       <c r="B3642" t="inlineStr">
         <is>
-          <t>杜蒂特</t>
+          <t>杜西特</t>
         </is>
       </c>
       <c r="C3642" t="inlineStr">
@@ -62390,7 +62390,7 @@
       </c>
       <c r="B3649" t="inlineStr">
         <is>
-          <t>德莉拉</t>
+          <t>德莱拉</t>
         </is>
       </c>
       <c r="C3649" t="inlineStr">
@@ -62492,7 +62492,7 @@
       </c>
       <c r="B3655" t="inlineStr">
         <is>
-          <t>伯特奥尔</t>
+          <t>伯图尔</t>
         </is>
       </c>
       <c r="C3655" t="inlineStr">
@@ -62509,7 +62509,7 @@
       </c>
       <c r="B3656" t="inlineStr">
         <is>
-          <t>马尔登</t>
+          <t>莫尔登</t>
         </is>
       </c>
       <c r="C3656" t="inlineStr">
@@ -62645,7 +62645,7 @@
       </c>
       <c r="B3664" t="inlineStr">
         <is>
-          <t>舒尔曼</t>
+          <t>许伊尔曼</t>
         </is>
       </c>
       <c r="C3664" t="inlineStr">
@@ -62764,7 +62764,7 @@
       </c>
       <c r="B3671" t="inlineStr">
         <is>
-          <t>布朗</t>
+          <t>布劳恩</t>
         </is>
       </c>
       <c r="C3671" t="inlineStr">
@@ -62917,7 +62917,7 @@
       </c>
       <c r="B3680" t="inlineStr">
         <is>
-          <t>潘杜尔夫</t>
+          <t>潘道夫</t>
         </is>
       </c>
       <c r="C3680" t="inlineStr">
@@ -63104,7 +63104,7 @@
       </c>
       <c r="B3691" t="inlineStr">
         <is>
-          <t>弗洛尔迪</t>
+          <t>弗劳尔迪尤</t>
         </is>
       </c>
       <c r="C3691" t="inlineStr">
@@ -63189,7 +63189,7 @@
       </c>
       <c r="B3696" t="inlineStr">
         <is>
-          <t>加勒</t>
+          <t>盖勒</t>
         </is>
       </c>
       <c r="C3696" t="inlineStr">
@@ -63206,7 +63206,7 @@
       </c>
       <c r="B3697" t="inlineStr">
         <is>
-          <t>勒尼夫</t>
+          <t>莱内夫</t>
         </is>
       </c>
       <c r="C3697" t="inlineStr">
@@ -63631,7 +63631,7 @@
       </c>
       <c r="B3722" t="inlineStr">
         <is>
-          <t>埃德霍尔姆</t>
+          <t>埃德霍姆</t>
         </is>
       </c>
       <c r="C3722" t="inlineStr">
@@ -63648,7 +63648,7 @@
       </c>
       <c r="B3723" t="inlineStr">
         <is>
-          <t>格雷戈尔</t>
+          <t>格里戈丽</t>
         </is>
       </c>
       <c r="C3723" t="inlineStr">
@@ -63665,7 +63665,7 @@
       </c>
       <c r="B3724" t="inlineStr">
         <is>
-          <t>克拉格特</t>
+          <t>克拉杰特</t>
         </is>
       </c>
       <c r="C3724" t="inlineStr">
@@ -64056,7 +64056,7 @@
       </c>
       <c r="B3747" t="inlineStr">
         <is>
-          <t>厄内斯坦</t>
+          <t>欧内斯坦</t>
         </is>
       </c>
       <c r="C3747" t="inlineStr">
@@ -64073,7 +64073,7 @@
       </c>
       <c r="B3748" t="inlineStr">
         <is>
-          <t>伯吉耶</t>
+          <t>伯吉尔</t>
         </is>
       </c>
       <c r="C3748" t="inlineStr">
@@ -64158,7 +64158,7 @@
       </c>
       <c r="B3753" t="inlineStr">
         <is>
-          <t>埃姆穆利兹</t>
+          <t>埃马努维兹</t>
         </is>
       </c>
       <c r="C3753" t="inlineStr">
@@ -64243,7 +64243,7 @@
       </c>
       <c r="B3758" t="inlineStr">
         <is>
-          <t>比尔布勒</t>
+          <t>比尔伯勒</t>
         </is>
       </c>
       <c r="C3758" t="inlineStr">
@@ -64277,7 +64277,7 @@
       </c>
       <c r="B3760" t="inlineStr">
         <is>
-          <t>梅泽尔</t>
+          <t>马泽尔</t>
         </is>
       </c>
       <c r="C3760" t="inlineStr">
@@ -64345,7 +64345,7 @@
       </c>
       <c r="B3764" t="inlineStr">
         <is>
-          <t>钱瑟尔</t>
+          <t>钱斯尔</t>
         </is>
       </c>
       <c r="C3764" t="inlineStr">
@@ -64362,7 +64362,7 @@
       </c>
       <c r="B3765" t="inlineStr">
         <is>
-          <t>科伦巴斯</t>
+          <t>科伦伯斯</t>
         </is>
       </c>
       <c r="C3765" t="inlineStr">
@@ -64481,7 +64481,7 @@
       </c>
       <c r="B3772" t="inlineStr">
         <is>
-          <t>博伊斯拉根</t>
+          <t>布瓦斯拉根</t>
         </is>
       </c>
       <c r="C3772" t="inlineStr">
@@ -64600,7 +64600,7 @@
       </c>
       <c r="B3779" t="inlineStr">
         <is>
-          <t>佩罗</t>
+          <t>佩龙</t>
         </is>
       </c>
       <c r="C3779" t="inlineStr">
@@ -64617,7 +64617,7 @@
       </c>
       <c r="B3780" t="inlineStr">
         <is>
-          <t>耶格利</t>
+          <t>伊格利</t>
         </is>
       </c>
       <c r="C3780" t="inlineStr">
@@ -64736,7 +64736,7 @@
       </c>
       <c r="B3787" t="inlineStr">
         <is>
-          <t>多纳森</t>
+          <t>多纳尔森</t>
         </is>
       </c>
       <c r="C3787" t="inlineStr">
@@ -64770,7 +64770,7 @@
       </c>
       <c r="B3789" t="inlineStr">
         <is>
-          <t>麦克尔</t>
+          <t>马克尔</t>
         </is>
       </c>
       <c r="C3789" t="inlineStr">
@@ -64804,7 +64804,7 @@
       </c>
       <c r="B3791" t="inlineStr">
         <is>
-          <t>本福德</t>
+          <t>本德福德</t>
         </is>
       </c>
       <c r="C3791" t="inlineStr">
@@ -64889,7 +64889,7 @@
       </c>
       <c r="B3796" t="inlineStr">
         <is>
-          <t>普林格</t>
+          <t>普林杰</t>
         </is>
       </c>
       <c r="C3796" t="inlineStr">
@@ -64906,7 +64906,7 @@
       </c>
       <c r="B3797" t="inlineStr">
         <is>
-          <t>斯佩尔特</t>
+          <t>斯皮尔特</t>
         </is>
       </c>
       <c r="C3797" t="inlineStr">
@@ -64923,7 +64923,7 @@
       </c>
       <c r="B3798" t="inlineStr">
         <is>
-          <t>戴迪</t>
+          <t>达迪</t>
         </is>
       </c>
       <c r="C3798" t="inlineStr">
@@ -64957,7 +64957,7 @@
       </c>
       <c r="B3800" t="inlineStr">
         <is>
-          <t>卡拉格</t>
+          <t>卡拉格尔</t>
         </is>
       </c>
       <c r="C3800" t="inlineStr">
@@ -65059,7 +65059,7 @@
       </c>
       <c r="B3806" t="inlineStr">
         <is>
-          <t>梅热尔</t>
+          <t>马热尔</t>
         </is>
       </c>
       <c r="C3806" t="inlineStr">
@@ -65178,7 +65178,7 @@
       </c>
       <c r="B3813" t="inlineStr">
         <is>
-          <t>霍伊</t>
+          <t>霍耶</t>
         </is>
       </c>
       <c r="C3813" t="inlineStr">
@@ -65212,7 +65212,7 @@
       </c>
       <c r="B3815" t="inlineStr">
         <is>
-          <t>莱夫科夫</t>
+          <t>莱夫科</t>
         </is>
       </c>
       <c r="C3815" t="inlineStr">
@@ -65263,7 +65263,7 @@
       </c>
       <c r="B3818" t="inlineStr">
         <is>
-          <t>英格拉西亚</t>
+          <t>英格拉西娅</t>
         </is>
       </c>
       <c r="C3818" t="inlineStr">
@@ -65314,7 +65314,7 @@
       </c>
       <c r="B3821" t="inlineStr">
         <is>
-          <t>迈万威</t>
+          <t>迈芬威</t>
         </is>
       </c>
       <c r="C3821" t="inlineStr">
@@ -65467,7 +65467,7 @@
       </c>
       <c r="B3830" t="inlineStr">
         <is>
-          <t>马努拉</t>
+          <t>马纽埃拉</t>
         </is>
       </c>
       <c r="C3830" t="inlineStr">
@@ -65484,7 +65484,7 @@
       </c>
       <c r="B3831" t="inlineStr">
         <is>
-          <t>泽特伯格</t>
+          <t>杰特伯格</t>
         </is>
       </c>
       <c r="C3831" t="inlineStr">
@@ -65620,7 +65620,7 @@
       </c>
       <c r="B3839" t="inlineStr">
         <is>
-          <t>斯奇里卡</t>
+          <t>西里卡</t>
         </is>
       </c>
       <c r="C3839" t="inlineStr">
@@ -65671,7 +65671,7 @@
       </c>
       <c r="B3842" t="inlineStr">
         <is>
-          <t>杰尼勒尔</t>
+          <t>吉尼勒尔</t>
         </is>
       </c>
       <c r="C3842" t="inlineStr">
@@ -65773,7 +65773,7 @@
       </c>
       <c r="B3848" t="inlineStr">
         <is>
-          <t>马拉茨</t>
+          <t>穆拉尔兹</t>
         </is>
       </c>
       <c r="C3848" t="inlineStr">
@@ -65926,7 +65926,7 @@
       </c>
       <c r="B3857" t="inlineStr">
         <is>
-          <t>科赫兰</t>
+          <t>科格兰</t>
         </is>
       </c>
       <c r="C3857" t="inlineStr">
@@ -66028,7 +66028,7 @@
       </c>
       <c r="B3863" t="inlineStr">
         <is>
-          <t>勒梅热勒</t>
+          <t>勒姆热勒</t>
         </is>
       </c>
       <c r="C3863" t="inlineStr">
@@ -66521,7 +66521,7 @@
       </c>
       <c r="B3892" t="inlineStr">
         <is>
-          <t>利利万</t>
+          <t>利利万德</t>
         </is>
       </c>
       <c r="C3892" t="inlineStr">
@@ -66555,7 +66555,7 @@
       </c>
       <c r="B3894" t="inlineStr">
         <is>
-          <t>朗斯特兰</t>
+          <t>朗内斯特兰</t>
         </is>
       </c>
       <c r="C3894" t="inlineStr">
@@ -66674,7 +66674,7 @@
       </c>
       <c r="B3901" t="inlineStr">
         <is>
-          <t>安德烈亚森</t>
+          <t>安德烈森</t>
         </is>
       </c>
       <c r="C3901" t="inlineStr">
@@ -66878,7 +66878,7 @@
       </c>
       <c r="B3913" t="inlineStr">
         <is>
-          <t>斯泰歇</t>
+          <t>斯泰肯</t>
         </is>
       </c>
       <c r="C3913" t="inlineStr">
@@ -66895,7 +66895,7 @@
       </c>
       <c r="B3914" t="inlineStr">
         <is>
-          <t>普卢姆</t>
+          <t>普拉姆</t>
         </is>
       </c>
       <c r="C3914" t="inlineStr">
@@ -66946,7 +66946,7 @@
       </c>
       <c r="B3917" t="inlineStr">
         <is>
-          <t>博姆勒</t>
+          <t>伯姆勒</t>
         </is>
       </c>
       <c r="C3917" t="inlineStr">
@@ -66980,7 +66980,7 @@
       </c>
       <c r="B3919" t="inlineStr">
         <is>
-          <t>杰尼弗</t>
+          <t>詹尼弗</t>
         </is>
       </c>
       <c r="C3919" t="inlineStr">
@@ -67218,7 +67218,7 @@
       </c>
       <c r="B3933" t="inlineStr">
         <is>
-          <t>斯尼曾姆</t>
+          <t>斯尼策姆</t>
         </is>
       </c>
       <c r="C3933" t="inlineStr">
@@ -67235,7 +67235,7 @@
       </c>
       <c r="B3934" t="inlineStr">
         <is>
-          <t>盖盖</t>
+          <t>乔盖</t>
         </is>
       </c>
       <c r="C3934" t="inlineStr">
@@ -67354,7 +67354,7 @@
       </c>
       <c r="B3941" t="inlineStr">
         <is>
-          <t>加夫肖</t>
+          <t>加夫肖恩</t>
         </is>
       </c>
       <c r="C3941" t="inlineStr">
@@ -67371,7 +67371,7 @@
       </c>
       <c r="B3942" t="inlineStr">
         <is>
-          <t>索恩</t>
+          <t>索朗</t>
         </is>
       </c>
       <c r="C3942" t="inlineStr">
@@ -67422,7 +67422,7 @@
       </c>
       <c r="B3945" t="inlineStr">
         <is>
-          <t>怀尔丁</t>
+          <t>惠尔丁</t>
         </is>
       </c>
       <c r="C3945" t="inlineStr">
@@ -67490,7 +67490,7 @@
       </c>
       <c r="B3949" t="inlineStr">
         <is>
-          <t>米凯利</t>
+          <t>米基利</t>
         </is>
       </c>
       <c r="C3949" t="inlineStr">
@@ -67626,7 +67626,7 @@
       </c>
       <c r="B3957" t="inlineStr">
         <is>
-          <t>利特尔希尔德</t>
+          <t>利特尔柴尔德</t>
         </is>
       </c>
       <c r="C3957" t="inlineStr">
@@ -67796,7 +67796,7 @@
       </c>
       <c r="B3967" t="inlineStr">
         <is>
-          <t>布莱西尔</t>
+          <t>布莱泽</t>
         </is>
       </c>
       <c r="C3967" t="inlineStr">
@@ -67949,7 +67949,7 @@
       </c>
       <c r="B3976" t="inlineStr">
         <is>
-          <t>菲茨西德</t>
+          <t>菲茨思德</t>
         </is>
       </c>
       <c r="C3976" t="inlineStr">
@@ -67966,7 +67966,7 @@
       </c>
       <c r="B3977" t="inlineStr">
         <is>
-          <t>利莱加德</t>
+          <t>利尔加德</t>
         </is>
       </c>
       <c r="C3977" t="inlineStr">
@@ -68000,7 +68000,7 @@
       </c>
       <c r="B3979" t="inlineStr">
         <is>
-          <t>格克托夫</t>
+          <t>杰克托夫</t>
         </is>
       </c>
       <c r="C3979" t="inlineStr">
@@ -68051,7 +68051,7 @@
       </c>
       <c r="B3982" t="inlineStr">
         <is>
-          <t>雷文德尔</t>
+          <t>雷文达尔</t>
         </is>
       </c>
       <c r="C3982" t="inlineStr">
@@ -68102,7 +68102,7 @@
       </c>
       <c r="B3985" t="inlineStr">
         <is>
-          <t>韦斯孔特</t>
+          <t>维康特</t>
         </is>
       </c>
       <c r="C3985" t="inlineStr">
@@ -68187,7 +68187,7 @@
       </c>
       <c r="B3990" t="inlineStr">
         <is>
-          <t>麦克普德</t>
+          <t>麦克普劳德</t>
         </is>
       </c>
       <c r="C3990" t="inlineStr">
@@ -68289,7 +68289,7 @@
       </c>
       <c r="B3996" t="inlineStr">
         <is>
-          <t>贝恩</t>
+          <t>贝</t>
         </is>
       </c>
       <c r="C3996" t="inlineStr">
@@ -68374,7 +68374,7 @@
       </c>
       <c r="B4001" t="inlineStr">
         <is>
-          <t>布罗姆</t>
+          <t>布罗姆哈姆</t>
         </is>
       </c>
       <c r="C4001" t="inlineStr">
@@ -68544,7 +68544,7 @@
       </c>
       <c r="B4011" t="inlineStr">
         <is>
-          <t>佩奇</t>
+          <t>皮什</t>
         </is>
       </c>
       <c r="C4011" t="inlineStr">
@@ -68578,7 +68578,7 @@
       </c>
       <c r="B4013" t="inlineStr">
         <is>
-          <t>加恩</t>
+          <t>加涅</t>
         </is>
       </c>
       <c r="C4013" t="inlineStr">
@@ -68612,7 +68612,7 @@
       </c>
       <c r="B4015" t="inlineStr">
         <is>
-          <t>乔昆迪</t>
+          <t>乔康迪</t>
         </is>
       </c>
       <c r="C4015" t="inlineStr">
@@ -68646,7 +68646,7 @@
       </c>
       <c r="B4017" t="inlineStr">
         <is>
-          <t>詹巴斯蒂尼</t>
+          <t>江巴斯蒂亚尼</t>
         </is>
       </c>
       <c r="C4017" t="inlineStr">
@@ -68714,7 +68714,7 @@
       </c>
       <c r="B4021" t="inlineStr">
         <is>
-          <t>登瑟</t>
+          <t>登泽</t>
         </is>
       </c>
       <c r="C4021" t="inlineStr">
@@ -68765,7 +68765,7 @@
       </c>
       <c r="B4024" t="inlineStr">
         <is>
-          <t>斯洛博丁</t>
+          <t>斯洛博迪恩</t>
         </is>
       </c>
       <c r="C4024" t="inlineStr">
@@ -68850,7 +68850,7 @@
       </c>
       <c r="B4029" t="inlineStr">
         <is>
-          <t>克伦宾</t>
+          <t>克伦拜恩</t>
         </is>
       </c>
       <c r="C4029" t="inlineStr">
@@ -68867,7 +68867,7 @@
       </c>
       <c r="B4030" t="inlineStr">
         <is>
-          <t>加里奥克</t>
+          <t>加里奥赫</t>
         </is>
       </c>
       <c r="C4030" t="inlineStr">
@@ -69139,7 +69139,7 @@
       </c>
       <c r="B4046" t="inlineStr">
         <is>
-          <t>德沙</t>
+          <t>德莎</t>
         </is>
       </c>
       <c r="C4046" t="inlineStr">
@@ -69207,7 +69207,7 @@
       </c>
       <c r="B4050" t="inlineStr">
         <is>
-          <t>肯恩</t>
+          <t>克恩</t>
         </is>
       </c>
       <c r="C4050" t="inlineStr">
@@ -69241,7 +69241,7 @@
       </c>
       <c r="B4052" t="inlineStr">
         <is>
-          <t>拉铁摩尔</t>
+          <t>拉蒂莫尔</t>
         </is>
       </c>
       <c r="C4052" t="inlineStr">
@@ -69275,7 +69275,7 @@
       </c>
       <c r="B4054" t="inlineStr">
         <is>
-          <t>金</t>
+          <t>金恩</t>
         </is>
       </c>
       <c r="C4054" t="inlineStr">
@@ -69462,7 +69462,7 @@
       </c>
       <c r="B4065" t="inlineStr">
         <is>
-          <t>达里亚斯</t>
+          <t>达赖亚斯</t>
         </is>
       </c>
       <c r="C4065" t="inlineStr">
@@ -69530,7 +69530,7 @@
       </c>
       <c r="B4069" t="inlineStr">
         <is>
-          <t>希普</t>
+          <t>奇普</t>
         </is>
       </c>
       <c r="C4069" t="inlineStr">
@@ -69598,7 +69598,7 @@
       </c>
       <c r="B4073" t="inlineStr">
         <is>
-          <t>祖斯曼</t>
+          <t>朱斯曼</t>
         </is>
       </c>
       <c r="C4073" t="inlineStr">
@@ -69734,7 +69734,7 @@
       </c>
       <c r="B4081" t="inlineStr">
         <is>
-          <t>科尔尼特</t>
+          <t>科尔内特</t>
         </is>
       </c>
       <c r="C4081" t="inlineStr">
@@ -69785,7 +69785,7 @@
       </c>
       <c r="B4084" t="inlineStr">
         <is>
-          <t>沃迪科</t>
+          <t>沃迪克</t>
         </is>
       </c>
       <c r="C4084" t="inlineStr">
@@ -69921,7 +69921,7 @@
       </c>
       <c r="B4092" t="inlineStr">
         <is>
-          <t>伍特基</t>
+          <t>沃特克</t>
         </is>
       </c>
       <c r="C4092" t="inlineStr">
@@ -69955,7 +69955,7 @@
       </c>
       <c r="B4094" t="inlineStr">
         <is>
-          <t>鲁姆斯</t>
+          <t>吕姆斯</t>
         </is>
       </c>
       <c r="C4094" t="inlineStr">
@@ -70159,7 +70159,7 @@
       </c>
       <c r="B4106" t="inlineStr">
         <is>
-          <t>萨里克</t>
+          <t>萨里奇</t>
         </is>
       </c>
       <c r="C4106" t="inlineStr">
@@ -70295,7 +70295,7 @@
       </c>
       <c r="B4114" t="inlineStr">
         <is>
-          <t>拉希</t>
+          <t>莱希</t>
         </is>
       </c>
       <c r="C4114" t="inlineStr">
@@ -70584,7 +70584,7 @@
       </c>
       <c r="B4131" t="inlineStr">
         <is>
-          <t>马利肯</t>
+          <t>穆利肯</t>
         </is>
       </c>
       <c r="C4131" t="inlineStr">
@@ -70754,7 +70754,7 @@
       </c>
       <c r="B4141" t="inlineStr">
         <is>
-          <t>汤曾德</t>
+          <t>陶嫩德</t>
         </is>
       </c>
       <c r="C4141" t="inlineStr">
@@ -70771,7 +70771,7 @@
       </c>
       <c r="B4142" t="inlineStr">
         <is>
-          <t>拉费尔森</t>
+          <t>拉佩尔森</t>
         </is>
       </c>
       <c r="C4142" t="inlineStr">
@@ -70907,7 +70907,7 @@
       </c>
       <c r="B4150" t="inlineStr">
         <is>
-          <t>萨沃</t>
+          <t>萨沃伊</t>
         </is>
       </c>
       <c r="C4150" t="inlineStr">
@@ -71060,7 +71060,7 @@
       </c>
       <c r="B4159" t="inlineStr">
         <is>
-          <t>蒙罗伊格</t>
+          <t>蒙罗伊</t>
         </is>
       </c>
       <c r="C4159" t="inlineStr">
@@ -71145,7 +71145,7 @@
       </c>
       <c r="B4164" t="inlineStr">
         <is>
-          <t>谢拉巴杰</t>
+          <t>谢拉巴尔</t>
         </is>
       </c>
       <c r="C4164" t="inlineStr">
@@ -71162,7 +71162,7 @@
       </c>
       <c r="B4165" t="inlineStr">
         <is>
-          <t>格拉伯恩</t>
+          <t>格雷伯恩</t>
         </is>
       </c>
       <c r="C4165" t="inlineStr">
@@ -71264,7 +71264,7 @@
       </c>
       <c r="B4171" t="inlineStr">
         <is>
-          <t>波卡平</t>
+          <t>波卡潘</t>
         </is>
       </c>
       <c r="C4171" t="inlineStr">
@@ -71281,7 +71281,7 @@
       </c>
       <c r="B4172" t="inlineStr">
         <is>
-          <t>加拉克</t>
+          <t>加拉克尔</t>
         </is>
       </c>
       <c r="C4172" t="inlineStr">
@@ -71366,7 +71366,7 @@
       </c>
       <c r="B4177" t="inlineStr">
         <is>
-          <t>苏埃兹</t>
+          <t>苏埃</t>
         </is>
       </c>
       <c r="C4177" t="inlineStr">
@@ -71417,7 +71417,7 @@
       </c>
       <c r="B4180" t="inlineStr">
         <is>
-          <t>希奇曼</t>
+          <t>希契曼</t>
         </is>
       </c>
       <c r="C4180" t="inlineStr">
@@ -71451,7 +71451,7 @@
       </c>
       <c r="B4182" t="inlineStr">
         <is>
-          <t>莫尼汉</t>
+          <t>莫尼亨</t>
         </is>
       </c>
       <c r="C4182" t="inlineStr">
@@ -71655,7 +71655,7 @@
       </c>
       <c r="B4194" t="inlineStr">
         <is>
-          <t>达维娅</t>
+          <t>戴维娅</t>
         </is>
       </c>
       <c r="C4194" t="inlineStr">
@@ -71672,7 +71672,7 @@
       </c>
       <c r="B4195" t="inlineStr">
         <is>
-          <t>本西亚</t>
+          <t>本蒂亚</t>
         </is>
       </c>
       <c r="C4195" t="inlineStr">
@@ -71740,7 +71740,7 @@
       </c>
       <c r="B4199" t="inlineStr">
         <is>
-          <t>凯恩</t>
+          <t>凯扬</t>
         </is>
       </c>
       <c r="C4199" t="inlineStr">
@@ -71808,7 +71808,7 @@
       </c>
       <c r="B4203" t="inlineStr">
         <is>
-          <t>博尔科弗</t>
+          <t>博科弗</t>
         </is>
       </c>
       <c r="C4203" t="inlineStr">
@@ -71876,7 +71876,7 @@
       </c>
       <c r="B4207" t="inlineStr">
         <is>
-          <t>利瑟</t>
+          <t>利泽</t>
         </is>
       </c>
       <c r="C4207" t="inlineStr">
@@ -71978,7 +71978,7 @@
       </c>
       <c r="B4213" t="inlineStr">
         <is>
-          <t>勒夫勒</t>
+          <t>勒弗勒</t>
         </is>
       </c>
       <c r="C4213" t="inlineStr">
@@ -72080,7 +72080,7 @@
       </c>
       <c r="B4219" t="inlineStr">
         <is>
-          <t>休宁</t>
+          <t>丘宁</t>
         </is>
       </c>
       <c r="C4219" t="inlineStr">
@@ -72097,7 +72097,7 @@
       </c>
       <c r="B4220" t="inlineStr">
         <is>
-          <t>科基利特</t>
+          <t>科基莱特</t>
         </is>
       </c>
       <c r="C4220" t="inlineStr">
@@ -72131,7 +72131,7 @@
       </c>
       <c r="B4222" t="inlineStr">
         <is>
-          <t>特里恩</t>
+          <t>特赖恩</t>
         </is>
       </c>
       <c r="C4222" t="inlineStr">
@@ -72216,7 +72216,7 @@
       </c>
       <c r="B4227" t="inlineStr">
         <is>
-          <t>特鲁阿萨</t>
+          <t>特鲁沃萨</t>
         </is>
       </c>
       <c r="C4227" t="inlineStr">
@@ -72250,7 +72250,7 @@
       </c>
       <c r="B4229" t="inlineStr">
         <is>
-          <t>唐纳尔</t>
+          <t>唐纳雷尔</t>
         </is>
       </c>
       <c r="C4229" t="inlineStr">
@@ -72301,7 +72301,7 @@
       </c>
       <c r="B4232" t="inlineStr">
         <is>
-          <t>玛丽克尔</t>
+          <t>马里克尔</t>
         </is>
       </c>
       <c r="C4232" t="inlineStr">
@@ -72318,7 +72318,7 @@
       </c>
       <c r="B4233" t="inlineStr">
         <is>
-          <t>比奇</t>
+          <t>伯奇</t>
         </is>
       </c>
       <c r="C4233" t="inlineStr">
@@ -72386,7 +72386,7 @@
       </c>
       <c r="B4237" t="inlineStr">
         <is>
-          <t>布拉沃</t>
+          <t>布雷沃</t>
         </is>
       </c>
       <c r="C4237" t="inlineStr">
@@ -72471,7 +72471,7 @@
       </c>
       <c r="B4242" t="inlineStr">
         <is>
-          <t>杰尼西斯</t>
+          <t>吉尼西斯</t>
         </is>
       </c>
       <c r="C4242" t="inlineStr">
@@ -72624,7 +72624,7 @@
       </c>
       <c r="B4251" t="inlineStr">
         <is>
-          <t>马尔库斯</t>
+          <t>马尔克斯</t>
         </is>
       </c>
       <c r="C4251" t="inlineStr">
@@ -72675,7 +72675,7 @@
       </c>
       <c r="B4254" t="inlineStr">
         <is>
-          <t>勒潘</t>
+          <t>莱派因</t>
         </is>
       </c>
       <c r="C4254" t="inlineStr">
@@ -72709,7 +72709,7 @@
       </c>
       <c r="B4256" t="inlineStr">
         <is>
-          <t>弗拉格尔</t>
+          <t>弗莱格尔</t>
         </is>
       </c>
       <c r="C4256" t="inlineStr">
@@ -72743,7 +72743,7 @@
       </c>
       <c r="B4258" t="inlineStr">
         <is>
-          <t>劳斯金斯</t>
+          <t>劳斯凯斯</t>
         </is>
       </c>
       <c r="C4258" t="inlineStr">
@@ -72913,7 +72913,7 @@
       </c>
       <c r="B4268" t="inlineStr">
         <is>
-          <t>休沃思</t>
+          <t>霍沃思</t>
         </is>
       </c>
       <c r="C4268" t="inlineStr">
@@ -73015,7 +73015,7 @@
       </c>
       <c r="B4274" t="inlineStr">
         <is>
-          <t>科默斯</t>
+          <t>康默斯</t>
         </is>
       </c>
       <c r="C4274" t="inlineStr">
@@ -73066,7 +73066,7 @@
       </c>
       <c r="B4277" t="inlineStr">
         <is>
-          <t>加恩西</t>
+          <t>加恩齐</t>
         </is>
       </c>
       <c r="C4277" t="inlineStr">
@@ -73100,7 +73100,7 @@
       </c>
       <c r="B4279" t="inlineStr">
         <is>
-          <t>伊德沃尔</t>
+          <t>伊德瓦尔</t>
         </is>
       </c>
       <c r="C4279" t="inlineStr">
@@ -73134,7 +73134,7 @@
       </c>
       <c r="B4281" t="inlineStr">
         <is>
-          <t>拉萨雷特</t>
+          <t>拉扎雷特</t>
         </is>
       </c>
       <c r="C4281" t="inlineStr">
@@ -73151,7 +73151,7 @@
       </c>
       <c r="B4282" t="inlineStr">
         <is>
-          <t>拉迪克斯</t>
+          <t>雷迪克斯</t>
         </is>
       </c>
       <c r="C4282" t="inlineStr">
@@ -73219,7 +73219,7 @@
       </c>
       <c r="B4286" t="inlineStr">
         <is>
-          <t>阿德勒夫</t>
+          <t>阿道夫</t>
         </is>
       </c>
       <c r="C4286" t="inlineStr">
@@ -73304,7 +73304,7 @@
       </c>
       <c r="B4291" t="inlineStr">
         <is>
-          <t>麦克法奎尔</t>
+          <t>麦克法夸尔</t>
         </is>
       </c>
       <c r="C4291" t="inlineStr">
@@ -73321,7 +73321,7 @@
       </c>
       <c r="B4292" t="inlineStr">
         <is>
-          <t>欧文斯</t>
+          <t>奥因斯</t>
         </is>
       </c>
       <c r="C4292" t="inlineStr">
@@ -73372,7 +73372,7 @@
       </c>
       <c r="B4295" t="inlineStr">
         <is>
-          <t>赛尔</t>
+          <t>西尔</t>
         </is>
       </c>
       <c r="C4295" t="inlineStr">
@@ -73491,7 +73491,7 @@
       </c>
       <c r="B4302" t="inlineStr">
         <is>
-          <t>厄尔罗普</t>
+          <t>尤尔罗普</t>
         </is>
       </c>
       <c r="C4302" t="inlineStr">
@@ -73627,7 +73627,7 @@
       </c>
       <c r="B4310" t="inlineStr">
         <is>
-          <t>切斯特</t>
+          <t>奇斯特</t>
         </is>
       </c>
       <c r="C4310" t="inlineStr">
@@ -73729,7 +73729,7 @@
       </c>
       <c r="B4316" t="inlineStr">
         <is>
-          <t>贾梅特</t>
+          <t>杰梅特</t>
         </is>
       </c>
       <c r="C4316" t="inlineStr">
@@ -73831,7 +73831,7 @@
       </c>
       <c r="B4322" t="inlineStr">
         <is>
-          <t>伯克</t>
+          <t>布尔克</t>
         </is>
       </c>
       <c r="C4322" t="inlineStr">
@@ -73882,7 +73882,7 @@
       </c>
       <c r="B4325" t="inlineStr">
         <is>
-          <t>特雷索恩</t>
+          <t>特雷休恩</t>
         </is>
       </c>
       <c r="C4325" t="inlineStr">
@@ -73984,7 +73984,7 @@
       </c>
       <c r="B4331" t="inlineStr">
         <is>
-          <t>凯拉</t>
+          <t>卡拉</t>
         </is>
       </c>
       <c r="C4331" t="inlineStr">
@@ -74256,7 +74256,7 @@
       </c>
       <c r="B4347" t="inlineStr">
         <is>
-          <t>约纳森</t>
+          <t>琼纳森</t>
         </is>
       </c>
       <c r="C4347" t="inlineStr">
@@ -74273,7 +74273,7 @@
       </c>
       <c r="B4348" t="inlineStr">
         <is>
-          <t>斯特拉奇</t>
+          <t>斯特罗奇</t>
         </is>
       </c>
       <c r="C4348" t="inlineStr">
@@ -74426,7 +74426,7 @@
       </c>
       <c r="B4357" t="inlineStr">
         <is>
-          <t>斯特拉希</t>
+          <t>斯特拉基</t>
         </is>
       </c>
       <c r="C4357" t="inlineStr">
@@ -74613,7 +74613,7 @@
       </c>
       <c r="B4368" t="inlineStr">
         <is>
-          <t>卡莱尔</t>
+          <t>卡利尔</t>
         </is>
       </c>
       <c r="C4368" t="inlineStr">
@@ -74630,7 +74630,7 @@
       </c>
       <c r="B4369" t="inlineStr">
         <is>
-          <t>博格蒂尔</t>
+          <t>博格哈蒂</t>
         </is>
       </c>
       <c r="C4369" t="inlineStr">
@@ -74698,7 +74698,7 @@
       </c>
       <c r="B4373" t="inlineStr">
         <is>
-          <t>博罗维耶</t>
+          <t>博罗维茨</t>
         </is>
       </c>
       <c r="C4373" t="inlineStr">
@@ -74817,7 +74817,7 @@
       </c>
       <c r="B4380" t="inlineStr">
         <is>
-          <t>诺延</t>
+          <t>诺扬</t>
         </is>
       </c>
       <c r="C4380" t="inlineStr">
@@ -74834,7 +74834,7 @@
       </c>
       <c r="B4381" t="inlineStr">
         <is>
-          <t>帕斯奇</t>
+          <t>帕萨奇</t>
         </is>
       </c>
       <c r="C4381" t="inlineStr">
@@ -74868,7 +74868,7 @@
       </c>
       <c r="B4383" t="inlineStr">
         <is>
-          <t>尤延斯</t>
+          <t>尤恩斯</t>
         </is>
       </c>
       <c r="C4383" t="inlineStr">
@@ -75089,7 +75089,7 @@
       </c>
       <c r="B4396" t="inlineStr">
         <is>
-          <t>图伦</t>
+          <t>图兰</t>
         </is>
       </c>
       <c r="C4396" t="inlineStr">
@@ -75140,7 +75140,7 @@
       </c>
       <c r="B4399" t="inlineStr">
         <is>
-          <t>布拉德皮斯</t>
+          <t>布拉兹皮斯</t>
         </is>
       </c>
       <c r="C4399" t="inlineStr">
@@ -75174,7 +75174,7 @@
       </c>
       <c r="B4401" t="inlineStr">
         <is>
-          <t>勒彭尼克</t>
+          <t>勒佩内克</t>
         </is>
       </c>
       <c r="C4401" t="inlineStr">
@@ -75361,7 +75361,7 @@
       </c>
       <c r="B4412" t="inlineStr">
         <is>
-          <t>罗格特</t>
+          <t>罗热特</t>
         </is>
       </c>
       <c r="C4412" t="inlineStr">
@@ -75429,7 +75429,7 @@
       </c>
       <c r="B4416" t="inlineStr">
         <is>
-          <t>卡莉</t>
+          <t>卡利</t>
         </is>
       </c>
       <c r="C4416" t="inlineStr">
@@ -75446,7 +75446,7 @@
       </c>
       <c r="B4417" t="inlineStr">
         <is>
-          <t>阿利桑大</t>
+          <t>阿利桑德</t>
         </is>
       </c>
       <c r="C4417" t="inlineStr">
@@ -75497,7 +75497,7 @@
       </c>
       <c r="B4420" t="inlineStr">
         <is>
-          <t>麦加拉希</t>
+          <t>麦加拉吉</t>
         </is>
       </c>
       <c r="C4420" t="inlineStr">
@@ -75582,7 +75582,7 @@
       </c>
       <c r="B4425" t="inlineStr">
         <is>
-          <t>里博拉</t>
+          <t>雷博拉</t>
         </is>
       </c>
       <c r="C4425" t="inlineStr">
@@ -75599,7 +75599,7 @@
       </c>
       <c r="B4426" t="inlineStr">
         <is>
-          <t>耶克尔</t>
+          <t>伊克尔</t>
         </is>
       </c>
       <c r="C4426" t="inlineStr">
@@ -75633,7 +75633,7 @@
       </c>
       <c r="B4428" t="inlineStr">
         <is>
-          <t>马奥利</t>
+          <t>马霍利</t>
         </is>
       </c>
       <c r="C4428" t="inlineStr">
@@ -75701,7 +75701,7 @@
       </c>
       <c r="B4432" t="inlineStr">
         <is>
-          <t>格拉班斯</t>
+          <t>格拉本斯</t>
         </is>
       </c>
       <c r="C4432" t="inlineStr">
@@ -75820,7 +75820,7 @@
       </c>
       <c r="B4439" t="inlineStr">
         <is>
-          <t>拉迪厄斯</t>
+          <t>雷迪厄斯</t>
         </is>
       </c>
       <c r="C4439" t="inlineStr">
@@ -75939,7 +75939,7 @@
       </c>
       <c r="B4446" t="inlineStr">
         <is>
-          <t>法西亚</t>
+          <t>法夏</t>
         </is>
       </c>
       <c r="C4446" t="inlineStr">
@@ -75990,7 +75990,7 @@
       </c>
       <c r="B4449" t="inlineStr">
         <is>
-          <t>汉德福</t>
+          <t>汉福德</t>
         </is>
       </c>
       <c r="C4449" t="inlineStr">
@@ -76041,7 +76041,7 @@
       </c>
       <c r="B4452" t="inlineStr">
         <is>
-          <t>弗内利厄斯</t>
+          <t>弗尼利厄斯</t>
         </is>
       </c>
       <c r="C4452" t="inlineStr">
@@ -76160,7 +76160,7 @@
       </c>
       <c r="B4459" t="inlineStr">
         <is>
-          <t>加斯纳德</t>
+          <t>古斯纳德</t>
         </is>
       </c>
       <c r="C4459" t="inlineStr">
@@ -76177,7 +76177,7 @@
       </c>
       <c r="B4460" t="inlineStr">
         <is>
-          <t>明妮特</t>
+          <t>明尼特</t>
         </is>
       </c>
       <c r="C4460" t="inlineStr">
@@ -76194,7 +76194,7 @@
       </c>
       <c r="B4461" t="inlineStr">
         <is>
-          <t>道德</t>
+          <t>多德</t>
         </is>
       </c>
       <c r="C4461" t="inlineStr">
@@ -76211,7 +76211,7 @@
       </c>
       <c r="B4462" t="inlineStr">
         <is>
-          <t>塔妮斯</t>
+          <t>塔尼斯</t>
         </is>
       </c>
       <c r="C4462" t="inlineStr">
@@ -76245,7 +76245,7 @@
       </c>
       <c r="B4464" t="inlineStr">
         <is>
-          <t>卡拉尔</t>
+          <t>卡雷尔</t>
         </is>
       </c>
       <c r="C4464" t="inlineStr">
@@ -76432,7 +76432,7 @@
       </c>
       <c r="B4475" t="inlineStr">
         <is>
-          <t>马辛</t>
+          <t>马欣</t>
         </is>
       </c>
       <c r="C4475" t="inlineStr">
@@ -76551,7 +76551,7 @@
       </c>
       <c r="B4482" t="inlineStr">
         <is>
-          <t>麦克费德伦</t>
+          <t>麦克费德兰</t>
         </is>
       </c>
       <c r="C4482" t="inlineStr">
@@ -76704,7 +76704,7 @@
       </c>
       <c r="B4491" t="inlineStr">
         <is>
-          <t>斯卡里斯里克</t>
+          <t>斯卡里斯布里克</t>
         </is>
       </c>
       <c r="C4491" t="inlineStr">
@@ -76755,7 +76755,7 @@
       </c>
       <c r="B4494" t="inlineStr">
         <is>
-          <t>内塞尔罗德</t>
+          <t>内塞尔德</t>
         </is>
       </c>
       <c r="C4494" t="inlineStr">
@@ -76942,7 +76942,7 @@
       </c>
       <c r="B4505" t="inlineStr">
         <is>
-          <t>贝斯廷维斯</t>
+          <t>贝斯廷韦斯特</t>
         </is>
       </c>
       <c r="C4505" t="inlineStr">
@@ -77044,7 +77044,7 @@
       </c>
       <c r="B4511" t="inlineStr">
         <is>
-          <t>贝什利特</t>
+          <t>贝谢利特</t>
         </is>
       </c>
       <c r="C4511" t="inlineStr">
@@ -77078,7 +77078,7 @@
       </c>
       <c r="B4513" t="inlineStr">
         <is>
-          <t>勒赫特</t>
+          <t>卢赫特</t>
         </is>
       </c>
       <c r="C4513" t="inlineStr">
@@ -77231,7 +77231,7 @@
       </c>
       <c r="B4522" t="inlineStr">
         <is>
-          <t>赖瑟姆</t>
+          <t>艾特姆</t>
         </is>
       </c>
       <c r="C4522" t="inlineStr">
@@ -77248,7 +77248,7 @@
       </c>
       <c r="B4523" t="inlineStr">
         <is>
-          <t>马巴格</t>
+          <t>马巴杰</t>
         </is>
       </c>
       <c r="C4523" t="inlineStr">
@@ -77265,7 +77265,7 @@
       </c>
       <c r="B4524" t="inlineStr">
         <is>
-          <t>格里沃</t>
+          <t>格鲁尔</t>
         </is>
       </c>
       <c r="C4524" t="inlineStr">
@@ -77384,7 +77384,7 @@
       </c>
       <c r="B4531" t="inlineStr">
         <is>
-          <t>林格</t>
+          <t>林杰</t>
         </is>
       </c>
       <c r="C4531" t="inlineStr">
@@ -77588,7 +77588,7 @@
       </c>
       <c r="B4543" t="inlineStr">
         <is>
-          <t>罗伯森</t>
+          <t>罗伯逊</t>
         </is>
       </c>
       <c r="C4543" t="inlineStr">
@@ -77656,7 +77656,7 @@
       </c>
       <c r="B4547" t="inlineStr">
         <is>
-          <t>麦吉奥拉</t>
+          <t>麦乔拉</t>
         </is>
       </c>
       <c r="C4547" t="inlineStr">
@@ -77690,7 +77690,7 @@
       </c>
       <c r="B4549" t="inlineStr">
         <is>
-          <t>雷宾斯</t>
+          <t>雷宾</t>
         </is>
       </c>
       <c r="C4549" t="inlineStr">
@@ -77707,7 +77707,7 @@
       </c>
       <c r="B4550" t="inlineStr">
         <is>
-          <t>查博</t>
+          <t>查博特</t>
         </is>
       </c>
       <c r="C4550" t="inlineStr">
@@ -77775,7 +77775,7 @@
       </c>
       <c r="B4554" t="inlineStr">
         <is>
-          <t>特恩斯</t>
+          <t>特尼斯</t>
         </is>
       </c>
       <c r="C4554" t="inlineStr">
@@ -77809,7 +77809,7 @@
       </c>
       <c r="B4556" t="inlineStr">
         <is>
-          <t>阿丁</t>
+          <t>埃丁</t>
         </is>
       </c>
       <c r="C4556" t="inlineStr">
@@ -77826,7 +77826,7 @@
       </c>
       <c r="B4557" t="inlineStr">
         <is>
-          <t>贝默</t>
+          <t>比默</t>
         </is>
       </c>
       <c r="C4557" t="inlineStr">
@@ -78166,7 +78166,7 @@
       </c>
       <c r="B4577" t="inlineStr">
         <is>
-          <t>普林</t>
+          <t>普卢</t>
         </is>
       </c>
       <c r="C4577" t="inlineStr">
@@ -78387,7 +78387,7 @@
       </c>
       <c r="B4590" t="inlineStr">
         <is>
-          <t>凯茜</t>
+          <t>凯蒂</t>
         </is>
       </c>
       <c r="C4590" t="inlineStr">
@@ -78421,7 +78421,7 @@
       </c>
       <c r="B4592" t="inlineStr">
         <is>
-          <t>卡罗利娜</t>
+          <t>卡罗莉娜</t>
         </is>
       </c>
       <c r="C4592" t="inlineStr">
@@ -78540,7 +78540,7 @@
       </c>
       <c r="B4599" t="inlineStr">
         <is>
-          <t>塞尼亚</t>
+          <t>切尼亚</t>
         </is>
       </c>
       <c r="C4599" t="inlineStr">
@@ -78642,7 +78642,7 @@
       </c>
       <c r="B4605" t="inlineStr">
         <is>
-          <t>朗兹</t>
+          <t>朗德斯</t>
         </is>
       </c>
       <c r="C4605" t="inlineStr">
@@ -78744,7 +78744,7 @@
       </c>
       <c r="B4611" t="inlineStr">
         <is>
-          <t>佩佩雷尔</t>
+          <t>佩普雷尔</t>
         </is>
       </c>
       <c r="C4611" t="inlineStr">
@@ -78982,7 +78982,7 @@
       </c>
       <c r="B4625" t="inlineStr">
         <is>
-          <t>奥赖奥丹</t>
+          <t>奥赖奥登</t>
         </is>
       </c>
       <c r="C4625" t="inlineStr">
@@ -79016,7 +79016,7 @@
       </c>
       <c r="B4627" t="inlineStr">
         <is>
-          <t>尤斯</t>
+          <t>尤伊斯</t>
         </is>
       </c>
       <c r="C4627" t="inlineStr">
@@ -79050,7 +79050,7 @@
       </c>
       <c r="B4629" t="inlineStr">
         <is>
-          <t>塞诺维奇</t>
+          <t>切尔诺维奇</t>
         </is>
       </c>
       <c r="C4629" t="inlineStr">
@@ -79152,7 +79152,7 @@
       </c>
       <c r="B4635" t="inlineStr">
         <is>
-          <t>贾金斯</t>
+          <t>英金斯</t>
         </is>
       </c>
       <c r="C4635" t="inlineStr">
@@ -79237,7 +79237,7 @@
       </c>
       <c r="B4640" t="inlineStr">
         <is>
-          <t>希普尚克斯</t>
+          <t>希普欣克斯</t>
         </is>
       </c>
       <c r="C4640" t="inlineStr">
@@ -79305,7 +79305,7 @@
       </c>
       <c r="B4644" t="inlineStr">
         <is>
-          <t>雷</t>
+          <t>雷伊</t>
         </is>
       </c>
       <c r="C4644" t="inlineStr">
@@ -79339,7 +79339,7 @@
       </c>
       <c r="B4646" t="inlineStr">
         <is>
-          <t>蒂廷</t>
+          <t>图廷</t>
         </is>
       </c>
       <c r="C4646" t="inlineStr">
@@ -79407,7 +79407,7 @@
       </c>
       <c r="B4650" t="inlineStr">
         <is>
-          <t>阿尔弗伦德</t>
+          <t>艾尔弗兰德</t>
         </is>
       </c>
       <c r="C4650" t="inlineStr">
@@ -79475,7 +79475,7 @@
       </c>
       <c r="B4654" t="inlineStr">
         <is>
-          <t>勒伯斯</t>
+          <t>莱布斯</t>
         </is>
       </c>
       <c r="C4654" t="inlineStr">
@@ -79492,7 +79492,7 @@
       </c>
       <c r="B4655" t="inlineStr">
         <is>
-          <t>格伦迪宁</t>
+          <t>格伦丹宁</t>
         </is>
       </c>
       <c r="C4655" t="inlineStr">
@@ -79509,7 +79509,7 @@
       </c>
       <c r="B4656" t="inlineStr">
         <is>
-          <t>彻尼什</t>
+          <t>切尼什</t>
         </is>
       </c>
       <c r="C4656" t="inlineStr">
@@ -79594,7 +79594,7 @@
       </c>
       <c r="B4661" t="inlineStr">
         <is>
-          <t>怀</t>
+          <t>怀伊</t>
         </is>
       </c>
       <c r="C4661" t="inlineStr">
@@ -79713,7 +79713,7 @@
       </c>
       <c r="B4668" t="inlineStr">
         <is>
-          <t>盖特</t>
+          <t>盖瑟</t>
         </is>
       </c>
       <c r="C4668" t="inlineStr">
@@ -79730,7 +79730,7 @@
       </c>
       <c r="B4669" t="inlineStr">
         <is>
-          <t>辛迪兰</t>
+          <t>辛迪伦</t>
         </is>
       </c>
       <c r="C4669" t="inlineStr">
@@ -79815,7 +79815,7 @@
       </c>
       <c r="B4674" t="inlineStr">
         <is>
-          <t>厄加斯</t>
+          <t>厄尔加斯</t>
         </is>
       </c>
       <c r="C4674" t="inlineStr">
@@ -79951,7 +79951,7 @@
       </c>
       <c r="B4682" t="inlineStr">
         <is>
-          <t>克里斯蒂恩</t>
+          <t>克里斯琴</t>
         </is>
       </c>
       <c r="C4682" t="inlineStr">
@@ -80002,7 +80002,7 @@
       </c>
       <c r="B4685" t="inlineStr">
         <is>
-          <t>莱布勒</t>
+          <t>利布勒</t>
         </is>
       </c>
       <c r="C4685" t="inlineStr">
@@ -80189,7 +80189,7 @@
       </c>
       <c r="B4696" t="inlineStr">
         <is>
-          <t>利森</t>
+          <t>利尚</t>
         </is>
       </c>
       <c r="C4696" t="inlineStr">
@@ -80240,7 +80240,7 @@
       </c>
       <c r="B4699" t="inlineStr">
         <is>
-          <t>雷斯蒂</t>
+          <t>雷斯蒂奥</t>
         </is>
       </c>
       <c r="C4699" t="inlineStr">
@@ -80257,7 +80257,7 @@
       </c>
       <c r="B4700" t="inlineStr">
         <is>
-          <t>蒙妮卡</t>
+          <t>蒙尼卡</t>
         </is>
       </c>
       <c r="C4700" t="inlineStr">
@@ -80376,7 +80376,7 @@
       </c>
       <c r="B4707" t="inlineStr">
         <is>
-          <t>费尔科斯</t>
+          <t>费尔斯斯</t>
         </is>
       </c>
       <c r="C4707" t="inlineStr">
@@ -80648,7 +80648,7 @@
       </c>
       <c r="B4723" t="inlineStr">
         <is>
-          <t>齐默曼</t>
+          <t>齐梅曼</t>
         </is>
       </c>
       <c r="C4723" t="inlineStr">
@@ -80733,7 +80733,7 @@
       </c>
       <c r="B4728" t="inlineStr">
         <is>
-          <t>布拉特斯特伦</t>
+          <t>布拉茨特伦</t>
         </is>
       </c>
       <c r="C4728" t="inlineStr">
@@ -80835,7 +80835,7 @@
       </c>
       <c r="B4734" t="inlineStr">
         <is>
-          <t>多克</t>
+          <t>多克尔</t>
         </is>
       </c>
       <c r="C4734" t="inlineStr">
@@ -80869,7 +80869,7 @@
       </c>
       <c r="B4736" t="inlineStr">
         <is>
-          <t>米尔基娜</t>
+          <t>米尔基纳</t>
         </is>
       </c>
       <c r="C4736" t="inlineStr">
@@ -80920,7 +80920,7 @@
       </c>
       <c r="B4739" t="inlineStr">
         <is>
-          <t>特尔瑟</t>
+          <t>特尔塞</t>
         </is>
       </c>
       <c r="C4739" t="inlineStr">
@@ -81005,7 +81005,7 @@
       </c>
       <c r="B4744" t="inlineStr">
         <is>
-          <t>洛伊</t>
+          <t>洛维</t>
         </is>
       </c>
       <c r="C4744" t="inlineStr">
@@ -81073,7 +81073,7 @@
       </c>
       <c r="B4748" t="inlineStr">
         <is>
-          <t>哈钦斯</t>
+          <t>哈琴斯</t>
         </is>
       </c>
       <c r="C4748" t="inlineStr">
@@ -81209,7 +81209,7 @@
       </c>
       <c r="B4756" t="inlineStr">
         <is>
-          <t>蒂索</t>
+          <t>蒂泽</t>
         </is>
       </c>
       <c r="C4756" t="inlineStr">
@@ -81464,7 +81464,7 @@
       </c>
       <c r="B4771" t="inlineStr">
         <is>
-          <t>阿尔菲厄斯</t>
+          <t>阿尔弗斯</t>
         </is>
       </c>
       <c r="C4771" t="inlineStr">
@@ -81753,7 +81753,7 @@
       </c>
       <c r="B4788" t="inlineStr">
         <is>
-          <t>锡伊</t>
+          <t>赛伊</t>
         </is>
       </c>
       <c r="C4788" t="inlineStr">
@@ -81787,7 +81787,7 @@
       </c>
       <c r="B4790" t="inlineStr">
         <is>
-          <t>乔普林</t>
+          <t>肖普林</t>
         </is>
       </c>
       <c r="C4790" t="inlineStr">
@@ -81804,7 +81804,7 @@
       </c>
       <c r="B4791" t="inlineStr">
         <is>
-          <t>阿尼基斯</t>
+          <t>安妮基斯</t>
         </is>
       </c>
       <c r="C4791" t="inlineStr">
@@ -81872,7 +81872,7 @@
       </c>
       <c r="B4795" t="inlineStr">
         <is>
-          <t>多尔肖</t>
+          <t>多尔肖格</t>
         </is>
       </c>
       <c r="C4795" t="inlineStr">
@@ -81923,7 +81923,7 @@
       </c>
       <c r="B4798" t="inlineStr">
         <is>
-          <t>菲克斯</t>
+          <t>费克斯</t>
         </is>
       </c>
       <c r="C4798" t="inlineStr">
@@ -81940,7 +81940,7 @@
       </c>
       <c r="B4799" t="inlineStr">
         <is>
-          <t>蒂加</t>
+          <t>蒂格</t>
         </is>
       </c>
       <c r="C4799" t="inlineStr">
@@ -82025,7 +82025,7 @@
       </c>
       <c r="B4804" t="inlineStr">
         <is>
-          <t>戈特格托</t>
+          <t>戈特格特鲁</t>
         </is>
       </c>
       <c r="C4804" t="inlineStr">
@@ -82059,7 +82059,7 @@
       </c>
       <c r="B4806" t="inlineStr">
         <is>
-          <t>胡思</t>
+          <t>休思</t>
         </is>
       </c>
       <c r="C4806" t="inlineStr">
@@ -82127,7 +82127,7 @@
       </c>
       <c r="B4810" t="inlineStr">
         <is>
-          <t>格里夫</t>
+          <t>格雷夫</t>
         </is>
       </c>
       <c r="C4810" t="inlineStr">
@@ -82195,7 +82195,7 @@
       </c>
       <c r="B4814" t="inlineStr">
         <is>
-          <t>库比希</t>
+          <t>库比施</t>
         </is>
       </c>
       <c r="C4814" t="inlineStr">
@@ -82212,7 +82212,7 @@
       </c>
       <c r="B4815" t="inlineStr">
         <is>
-          <t>阿布拉姆</t>
+          <t>艾布拉姆</t>
         </is>
       </c>
       <c r="C4815" t="inlineStr">
@@ -82314,7 +82314,7 @@
       </c>
       <c r="B4821" t="inlineStr">
         <is>
-          <t>兰根沃尔特</t>
+          <t>兰格沃尔特</t>
         </is>
       </c>
       <c r="C4821" t="inlineStr">
@@ -82331,7 +82331,7 @@
       </c>
       <c r="B4822" t="inlineStr">
         <is>
-          <t>惠纳里</t>
+          <t>怀纳里</t>
         </is>
       </c>
       <c r="C4822" t="inlineStr">
@@ -82382,7 +82382,7 @@
       </c>
       <c r="B4825" t="inlineStr">
         <is>
-          <t>马洛</t>
+          <t>梅洛</t>
         </is>
       </c>
       <c r="C4825" t="inlineStr">
@@ -82433,7 +82433,7 @@
       </c>
       <c r="B4828" t="inlineStr">
         <is>
-          <t>伯尔斯</t>
+          <t>伯斯</t>
         </is>
       </c>
       <c r="C4828" t="inlineStr">
@@ -82603,7 +82603,7 @@
       </c>
       <c r="B4838" t="inlineStr">
         <is>
-          <t>塞里塞雷斯</t>
+          <t>塞雷塞雷斯</t>
         </is>
       </c>
       <c r="C4838" t="inlineStr">
@@ -82620,7 +82620,7 @@
       </c>
       <c r="B4839" t="inlineStr">
         <is>
-          <t>穆布雷</t>
+          <t>莫布雷</t>
         </is>
       </c>
       <c r="C4839" t="inlineStr">
@@ -82722,7 +82722,7 @@
       </c>
       <c r="B4845" t="inlineStr">
         <is>
-          <t>达纳尔</t>
+          <t>达纳赫</t>
         </is>
       </c>
       <c r="C4845" t="inlineStr">
@@ -82892,7 +82892,7 @@
       </c>
       <c r="B4855" t="inlineStr">
         <is>
-          <t>阿尔希尔</t>
+          <t>阿莱希尔</t>
         </is>
       </c>
       <c r="C4855" t="inlineStr">
@@ -82943,7 +82943,7 @@
       </c>
       <c r="B4858" t="inlineStr">
         <is>
-          <t>埃利希</t>
+          <t>埃利利</t>
         </is>
       </c>
       <c r="C4858" t="inlineStr">
@@ -83011,7 +83011,7 @@
       </c>
       <c r="B4862" t="inlineStr">
         <is>
-          <t>卡特希尔</t>
+          <t>卡锡尔</t>
         </is>
       </c>
       <c r="C4862" t="inlineStr">
@@ -83096,7 +83096,7 @@
       </c>
       <c r="B4867" t="inlineStr">
         <is>
-          <t>艾洛特</t>
+          <t>伊洛特</t>
         </is>
       </c>
       <c r="C4867" t="inlineStr">
@@ -83113,7 +83113,7 @@
       </c>
       <c r="B4868" t="inlineStr">
         <is>
-          <t>詹姆斯</t>
+          <t>贾姆斯</t>
         </is>
       </c>
       <c r="C4868" t="inlineStr">
@@ -83130,7 +83130,7 @@
       </c>
       <c r="B4869" t="inlineStr">
         <is>
-          <t>麦克卢利克</t>
+          <t>麦克卢利奇</t>
         </is>
       </c>
       <c r="C4869" t="inlineStr">
@@ -83266,7 +83266,7 @@
       </c>
       <c r="B4877" t="inlineStr">
         <is>
-          <t>杜尤</t>
+          <t>杜伊</t>
         </is>
       </c>
       <c r="C4877" t="inlineStr">
@@ -83300,7 +83300,7 @@
       </c>
       <c r="B4879" t="inlineStr">
         <is>
-          <t>图塞金特</t>
+          <t>图塞因特</t>
         </is>
       </c>
       <c r="C4879" t="inlineStr">
@@ -83317,7 +83317,7 @@
       </c>
       <c r="B4880" t="inlineStr">
         <is>
-          <t>戴因考特</t>
+          <t>戴恩考特</t>
         </is>
       </c>
       <c r="C4880" t="inlineStr">
@@ -83334,7 +83334,7 @@
       </c>
       <c r="B4881" t="inlineStr">
         <is>
-          <t>斯基茨</t>
+          <t>西茨</t>
         </is>
       </c>
       <c r="C4881" t="inlineStr">
@@ -83453,7 +83453,7 @@
       </c>
       <c r="B4888" t="inlineStr">
         <is>
-          <t>埃梅林</t>
+          <t>埃米琳</t>
         </is>
       </c>
       <c r="C4888" t="inlineStr">
@@ -83555,7 +83555,7 @@
       </c>
       <c r="B4894" t="inlineStr">
         <is>
-          <t>卡利恩多</t>
+          <t>卡利多</t>
         </is>
       </c>
       <c r="C4894" t="inlineStr">
@@ -83572,7 +83572,7 @@
       </c>
       <c r="B4895" t="inlineStr">
         <is>
-          <t>普林姆索尔</t>
+          <t>普利姆索尔</t>
         </is>
       </c>
       <c r="C4895" t="inlineStr">
@@ -83742,7 +83742,7 @@
       </c>
       <c r="B4905" t="inlineStr">
         <is>
-          <t>派因加</t>
+          <t>帕因加</t>
         </is>
       </c>
       <c r="C4905" t="inlineStr">
@@ -83827,7 +83827,7 @@
       </c>
       <c r="B4910" t="inlineStr">
         <is>
-          <t>普柳</t>
+          <t>普卢</t>
         </is>
       </c>
       <c r="C4910" t="inlineStr">
@@ -83861,7 +83861,7 @@
       </c>
       <c r="B4912" t="inlineStr">
         <is>
-          <t>阿奇顿</t>
+          <t>阿吉顿</t>
         </is>
       </c>
       <c r="C4912" t="inlineStr">
@@ -83878,7 +83878,7 @@
       </c>
       <c r="B4913" t="inlineStr">
         <is>
-          <t>阿塞希尔</t>
+          <t>阿萨谢尔</t>
         </is>
       </c>
       <c r="C4913" t="inlineStr">
@@ -83980,7 +83980,7 @@
       </c>
       <c r="B4919" t="inlineStr">
         <is>
-          <t>斯塔普尔斯</t>
+          <t>斯特普尔斯</t>
         </is>
       </c>
       <c r="C4919" t="inlineStr">
@@ -84065,7 +84065,7 @@
       </c>
       <c r="B4924" t="inlineStr">
         <is>
-          <t>冈斯</t>
+          <t>贡斯</t>
         </is>
       </c>
       <c r="C4924" t="inlineStr">
@@ -84082,7 +84082,7 @@
       </c>
       <c r="B4925" t="inlineStr">
         <is>
-          <t>伊利娅</t>
+          <t>伊利亚</t>
         </is>
       </c>
       <c r="C4925" t="inlineStr">
@@ -84116,7 +84116,7 @@
       </c>
       <c r="B4927" t="inlineStr">
         <is>
-          <t>兰根贝格</t>
+          <t>兰根伯格</t>
         </is>
       </c>
       <c r="C4927" t="inlineStr">
@@ -84167,7 +84167,7 @@
       </c>
       <c r="B4930" t="inlineStr">
         <is>
-          <t>马焦尔</t>
+          <t>马乔尔</t>
         </is>
       </c>
       <c r="C4930" t="inlineStr">
@@ -84371,7 +84371,7 @@
       </c>
       <c r="B4942" t="inlineStr">
         <is>
-          <t>斯斯泰尔</t>
+          <t>塞斯泰尔</t>
         </is>
       </c>
       <c r="C4942" t="inlineStr">
@@ -84405,7 +84405,7 @@
       </c>
       <c r="B4944" t="inlineStr">
         <is>
-          <t>科梅吉斯</t>
+          <t>科米吉斯</t>
         </is>
       </c>
       <c r="C4944" t="inlineStr">
@@ -84490,7 +84490,7 @@
       </c>
       <c r="B4949" t="inlineStr">
         <is>
-          <t>西奥纳德</t>
+          <t>索昂纳德</t>
         </is>
       </c>
       <c r="C4949" t="inlineStr">
@@ -84507,7 +84507,7 @@
       </c>
       <c r="B4950" t="inlineStr">
         <is>
-          <t>巴尔廷</t>
+          <t>鲍尔廷</t>
         </is>
       </c>
       <c r="C4950" t="inlineStr">
@@ -84541,7 +84541,7 @@
       </c>
       <c r="B4952" t="inlineStr">
         <is>
-          <t>伯勒尔</t>
+          <t>伯拉尔</t>
         </is>
       </c>
       <c r="C4952" t="inlineStr">
@@ -84677,7 +84677,7 @@
       </c>
       <c r="B4960" t="inlineStr">
         <is>
-          <t>森特</t>
+          <t>萨姆特</t>
         </is>
       </c>
       <c r="C4960" t="inlineStr">
@@ -84779,7 +84779,7 @@
       </c>
       <c r="B4966" t="inlineStr">
         <is>
-          <t>撒尔曼</t>
+          <t>苏尔曼</t>
         </is>
       </c>
       <c r="C4966" t="inlineStr">
@@ -85068,7 +85068,7 @@
       </c>
       <c r="B4983" t="inlineStr">
         <is>
-          <t>利尼恩</t>
+          <t>莱尼汉</t>
         </is>
       </c>
       <c r="C4983" t="inlineStr">
@@ -85119,7 +85119,7 @@
       </c>
       <c r="B4986" t="inlineStr">
         <is>
-          <t>莫兰</t>
+          <t>穆兰</t>
         </is>
       </c>
       <c r="C4986" t="inlineStr">
@@ -85204,7 +85204,7 @@
       </c>
       <c r="B4991" t="inlineStr">
         <is>
-          <t>齐格拉</t>
+          <t>齐格勒</t>
         </is>
       </c>
       <c r="C4991" t="inlineStr">
@@ -85238,7 +85238,7 @@
       </c>
       <c r="B4993" t="inlineStr">
         <is>
-          <t>库尔瑟德</t>
+          <t>库尔撒德</t>
         </is>
       </c>
       <c r="C4993" t="inlineStr">
@@ -85510,7 +85510,7 @@
       </c>
       <c r="B5009" t="inlineStr">
         <is>
-          <t>格布尔曼</t>
+          <t>盖布尔曼</t>
         </is>
       </c>
       <c r="C5009" t="inlineStr">
@@ -85527,7 +85527,7 @@
       </c>
       <c r="B5010" t="inlineStr">
         <is>
-          <t>里尼尔</t>
+          <t>赖尼尔</t>
         </is>
       </c>
       <c r="C5010" t="inlineStr">
@@ -85561,7 +85561,7 @@
       </c>
       <c r="B5012" t="inlineStr">
         <is>
-          <t>惠拉姆</t>
+          <t>沃拉姆</t>
         </is>
       </c>
       <c r="C5012" t="inlineStr">
@@ -85595,7 +85595,7 @@
       </c>
       <c r="B5014" t="inlineStr">
         <is>
-          <t>贝加姆</t>
+          <t>贝格姆</t>
         </is>
       </c>
       <c r="C5014" t="inlineStr">
@@ -85629,7 +85629,7 @@
       </c>
       <c r="B5016" t="inlineStr">
         <is>
-          <t>卡里翁</t>
+          <t>卡里恩</t>
         </is>
       </c>
       <c r="C5016" t="inlineStr">
@@ -85748,7 +85748,7 @@
       </c>
       <c r="B5023" t="inlineStr">
         <is>
-          <t>洛妮</t>
+          <t>洛尼</t>
         </is>
       </c>
       <c r="C5023" t="inlineStr">
@@ -85765,7 +85765,7 @@
       </c>
       <c r="B5024" t="inlineStr">
         <is>
-          <t>卡德斯登</t>
+          <t>卡迪斯登</t>
         </is>
       </c>
       <c r="C5024" t="inlineStr">
@@ -85799,7 +85799,7 @@
       </c>
       <c r="B5026" t="inlineStr">
         <is>
-          <t>布罗赖因</t>
+          <t>布罗兰</t>
         </is>
       </c>
       <c r="C5026" t="inlineStr">
@@ -85850,7 +85850,7 @@
       </c>
       <c r="B5029" t="inlineStr">
         <is>
-          <t>达维勒</t>
+          <t>达韦勒</t>
         </is>
       </c>
       <c r="C5029" t="inlineStr">
@@ -86037,7 +86037,7 @@
       </c>
       <c r="B5040" t="inlineStr">
         <is>
-          <t>韦尔斯比</t>
+          <t>威尔斯比</t>
         </is>
       </c>
       <c r="C5040" t="inlineStr">
@@ -86275,7 +86275,7 @@
       </c>
       <c r="B5054" t="inlineStr">
         <is>
-          <t>拉纳德</t>
+          <t>拉纳尔德</t>
         </is>
       </c>
       <c r="C5054" t="inlineStr">
@@ -86411,7 +86411,7 @@
       </c>
       <c r="B5062" t="inlineStr">
         <is>
-          <t>吉诺夫斯</t>
+          <t>吉诺维斯</t>
         </is>
       </c>
       <c r="C5062" t="inlineStr">
@@ -86479,7 +86479,7 @@
       </c>
       <c r="B5066" t="inlineStr">
         <is>
-          <t>罗尔费斯</t>
+          <t>罗尔夫斯</t>
         </is>
       </c>
       <c r="C5066" t="inlineStr">
@@ -86530,7 +86530,7 @@
       </c>
       <c r="B5069" t="inlineStr">
         <is>
-          <t>蒂布利尔</t>
+          <t>蒂布利耶</t>
         </is>
       </c>
       <c r="C5069" t="inlineStr">
@@ -86649,7 +86649,7 @@
       </c>
       <c r="B5076" t="inlineStr">
         <is>
-          <t>福斯凯特</t>
+          <t>福斯克特</t>
         </is>
       </c>
       <c r="C5076" t="inlineStr">
@@ -86717,7 +86717,7 @@
       </c>
       <c r="B5080" t="inlineStr">
         <is>
-          <t>迈西尔斯基</t>
+          <t>米切尔斯基</t>
         </is>
       </c>
       <c r="C5080" t="inlineStr">
@@ -86785,7 +86785,7 @@
       </c>
       <c r="B5084" t="inlineStr">
         <is>
-          <t>德迈耶</t>
+          <t>德梅耶</t>
         </is>
       </c>
       <c r="C5084" t="inlineStr">
@@ -86836,7 +86836,7 @@
       </c>
       <c r="B5087" t="inlineStr">
         <is>
-          <t>德尔菲斯</t>
+          <t>德尔夫斯</t>
         </is>
       </c>
       <c r="C5087" t="inlineStr">
@@ -86887,7 +86887,7 @@
       </c>
       <c r="B5090" t="inlineStr">
         <is>
-          <t>切凯尔</t>
+          <t>塞西尔</t>
         </is>
       </c>
       <c r="C5090" t="inlineStr">
@@ -87074,7 +87074,7 @@
       </c>
       <c r="B5101" t="inlineStr">
         <is>
-          <t>瓦贡纳</t>
+          <t>瓦根纳</t>
         </is>
       </c>
       <c r="C5101" t="inlineStr">
@@ -87176,7 +87176,7 @@
       </c>
       <c r="B5107" t="inlineStr">
         <is>
-          <t>廷肯</t>
+          <t>廷金</t>
         </is>
       </c>
       <c r="C5107" t="inlineStr">
@@ -87210,7 +87210,7 @@
       </c>
       <c r="B5109" t="inlineStr">
         <is>
-          <t>平乔特</t>
+          <t>平肖特</t>
         </is>
       </c>
       <c r="C5109" t="inlineStr">
@@ -87227,7 +87227,7 @@
       </c>
       <c r="B5110" t="inlineStr">
         <is>
-          <t>佩特森</t>
+          <t>帕特森</t>
         </is>
       </c>
       <c r="C5110" t="inlineStr">
@@ -87754,7 +87754,7 @@
       </c>
       <c r="B5141" t="inlineStr">
         <is>
-          <t>斯特拉西恩</t>
+          <t>斯特拉撒恩</t>
         </is>
       </c>
       <c r="C5141" t="inlineStr">
@@ -87805,7 +87805,7 @@
       </c>
       <c r="B5144" t="inlineStr">
         <is>
-          <t>赫伦</t>
+          <t>希伦</t>
         </is>
       </c>
       <c r="C5144" t="inlineStr">
@@ -88009,7 +88009,7 @@
       </c>
       <c r="B5156" t="inlineStr">
         <is>
-          <t>普雷</t>
+          <t>普赖</t>
         </is>
       </c>
       <c r="C5156" t="inlineStr">
@@ -88060,7 +88060,7 @@
       </c>
       <c r="B5159" t="inlineStr">
         <is>
-          <t>特夫林</t>
+          <t>蒂夫林</t>
         </is>
       </c>
       <c r="C5159" t="inlineStr">
@@ -88128,7 +88128,7 @@
       </c>
       <c r="B5163" t="inlineStr">
         <is>
-          <t>沙巴特</t>
+          <t>夏伯特</t>
         </is>
       </c>
       <c r="C5163" t="inlineStr">
@@ -88179,7 +88179,7 @@
       </c>
       <c r="B5166" t="inlineStr">
         <is>
-          <t>霍夫曼</t>
+          <t>赫夫曼</t>
         </is>
       </c>
       <c r="C5166" t="inlineStr">
@@ -88196,7 +88196,7 @@
       </c>
       <c r="B5167" t="inlineStr">
         <is>
-          <t>阿纳尼奥普洛斯</t>
+          <t>阿纳尼奥斯托斯</t>
         </is>
       </c>
       <c r="C5167" t="inlineStr">
@@ -88213,7 +88213,7 @@
       </c>
       <c r="B5168" t="inlineStr">
         <is>
-          <t>丘罗</t>
+          <t>库罗</t>
         </is>
       </c>
       <c r="C5168" t="inlineStr">
@@ -88366,7 +88366,7 @@
       </c>
       <c r="B5177" t="inlineStr">
         <is>
-          <t>比安奇</t>
+          <t>比安基</t>
         </is>
       </c>
       <c r="C5177" t="inlineStr">
@@ -88825,7 +88825,7 @@
       </c>
       <c r="B5204" t="inlineStr">
         <is>
-          <t>朱利安</t>
+          <t>朱利恩</t>
         </is>
       </c>
       <c r="C5204" t="inlineStr">
@@ -89114,7 +89114,7 @@
       </c>
       <c r="B5221" t="inlineStr">
         <is>
-          <t>马克尤因</t>
+          <t>麦克尤恩</t>
         </is>
       </c>
       <c r="C5221" t="inlineStr">
@@ -89233,7 +89233,7 @@
       </c>
       <c r="B5228" t="inlineStr">
         <is>
-          <t>许特纳</t>
+          <t>休特纳</t>
         </is>
       </c>
       <c r="C5228" t="inlineStr">
@@ -89369,7 +89369,7 @@
       </c>
       <c r="B5236" t="inlineStr">
         <is>
-          <t>维尼奥尔斯</t>
+          <t>维格奥尔斯</t>
         </is>
       </c>
       <c r="C5236" t="inlineStr">
@@ -89471,7 +89471,7 @@
       </c>
       <c r="B5242" t="inlineStr">
         <is>
-          <t>英沃尔德塔德</t>
+          <t>英沃尔兹塔德</t>
         </is>
       </c>
       <c r="C5242" t="inlineStr">
@@ -89539,7 +89539,7 @@
       </c>
       <c r="B5246" t="inlineStr">
         <is>
-          <t>特罗伊</t>
+          <t>特罗亚</t>
         </is>
       </c>
       <c r="C5246" t="inlineStr">
@@ -89556,7 +89556,7 @@
       </c>
       <c r="B5247" t="inlineStr">
         <is>
-          <t>约</t>
+          <t>约赫</t>
         </is>
       </c>
       <c r="C5247" t="inlineStr">
@@ -89709,7 +89709,7 @@
       </c>
       <c r="B5256" t="inlineStr">
         <is>
-          <t>库尔吉恩</t>
+          <t>库尔吉安</t>
         </is>
       </c>
       <c r="C5256" t="inlineStr">
@@ -89760,7 +89760,7 @@
       </c>
       <c r="B5259" t="inlineStr">
         <is>
-          <t>奥泰普卡</t>
+          <t>奥特普卡</t>
         </is>
       </c>
       <c r="C5259" t="inlineStr">
@@ -89794,7 +89794,7 @@
       </c>
       <c r="B5261" t="inlineStr">
         <is>
-          <t>莱齐尔</t>
+          <t>拉齐尔</t>
         </is>
       </c>
       <c r="C5261" t="inlineStr">
@@ -89879,7 +89879,7 @@
       </c>
       <c r="B5266" t="inlineStr">
         <is>
-          <t>苏尔曼</t>
+          <t>萨尔曼</t>
         </is>
       </c>
       <c r="C5266" t="inlineStr">
@@ -89964,7 +89964,7 @@
       </c>
       <c r="B5271" t="inlineStr">
         <is>
-          <t>斯蒂格尔</t>
+          <t>斯特格尔</t>
         </is>
       </c>
       <c r="C5271" t="inlineStr">
@@ -90134,7 +90134,7 @@
       </c>
       <c r="B5281" t="inlineStr">
         <is>
-          <t>菲塞罗伊</t>
+          <t>菲斯罗伊</t>
         </is>
       </c>
       <c r="C5281" t="inlineStr">
@@ -90321,7 +90321,7 @@
       </c>
       <c r="B5292" t="inlineStr">
         <is>
-          <t>霍克</t>
+          <t>赫克</t>
         </is>
       </c>
       <c r="C5292" t="inlineStr">
@@ -90338,7 +90338,7 @@
       </c>
       <c r="B5293" t="inlineStr">
         <is>
-          <t>西罗基</t>
+          <t>西罗茨基</t>
         </is>
       </c>
       <c r="C5293" t="inlineStr">
@@ -90389,7 +90389,7 @@
       </c>
       <c r="B5296" t="inlineStr">
         <is>
-          <t>贝利厄</t>
+          <t>贝利尤</t>
         </is>
       </c>
       <c r="C5296" t="inlineStr">
@@ -90440,7 +90440,7 @@
       </c>
       <c r="B5299" t="inlineStr">
         <is>
-          <t>阿伯恩</t>
+          <t>阿本</t>
         </is>
       </c>
       <c r="C5299" t="inlineStr">
@@ -90559,7 +90559,7 @@
       </c>
       <c r="B5306" t="inlineStr">
         <is>
-          <t>阿尔方奇</t>
+          <t>阿方丹奇</t>
         </is>
       </c>
       <c r="C5306" t="inlineStr">
@@ -90780,7 +90780,7 @@
       </c>
       <c r="B5319" t="inlineStr">
         <is>
-          <t>赛德纳姆</t>
+          <t>西德纳姆</t>
         </is>
       </c>
       <c r="C5319" t="inlineStr">
@@ -90814,7 +90814,7 @@
       </c>
       <c r="B5321" t="inlineStr">
         <is>
-          <t>吉拉特</t>
+          <t>格拉特</t>
         </is>
       </c>
       <c r="C5321" t="inlineStr">
@@ -90848,7 +90848,7 @@
       </c>
       <c r="B5323" t="inlineStr">
         <is>
-          <t>普</t>
+          <t>普尤</t>
         </is>
       </c>
       <c r="C5323" t="inlineStr">
@@ -90882,7 +90882,7 @@
       </c>
       <c r="B5325" t="inlineStr">
         <is>
-          <t>弗莱卡斯</t>
+          <t>弗利亚卡斯</t>
         </is>
       </c>
       <c r="C5325" t="inlineStr">
@@ -91120,7 +91120,7 @@
       </c>
       <c r="B5339" t="inlineStr">
         <is>
-          <t>哈辛</t>
+          <t>哈青</t>
         </is>
       </c>
       <c r="C5339" t="inlineStr">
@@ -91205,7 +91205,7 @@
       </c>
       <c r="B5344" t="inlineStr">
         <is>
-          <t>吉尔里</t>
+          <t>吉里</t>
         </is>
       </c>
       <c r="C5344" t="inlineStr">
@@ -91511,7 +91511,7 @@
       </c>
       <c r="B5362" t="inlineStr">
         <is>
-          <t>巴什</t>
+          <t>巴奇</t>
         </is>
       </c>
       <c r="C5362" t="inlineStr">
@@ -91545,7 +91545,7 @@
       </c>
       <c r="B5364" t="inlineStr">
         <is>
-          <t>弗兰岑</t>
+          <t>弗兰宗</t>
         </is>
       </c>
       <c r="C5364" t="inlineStr">
@@ -91596,7 +91596,7 @@
       </c>
       <c r="B5367" t="inlineStr">
         <is>
-          <t>帕罗</t>
+          <t>帕罗特</t>
         </is>
       </c>
       <c r="C5367" t="inlineStr">
@@ -91613,7 +91613,7 @@
       </c>
       <c r="B5368" t="inlineStr">
         <is>
-          <t>达尔格利什</t>
+          <t>多格利什</t>
         </is>
       </c>
       <c r="C5368" t="inlineStr">
@@ -91698,7 +91698,7 @@
       </c>
       <c r="B5373" t="inlineStr">
         <is>
-          <t>厄哈特</t>
+          <t>埃尔哈特</t>
         </is>
       </c>
       <c r="C5373" t="inlineStr">
@@ -92038,7 +92038,7 @@
       </c>
       <c r="B5393" t="inlineStr">
         <is>
-          <t>杰沃尔斯</t>
+          <t>杰沃克斯</t>
         </is>
       </c>
       <c r="C5393" t="inlineStr">
@@ -92089,7 +92089,7 @@
       </c>
       <c r="B5396" t="inlineStr">
         <is>
-          <t>库普西内</t>
+          <t>库普西内特</t>
         </is>
       </c>
       <c r="C5396" t="inlineStr">
@@ -92123,7 +92123,7 @@
       </c>
       <c r="B5398" t="inlineStr">
         <is>
-          <t>苏珊娅</t>
+          <t>苏萨娅</t>
         </is>
       </c>
       <c r="C5398" t="inlineStr">
@@ -92395,7 +92395,7 @@
       </c>
       <c r="B5414" t="inlineStr">
         <is>
-          <t>阿塔克斯</t>
+          <t>阿特克斯</t>
         </is>
       </c>
       <c r="C5414" t="inlineStr">
@@ -92497,7 +92497,7 @@
       </c>
       <c r="B5420" t="inlineStr">
         <is>
-          <t>马霍蒂埃</t>
+          <t>马奥蒂埃</t>
         </is>
       </c>
       <c r="C5420" t="inlineStr">
@@ -92548,7 +92548,7 @@
       </c>
       <c r="B5423" t="inlineStr">
         <is>
-          <t>荣</t>
+          <t>尔荣</t>
         </is>
       </c>
       <c r="C5423" t="inlineStr">
@@ -92667,7 +92667,7 @@
       </c>
       <c r="B5430" t="inlineStr">
         <is>
-          <t>弗利</t>
+          <t>弗莱</t>
         </is>
       </c>
       <c r="C5430" t="inlineStr">
@@ -92769,7 +92769,7 @@
       </c>
       <c r="B5436" t="inlineStr">
         <is>
-          <t>斯特普斯</t>
+          <t>斯泰普斯</t>
         </is>
       </c>
       <c r="C5436" t="inlineStr">
@@ -92786,7 +92786,7 @@
       </c>
       <c r="B5437" t="inlineStr">
         <is>
-          <t>麦詹姆斯</t>
+          <t>麦克詹姆斯</t>
         </is>
       </c>
       <c r="C5437" t="inlineStr">
@@ -92854,7 +92854,7 @@
       </c>
       <c r="B5441" t="inlineStr">
         <is>
-          <t>惠克克</t>
+          <t>惠奇克</t>
         </is>
       </c>
       <c r="C5441" t="inlineStr">
@@ -92871,7 +92871,7 @@
       </c>
       <c r="B5442" t="inlineStr">
         <is>
-          <t>加伦森</t>
+          <t>盖伦森</t>
         </is>
       </c>
       <c r="C5442" t="inlineStr">
@@ -93024,7 +93024,7 @@
       </c>
       <c r="B5451" t="inlineStr">
         <is>
-          <t>克里米恩</t>
+          <t>克里明</t>
         </is>
       </c>
       <c r="C5451" t="inlineStr">
@@ -93126,7 +93126,7 @@
       </c>
       <c r="B5457" t="inlineStr">
         <is>
-          <t>海厄姆</t>
+          <t>海格姆</t>
         </is>
       </c>
       <c r="C5457" t="inlineStr">
@@ -93177,7 +93177,7 @@
       </c>
       <c r="B5460" t="inlineStr">
         <is>
-          <t>约格</t>
+          <t>尤格</t>
         </is>
       </c>
       <c r="C5460" t="inlineStr">
@@ -93211,7 +93211,7 @@
       </c>
       <c r="B5462" t="inlineStr">
         <is>
-          <t>萨布里娜</t>
+          <t>萨布里纳</t>
         </is>
       </c>
       <c r="C5462" t="inlineStr">
@@ -93313,7 +93313,7 @@
       </c>
       <c r="B5468" t="inlineStr">
         <is>
-          <t>赫钦格</t>
+          <t>赫琴格</t>
         </is>
       </c>
       <c r="C5468" t="inlineStr">
@@ -93398,7 +93398,7 @@
       </c>
       <c r="B5473" t="inlineStr">
         <is>
-          <t>斯塔滕贝格</t>
+          <t>斯塔滕伯格</t>
         </is>
       </c>
       <c r="C5473" t="inlineStr">
@@ -93432,7 +93432,7 @@
       </c>
       <c r="B5475" t="inlineStr">
         <is>
-          <t>菲奥尼娅</t>
+          <t>菲奥尼亚</t>
         </is>
       </c>
       <c r="C5475" t="inlineStr">
@@ -93466,7 +93466,7 @@
       </c>
       <c r="B5477" t="inlineStr">
         <is>
-          <t>柯克莱温顿</t>
+          <t>柯克尔温顿</t>
         </is>
       </c>
       <c r="C5477" t="inlineStr">
@@ -93500,7 +93500,7 @@
       </c>
       <c r="B5479" t="inlineStr">
         <is>
-          <t>麦克兰</t>
+          <t>麦克莱恩</t>
         </is>
       </c>
       <c r="C5479" t="inlineStr">
@@ -93602,7 +93602,7 @@
       </c>
       <c r="B5485" t="inlineStr">
         <is>
-          <t>赫伯斯特里特</t>
+          <t>赫贝斯特赖特</t>
         </is>
       </c>
       <c r="C5485" t="inlineStr">
@@ -93806,7 +93806,7 @@
       </c>
       <c r="B5497" t="inlineStr">
         <is>
-          <t>格尔德赫</t>
+          <t>格尔德马赫</t>
         </is>
       </c>
       <c r="C5497" t="inlineStr">
@@ -93823,7 +93823,7 @@
       </c>
       <c r="B5498" t="inlineStr">
         <is>
-          <t>科达</t>
+          <t>科达达</t>
         </is>
       </c>
       <c r="C5498" t="inlineStr">
@@ -93840,7 +93840,7 @@
       </c>
       <c r="B5499" t="inlineStr">
         <is>
-          <t>阿利盖尼</t>
+          <t>阿利格尼</t>
         </is>
       </c>
       <c r="C5499" t="inlineStr">
@@ -93925,7 +93925,7 @@
       </c>
       <c r="B5504" t="inlineStr">
         <is>
-          <t>莫奇利</t>
+          <t>穆奇利</t>
         </is>
       </c>
       <c r="C5504" t="inlineStr">
@@ -93993,7 +93993,7 @@
       </c>
       <c r="B5508" t="inlineStr">
         <is>
-          <t>塞尼尔</t>
+          <t>塞尼奥</t>
         </is>
       </c>
       <c r="C5508" t="inlineStr">
@@ -94010,7 +94010,7 @@
       </c>
       <c r="B5509" t="inlineStr">
         <is>
-          <t>艾冯</t>
+          <t>艾冯娜</t>
         </is>
       </c>
       <c r="C5509" t="inlineStr">
@@ -94299,7 +94299,7 @@
       </c>
       <c r="B5526" t="inlineStr">
         <is>
-          <t>赫斯特德</t>
+          <t>赫斯蒂德</t>
         </is>
       </c>
       <c r="C5526" t="inlineStr">
@@ -94316,7 +94316,7 @@
       </c>
       <c r="B5527" t="inlineStr">
         <is>
-          <t>阿利奥托</t>
+          <t>阿约奥托</t>
         </is>
       </c>
       <c r="C5527" t="inlineStr">
@@ -94367,7 +94367,7 @@
       </c>
       <c r="B5530" t="inlineStr">
         <is>
-          <t>斯图尔茨</t>
+          <t>斯塔尔茨</t>
         </is>
       </c>
       <c r="C5530" t="inlineStr">
@@ -94435,7 +94435,7 @@
       </c>
       <c r="B5534" t="inlineStr">
         <is>
-          <t>拜厄尔</t>
+          <t>拜约尔</t>
         </is>
       </c>
       <c r="C5534" t="inlineStr">
@@ -94520,7 +94520,7 @@
       </c>
       <c r="B5539" t="inlineStr">
         <is>
-          <t>阿巴斯特尼娅</t>
+          <t>阿巴斯坦尼亚</t>
         </is>
       </c>
       <c r="C5539" t="inlineStr">
@@ -94605,7 +94605,7 @@
       </c>
       <c r="B5544" t="inlineStr">
         <is>
-          <t>巴斯</t>
+          <t>巴尔斯</t>
         </is>
       </c>
       <c r="C5544" t="inlineStr">
@@ -94639,7 +94639,7 @@
       </c>
       <c r="B5546" t="inlineStr">
         <is>
-          <t>埃德威纳</t>
+          <t>埃德威娜</t>
         </is>
       </c>
       <c r="C5546" t="inlineStr">
@@ -94928,7 +94928,7 @@
       </c>
       <c r="B5563" t="inlineStr">
         <is>
-          <t>埃斯彭沙德</t>
+          <t>埃斯彭谢德</t>
         </is>
       </c>
       <c r="C5563" t="inlineStr">
@@ -94945,7 +94945,7 @@
       </c>
       <c r="B5564" t="inlineStr">
         <is>
-          <t>舍恩菲尔德</t>
+          <t>斯恩菲尔德</t>
         </is>
       </c>
       <c r="C5564" t="inlineStr">
@@ -94996,7 +94996,7 @@
       </c>
       <c r="B5567" t="inlineStr">
         <is>
-          <t>赫伊尔</t>
+          <t>赫希尔</t>
         </is>
       </c>
       <c r="C5567" t="inlineStr">
@@ -95234,7 +95234,7 @@
       </c>
       <c r="B5581" t="inlineStr">
         <is>
-          <t>法伦瓦尔德</t>
+          <t>法伦沃尔德</t>
         </is>
       </c>
       <c r="C5581" t="inlineStr">
@@ -95319,7 +95319,7 @@
       </c>
       <c r="B5586" t="inlineStr">
         <is>
-          <t>冈萨尔</t>
+          <t>冈苏尔</t>
         </is>
       </c>
       <c r="C5586" t="inlineStr">
@@ -95387,7 +95387,7 @@
       </c>
       <c r="B5590" t="inlineStr">
         <is>
-          <t>唐奈尔</t>
+          <t>唐内尔</t>
         </is>
       </c>
       <c r="C5590" t="inlineStr">
@@ -95506,7 +95506,7 @@
       </c>
       <c r="B5597" t="inlineStr">
         <is>
-          <t>麦查菲</t>
+          <t>麦查哈菲</t>
         </is>
       </c>
       <c r="C5597" t="inlineStr">
@@ -95608,7 +95608,7 @@
       </c>
       <c r="B5603" t="inlineStr">
         <is>
-          <t>因塞思</t>
+          <t>因德丝</t>
         </is>
       </c>
       <c r="C5603" t="inlineStr">
@@ -95795,7 +95795,7 @@
       </c>
       <c r="B5614" t="inlineStr">
         <is>
-          <t>帕卡尔</t>
+          <t>帕克查</t>
         </is>
       </c>
       <c r="C5614" t="inlineStr">
@@ -95829,7 +95829,7 @@
       </c>
       <c r="B5616" t="inlineStr">
         <is>
-          <t>加德妮娅</t>
+          <t>加德尼亚</t>
         </is>
       </c>
       <c r="C5616" t="inlineStr">
@@ -95846,7 +95846,7 @@
       </c>
       <c r="B5617" t="inlineStr">
         <is>
-          <t>博莱恩</t>
+          <t>博林</t>
         </is>
       </c>
       <c r="C5617" t="inlineStr">
@@ -95948,7 +95948,7 @@
       </c>
       <c r="B5623" t="inlineStr">
         <is>
-          <t>克莱瑟罗</t>
+          <t>克利瑟罗</t>
         </is>
       </c>
       <c r="C5623" t="inlineStr">
@@ -95965,7 +95965,7 @@
       </c>
       <c r="B5624" t="inlineStr">
         <is>
-          <t>马科</t>
+          <t>麦科</t>
         </is>
       </c>
       <c r="C5624" t="inlineStr">
@@ -95999,7 +95999,7 @@
       </c>
       <c r="B5626" t="inlineStr">
         <is>
-          <t>奥雷姆兰</t>
+          <t>奥里姆兰</t>
         </is>
       </c>
       <c r="C5626" t="inlineStr">
@@ -96016,7 +96016,7 @@
       </c>
       <c r="B5627" t="inlineStr">
         <is>
-          <t>齐姆巴</t>
+          <t>齐巴</t>
         </is>
       </c>
       <c r="C5627" t="inlineStr">
@@ -96033,7 +96033,7 @@
       </c>
       <c r="B5628" t="inlineStr">
         <is>
-          <t>法滕</t>
+          <t>费滕</t>
         </is>
       </c>
       <c r="C5628" t="inlineStr">
@@ -96101,7 +96101,7 @@
       </c>
       <c r="B5632" t="inlineStr">
         <is>
-          <t>桑威尔</t>
+          <t>索恩维尔</t>
         </is>
       </c>
       <c r="C5632" t="inlineStr">
@@ -96118,7 +96118,7 @@
       </c>
       <c r="B5633" t="inlineStr">
         <is>
-          <t>斯凯尔思</t>
+          <t>斯凯威思</t>
         </is>
       </c>
       <c r="C5633" t="inlineStr">
@@ -96152,7 +96152,7 @@
       </c>
       <c r="B5635" t="inlineStr">
         <is>
-          <t>德谢泽</t>
+          <t>德沙齐尔</t>
         </is>
       </c>
       <c r="C5635" t="inlineStr">
@@ -96424,7 +96424,7 @@
       </c>
       <c r="B5651" t="inlineStr">
         <is>
-          <t>雷纳德</t>
+          <t>雷纳尔德</t>
         </is>
       </c>
       <c r="C5651" t="inlineStr">
@@ -96441,7 +96441,7 @@
       </c>
       <c r="B5652" t="inlineStr">
         <is>
-          <t>迪雷特</t>
+          <t>杜里特</t>
         </is>
       </c>
       <c r="C5652" t="inlineStr">
@@ -96611,7 +96611,7 @@
       </c>
       <c r="B5662" t="inlineStr">
         <is>
-          <t>拉肯迈尔</t>
+          <t>拉肯米尔</t>
         </is>
       </c>
       <c r="C5662" t="inlineStr">
@@ -96730,7 +96730,7 @@
       </c>
       <c r="B5669" t="inlineStr">
         <is>
-          <t>努特森</t>
+          <t>纳特森</t>
         </is>
       </c>
       <c r="C5669" t="inlineStr">
@@ -96900,7 +96900,7 @@
       </c>
       <c r="B5679" t="inlineStr">
         <is>
-          <t>里宾</t>
+          <t>里班</t>
         </is>
       </c>
       <c r="C5679" t="inlineStr">
@@ -96985,7 +96985,7 @@
       </c>
       <c r="B5684" t="inlineStr">
         <is>
-          <t>马格比</t>
+          <t>玛格比</t>
         </is>
       </c>
       <c r="C5684" t="inlineStr">
@@ -97121,7 +97121,7 @@
       </c>
       <c r="B5692" t="inlineStr">
         <is>
-          <t>德雷森弗</t>
+          <t>德雷森多弗</t>
         </is>
       </c>
       <c r="C5692" t="inlineStr">
@@ -97155,7 +97155,7 @@
       </c>
       <c r="B5694" t="inlineStr">
         <is>
-          <t>瓦斯基斯</t>
+          <t>瓦斯克斯</t>
         </is>
       </c>
       <c r="C5694" t="inlineStr">
@@ -97223,7 +97223,7 @@
       </c>
       <c r="B5698" t="inlineStr">
         <is>
-          <t>亨德施</t>
+          <t>亨特</t>
         </is>
       </c>
       <c r="C5698" t="inlineStr">
@@ -97308,7 +97308,7 @@
       </c>
       <c r="B5703" t="inlineStr">
         <is>
-          <t>法尔斯坦</t>
+          <t>费尔斯坦</t>
         </is>
       </c>
       <c r="C5703" t="inlineStr">
@@ -97393,7 +97393,7 @@
       </c>
       <c r="B5708" t="inlineStr">
         <is>
-          <t>杜尔雷</t>
+          <t>迪埃尔</t>
         </is>
       </c>
       <c r="C5708" t="inlineStr">
@@ -97427,7 +97427,7 @@
       </c>
       <c r="B5710" t="inlineStr">
         <is>
-          <t>沃德里普</t>
+          <t>沃德雷普</t>
         </is>
       </c>
       <c r="C5710" t="inlineStr">
@@ -97665,7 +97665,7 @@
       </c>
       <c r="B5724" t="inlineStr">
         <is>
-          <t>阿尼林</t>
+          <t>阿内林</t>
         </is>
       </c>
       <c r="C5724" t="inlineStr">
@@ -97682,7 +97682,7 @@
       </c>
       <c r="B5725" t="inlineStr">
         <is>
-          <t>普恩德</t>
+          <t>普德</t>
         </is>
       </c>
       <c r="C5725" t="inlineStr">
@@ -97733,7 +97733,7 @@
       </c>
       <c r="B5728" t="inlineStr">
         <is>
-          <t>伦诺尔</t>
+          <t>勒诺瓦</t>
         </is>
       </c>
       <c r="C5728" t="inlineStr">
@@ -97835,7 +97835,7 @@
       </c>
       <c r="B5734" t="inlineStr">
         <is>
-          <t>梅延斯因</t>
+          <t>梅琴沙因</t>
         </is>
       </c>
       <c r="C5734" t="inlineStr">
@@ -98039,7 +98039,7 @@
       </c>
       <c r="B5746" t="inlineStr">
         <is>
-          <t>鲍德斯通</t>
+          <t>巴尔斯通</t>
         </is>
       </c>
       <c r="C5746" t="inlineStr">
@@ -98243,7 +98243,7 @@
       </c>
       <c r="B5758" t="inlineStr">
         <is>
-          <t>琼安妮斯</t>
+          <t>琼安斯</t>
         </is>
       </c>
       <c r="C5758" t="inlineStr">
@@ -98328,7 +98328,7 @@
       </c>
       <c r="B5763" t="inlineStr">
         <is>
-          <t>米克勒雷德</t>
+          <t>米克尔赖德</t>
         </is>
       </c>
       <c r="C5763" t="inlineStr">
@@ -98498,7 +98498,7 @@
       </c>
       <c r="B5773" t="inlineStr">
         <is>
-          <t>森兹</t>
+          <t>桑兹</t>
         </is>
       </c>
       <c r="C5773" t="inlineStr">
@@ -98515,7 +98515,7 @@
       </c>
       <c r="B5774" t="inlineStr">
         <is>
-          <t>瓜纳谢利</t>
+          <t>格纳纳谢利</t>
         </is>
       </c>
       <c r="C5774" t="inlineStr">
@@ -98532,7 +98532,7 @@
       </c>
       <c r="B5775" t="inlineStr">
         <is>
-          <t>拉希</t>
+          <t>拉施</t>
         </is>
       </c>
       <c r="C5775" t="inlineStr">
@@ -98634,7 +98634,7 @@
       </c>
       <c r="B5781" t="inlineStr">
         <is>
-          <t>塞耶</t>
+          <t>塞尔</t>
         </is>
       </c>
       <c r="C5781" t="inlineStr">
@@ -98753,7 +98753,7 @@
       </c>
       <c r="B5788" t="inlineStr">
         <is>
-          <t>卡林格特</t>
+          <t>卡林盖特</t>
         </is>
       </c>
       <c r="C5788" t="inlineStr">
@@ -98770,7 +98770,7 @@
       </c>
       <c r="B5789" t="inlineStr">
         <is>
-          <t>西法克斯</t>
+          <t>赛法克斯</t>
         </is>
       </c>
       <c r="C5789" t="inlineStr">
@@ -98838,7 +98838,7 @@
       </c>
       <c r="B5793" t="inlineStr">
         <is>
-          <t>切金</t>
+          <t>奇金</t>
         </is>
       </c>
       <c r="C5793" t="inlineStr">
@@ -98855,7 +98855,7 @@
       </c>
       <c r="B5794" t="inlineStr">
         <is>
-          <t>库尔曼</t>
+          <t>库兹曼</t>
         </is>
       </c>
       <c r="C5794" t="inlineStr">
@@ -99110,7 +99110,7 @@
       </c>
       <c r="B5809" t="inlineStr">
         <is>
-          <t>兰斯琳</t>
+          <t>兰斯林</t>
         </is>
       </c>
       <c r="C5809" t="inlineStr">
@@ -99246,7 +99246,7 @@
       </c>
       <c r="B5817" t="inlineStr">
         <is>
-          <t>翁</t>
+          <t>奥恩</t>
         </is>
       </c>
       <c r="C5817" t="inlineStr">
@@ -99314,7 +99314,7 @@
       </c>
       <c r="B5821" t="inlineStr">
         <is>
-          <t>特雷瓦斯基斯</t>
+          <t>特里瓦斯基斯</t>
         </is>
       </c>
       <c r="C5821" t="inlineStr">
@@ -99460,6 +99460,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>